--- a/examples/99_tower_gbf/15mw/40m/outputs_mono/mono_turb_output.xlsx
+++ b/examples/99_tower_gbf/15mw/40m/outputs_mono/mono_turb_output.xlsx
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[11.27941854]</t>
+          <t>[11.]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -5611,7 +5611,8 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[[0.077 0.077 0.077 0.077 0.077 0.077 0.077]]</t>
+          <t>[[0.077      0.09496795 0.13       0.12091547 0.10898433 0.10498077
+  0.08938954]]</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -5634,8 +5635,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.25511963 11.25511963
- 11.25511963]</t>
+          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[11.25511963]</t>
+          <t>[11.]</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[11.25511963]</t>
+          <t>[11.]</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>[2.73425453]</t>
+          <t>[2.77192347]</t>
         </is>
       </c>
       <c r="E380" t="inlineStr"/>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 10.03048346  5.999     ]</t>
+          <t>[11.        11.        11.         8.8916906  5.999    ]</t>
         </is>
       </c>
       <c r="E391" t="inlineStr"/>
@@ -10162,7 +10162,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>[[0.06752031 0.04994652 0.012665   0.01092216 0.01188653]]</t>
+          <t>[[0.04       0.04       0.02512245 0.015      0.015     ]]</t>
         </is>
       </c>
       <c r="E413" t="inlineStr"/>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 10.03048346  5.999     ]</t>
+          <t>[11.        11.        11.         8.8916906  5.999    ]</t>
         </is>
       </c>
       <c r="E414" t="inlineStr"/>
@@ -13844,7 +13844,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>[1108.6184282]</t>
+          <t>[1089.47159683]</t>
         </is>
       </c>
       <c r="E526" t="inlineStr"/>
@@ -13867,7 +13867,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[3357.10599805]</t>
+          <t>[3461.85549611]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -13967,7 +13967,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[1108.6184282]</t>
+          <t>[1089.47159683]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -14048,7 +14048,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[1224.12154899]</t>
+          <t>[1103.86858613]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -14183,7 +14183,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[2021.44514539]</t>
+          <t>[2628.92864036]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -14210,7 +14210,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[5179674.13822839]</t>
+          <t>[6503043.99113554]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>[86.94716064]</t>
+          <t>[88.02394653]</t>
         </is>
       </c>
       <c r="E543" t="inlineStr"/>
@@ -17341,8 +17341,8 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>[388014.25589218 426867.90231984 247893.08898355      0.
-  87517.08492438      0.        ]</t>
+          <t>[388014.25589214 426867.9023198  247893.0889835       0.
+  87517.08492439      0.        ]</t>
         </is>
       </c>
       <c r="E676" t="inlineStr"/>
@@ -17434,7 +17434,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>[41458.17715201]</t>
+          <t>[41458.177152]</t>
         </is>
       </c>
       <c r="E680" t="inlineStr"/>
@@ -17480,7 +17480,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>[497337.8346919  497337.8346919  994664.61386989]</t>
+          <t>[497337.83469174 497337.83469174 994664.61386957]</t>
         </is>
       </c>
       <c r="E682" t="inlineStr"/>
@@ -17978,7 +17978,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>[136801.54355708]</t>
+          <t>[136801.54355707]</t>
         </is>
       </c>
       <c r="E703" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>[654746.8976497]</t>
+          <t>[654746.89764968]</t>
         </is>
       </c>
       <c r="E710" t="inlineStr"/>
@@ -18257,8 +18257,8 @@
         <is>
           <t>[   0.            0.            0.            0.            0.
     0.            0.            0.            0.            0.
-    0.            0.            0.          745.62084712  880.29089912
-  971.18528904 1008.42081737 1041.96178195 1072.58325805]</t>
+    0.            0.            0.          729.03380056  860.22223859
+  948.63122849  984.81920533 1017.40258925 1047.13860747]</t>
         </is>
       </c>
       <c r="E715" t="inlineStr"/>
@@ -18402,10 +18402,10 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          32553.58509118
-  33495.35980444  36380.37048799  41394.03792705  48861.90035993
-  59276.69160767  73360.44041837  85175.84772957  99487.4353026
- 116885.41960682      0.              0.              0.
+          <t>[     0.              0.              0.          30974.55430283
+  31871.91514184  34620.99320849  39398.548849    46516.76572879
+  56446.05467055  69875.24006445  81254.77857179  95051.02579361
+ 111836.96771038      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -18656,10 +18656,8 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.27941854 11.27941854
- 11.27941854 11.27941854 11.27941854 11.27941854 11.2713189  11.26321926
- 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963]</t>
+          <t>[11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11.
+ 11.]</t>
         </is>
       </c>
       <c r="E731" t="inlineStr"/>
@@ -18826,11 +18824,11 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          32553.58509118
-  33495.35980444  36380.37048799  41394.03792705  48861.90035993
-  59276.69160767  73360.44041837  85175.84772957  99487.4353026
- 116885.41960682    745.62084712    880.29089912    971.18528904
-   1008.42081737   1041.96178195   1072.58325805]</t>
+          <t>[     0.              0.              0.          30974.55430283
+  31871.91514184  34620.99320849  39398.548849    46516.76572879
+  56446.05467055  69875.24006445  81254.77857179  95051.02579361
+ 111836.96771038    729.03380056    860.22223859    948.63122849
+    984.81920533   1017.40258925   1047.13860747]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr"/>
@@ -18972,11 +18970,11 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -32553.58509118
-  -33495.35980444  -36380.37048799  -41394.03792705  -48861.90035993
-  -59276.69160767  -73360.44041837  -85175.84772957  -99487.4353026
- -116885.41960682    -745.62084712    -880.29089912    -971.18528904
-   -1008.42081737   -1041.96178195   -1072.58325805]</t>
+          <t>[      0.               0.               0.          -30974.55430283
+  -31871.91514184  -34620.99320849  -39398.548849    -46516.76572879
+  -56446.05467055  -69875.24006445  -81254.77857179  -95051.02579361
+ -111836.96771038    -729.03380056    -860.22223859    -948.63122849
+    -984.81920533   -1017.40258925   -1047.13860747]</t>
         </is>
       </c>
       <c r="E744" t="inlineStr"/>
@@ -19026,8 +19024,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.25511963 11.25511963
- 11.25511963]</t>
+          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr"/>
@@ -19050,7 +19047,7 @@
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.08598397 0.11248397 0.12545774 0.1149499  0.10698255 0.09718516]</t>
         </is>
       </c>
       <c r="E747" t="inlineStr"/>
@@ -19116,8 +19113,7 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.25511963 11.25511963
- 11.25511963]</t>
+          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
         </is>
       </c>
       <c r="E750" t="inlineStr"/>
@@ -19140,7 +19136,7 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.08598397 0.11248397 0.12545774 0.1149499  0.10698255 0.09718516]</t>
         </is>
       </c>
       <c r="E751" t="inlineStr"/>
@@ -19403,8 +19399,9 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077
- 0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.08598397 0.08598397 0.08598397 0.11248397 0.11248397 0.11248397
+ 0.12545774 0.12545774 0.12545774 0.1149499  0.1149499  0.1149499
+ 0.10698255 0.10698255 0.10698255 0.09718516 0.09718516 0.09718516]</t>
         </is>
       </c>
       <c r="E762" t="inlineStr"/>
@@ -19568,7 +19565,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>[1921445.14539197]</t>
+          <t>[2528928.640364]</t>
         </is>
       </c>
       <c r="E769" t="inlineStr"/>
@@ -19591,7 +19588,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>[4679674.13822839]</t>
+          <t>[6003043.99113554]</t>
         </is>
       </c>
       <c r="E770" t="inlineStr"/>
@@ -19614,7 +19611,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>[42.48351085]</t>
+          <t>[44.68533064]</t>
         </is>
       </c>
       <c r="E771" t="inlineStr"/>
@@ -19637,7 +19634,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>[4.65443023e+09 4.65443023e+09 6.02240134e+07 0.00000000e+00
+          <t>[6.49019468e+09 6.49019468e+09 7.50358943e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -19661,7 +19658,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>[1224121.54899169]</t>
+          <t>[1103868.58612766]</t>
         </is>
       </c>
       <c r="E773" t="inlineStr"/>
@@ -19684,7 +19681,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>[3348241.93360998]</t>
+          <t>[3061039.46302408]</t>
         </is>
       </c>
       <c r="E774" t="inlineStr"/>
@@ -19731,26 +19728,26 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>[[2.26638786e+10 5.91509018e+12 2.26638786e+10 5.91509018e+12
-  1.53437287e+10 1.33935873e+11]
- [2.05889312e+10 4.26732936e+12 2.05889312e+10 4.26732936e+12
-  1.42237287e+10 1.33935873e+11]
- [1.85139838e+10 2.97354386e+12 1.85139838e+10 2.97354386e+12
-  1.31037287e+10 1.33935873e+11]
- [1.64390365e+10 1.98948675e+12 1.64390365e+10 1.98948675e+12
-  1.19837287e+10 1.33935873e+11]
- [1.43640891e+10 1.27091112e+12 1.43640891e+10 1.27091112e+12
-  1.08637287e+10 1.33935873e+11]
- [1.22891417e+10 7.73570061e+11 1.22891417e+10 7.73570061e+11
-  9.74372865e+09 1.33935873e+11]
- [1.02141943e+10 4.53216655e+11 1.02141943e+10 4.53216655e+11
-  8.62372865e+09 1.33935873e+11]
- [8.13924698e+09 2.65603990e+11 8.13924698e+09 2.65603990e+11
-  7.50372865e+09 1.33935873e+11]
- [6.06429961e+09 1.66485152e+11 6.06429961e+09 1.66485152e+11
-  6.38372865e+09 1.33935873e+11]
- [3.98935224e+09 1.11613227e+11 3.98935224e+09 1.11613227e+11
-  5.26372865e+09 1.33935873e+11]]</t>
+          <t>[[2.25650526e+10 5.88608222e+12 2.25650526e+10 5.88608222e+12
+  1.52133333e+10 1.24226667e+11]
+ [2.04901053e+10 4.24064551e+12 2.04901053e+10 4.24064551e+12
+  1.40933333e+10 1.24226667e+11]
+ [1.84151579e+10 2.94918412e+12 1.84151579e+10 2.94918412e+12
+  1.29733333e+10 1.24226667e+11]
+ [1.63402105e+10 1.96745111e+12 1.63402105e+10 1.96745111e+12
+  1.18533333e+10 1.24226667e+11]
+ [1.42652632e+10 1.25119959e+12 1.42652632e+10 1.25119959e+12
+  1.07333333e+10 1.24226667e+11]
+ [1.21903158e+10 7.56182634e+11 1.21903158e+10 7.56182634e+11
+  9.61333333e+09 1.24226667e+11]
+ [1.01153684e+10 4.38153333e+11 1.01153684e+10 4.38153333e+11
+  8.49333333e+09 1.24226667e+11]
+ [8.04042105e+09 2.52864774e+11 8.04042105e+09 2.52864774e+11
+  7.37333333e+09 1.24226667e+11]
+ [5.96547368e+09 1.56070041e+11 5.96547368e+09 1.56070041e+11
+  6.25333333e+09 1.24226667e+11]
+ [3.89052632e+09 1.03522222e+11 3.89052632e+09 1.03522222e+11
+  5.13333333e+09 1.24226667e+11]]</t>
         </is>
       </c>
       <c r="E776" t="inlineStr"/>
@@ -19773,9 +19770,9 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>[2.89958717 2.89958717 2.89958717 2.89958717 2.89958717 2.89958717
- 2.89958717 2.89958717 2.89958717 2.89853894 2.89644246 2.89434598
- 2.89329775 2.89329775 2.89329775 2.89329775 2.89329775 2.89329775]</t>
+          <t>[3.15453787 3.15453787 3.15453787 4.11673683 4.11673683 4.11673683
+ 4.58608478 4.58608478 4.58608478 4.20603309 4.20603309 4.20603309
+ 3.91737186 3.91737186 3.91737186 3.56182214 3.56182214 3.56182214]</t>
         </is>
       </c>
       <c r="E777" t="inlineStr"/>
@@ -19798,9 +19795,9 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>[1.65049817 1.65049817 1.65049817 1.65049817 1.65049817 1.65049817
- 1.65049817 1.65049817 1.65049817 1.64990337 1.64871377 1.64752417
- 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937]</t>
+          <t>[1.7964496  1.7964496  1.7964496  2.34707531 2.34707531 2.34707531
+ 2.61614467 2.61614467 2.61614467 2.39824272 2.39824272 2.39824272
+ 2.23287916 2.23287916 2.23287916 2.02936136 2.02936136 2.02936136]</t>
         </is>
       </c>
       <c r="E778" t="inlineStr"/>
@@ -19823,9 +19820,9 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>[1.65049817 1.65049817 1.65049817 1.65049817 1.65049817 1.65049817
- 1.65049817 1.65049817 1.65049817 1.64990337 1.64871377 1.64752417
- 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937]</t>
+          <t>[1.7964496  1.7964496  1.7964496  2.34707531 2.34707531 2.34707531
+ 2.61614467 2.61614467 2.61614467 2.39824272 2.39824272 2.39824272
+ 2.23287916 2.23287916 2.23287916 2.02936136 2.02936136 2.02936136]</t>
         </is>
       </c>
       <c r="E779" t="inlineStr"/>
@@ -19848,9 +19845,9 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>[45.48731369 45.48731369 45.48731369 45.48731369 45.48731369 45.48731369
- 45.48731369 45.48731369 45.48731369 45.43800033 45.33948055 45.24110328
- 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806]</t>
+          <t>[46.97230669 46.97230669 46.97230669 61.00523245 61.00523245 61.00523245
+ 67.80033872 67.80033872 67.80033872 62.30056606 62.30056606 62.30056606
+ 58.10895957 58.10895957 58.10895957 52.92904051 52.92904051 52.92904051]</t>
         </is>
       </c>
       <c r="E780" t="inlineStr"/>
@@ -19873,9 +19870,9 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>[45.48731369 45.48731369 45.48731369 45.48731369 45.48731369 45.48731369
- 45.48731369 45.48731369 45.48731369 45.43800033 45.33948055 45.24110328
- 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806]</t>
+          <t>[46.97230669 46.97230669 46.97230669 61.00523245 61.00523245 61.00523245
+ 67.80033872 67.80033872 67.80033872 62.30056606 62.30056606 62.30056606
+ 58.10895957 58.10895957 58.10895957 52.92904051 52.92904051 52.92904051]</t>
         </is>
       </c>
       <c r="E781" t="inlineStr"/>
@@ -19898,9 +19895,10 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>[90.97462738 90.97462738 90.97462738 90.97462738 90.97462738 90.97462738
- 90.97462738 90.97462738 90.97462738 90.87600065 90.67896109 90.48220656
- 90.38393611 90.38393611 90.38393611 90.38393612 90.38393612 90.38393612]</t>
+          <t>[ 93.94461338  93.94461338  93.94461338 122.0104649  122.0104649
+ 122.0104649  135.60067744 135.60067744 135.60067744 124.60113212
+ 124.60113212 124.60113212 116.21791913 116.21791913 116.21791913
+ 105.85808102 105.85808102 105.85808102]</t>
         </is>
       </c>
       <c r="E782" t="inlineStr"/>
@@ -20095,8 +20093,8 @@
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>[2.21053174 2.21053174 2.21053174 1.18113161 1.18113161 1.18113161
- 0.43764062 0.4214574  0.40527417 0.35833065 0.30681399 0.25529734]</t>
+          <t>[1.47368341 1.47368341 1.47368341 1.2004377  1.2004377  1.2004377
+ 0.71674605 0.66935414 0.62196223 0.423276   0.37465705 0.32603809]</t>
         </is>
       </c>
       <c r="E789" t="inlineStr"/>
@@ -20119,8 +20117,8 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>[1.25734279 1.25734279 1.25734279 0.67108252 0.67108252 0.67108252
- 0.24846446 0.23928098 0.23009749 0.20345091 0.17421682 0.14498276]</t>
+          <t>[0.83762341 0.83762341 0.83762341 0.68210628 0.68210628 0.68210628
+ 0.40706992 0.38017659 0.35328328 0.24038536 0.21279571 0.1852061 ]</t>
         </is>
       </c>
       <c r="E790" t="inlineStr"/>
@@ -20143,8 +20141,8 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>[1.25734279 1.25734279 1.25734279 0.67108252 0.67108252 0.67108252
- 0.24846446 0.23928098 0.23009749 0.20345091 0.17421682 0.14498276]</t>
+          <t>[0.83762341 0.83762341 0.83762341 0.68210628 0.68210628 0.68210628
+ 0.40706992 0.38017659 0.35328328 0.24038536 0.21279571 0.1852061 ]</t>
         </is>
       </c>
       <c r="E791" t="inlineStr"/>
@@ -20167,8 +20165,8 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>[34.63972697 34.63972697 34.63972697 18.5991286  18.5991286  18.5991286
-  6.66660791  5.95405874  5.29418239  3.9134019   2.45656527  1.415279  ]</t>
+          <t>[22.12794594 22.12794594 22.12794594 18.04944712 18.04944712 18.04944712
+ 10.12104202  8.24322947  6.6133551   3.72848609  2.58561395  1.703992  ]</t>
         </is>
       </c>
       <c r="E792" t="inlineStr"/>
@@ -20191,8 +20189,8 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>[34.63972697 34.63972697 34.63972697 18.5991286  18.5991286  18.5991286
-  6.66660791  5.95405874  5.29418239  3.9134019   2.45656527  1.415279  ]</t>
+          <t>[22.12794594 22.12794594 22.12794594 18.04944712 18.04944712 18.04944712
+ 10.12104202  8.24322947  6.6133551   3.72848609  2.58561395  1.703992  ]</t>
         </is>
       </c>
       <c r="E793" t="inlineStr"/>
@@ -20215,8 +20213,8 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>[69.27945394 69.27945394 69.27945394 37.1982572  37.1982572  37.1982572
- 13.33321581 11.90811748 10.58836479  7.82680381  4.91313053  2.83055801]</t>
+          <t>[44.25589189 44.25589189 44.25589189 36.09889424 36.09889424 36.09889424
+ 20.24208404 16.48645895 13.22671021  7.45697218  5.1712279   3.40798401]</t>
         </is>
       </c>
       <c r="E794" t="inlineStr"/>
@@ -20310,9 +20308,9 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963 10.84690757 10.43869552 10.03048346  8.68665564  7.34282782
-  5.999     ]</t>
+          <t>[11.        11.        11.        11.        11.        11.
+ 11.        10.2972302  9.5944604  8.8916906  7.9274604  6.9632302
+  5.999    ]</t>
         </is>
       </c>
       <c r="E798" t="inlineStr"/>
@@ -20335,8 +20333,8 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>[0.05873341 0.05873341 0.05873341 0.03130576 0.03130576 0.03130576
- 0.01179358 0.01179358 0.01179358 0.01140435 0.01140435 0.01140435]</t>
+          <t>[0.04       0.04       0.04       0.03256123 0.03256123 0.03256123
+ 0.02006123 0.02006123 0.02006123 0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E799" t="inlineStr"/>
@@ -20443,7 +20441,7 @@
         <is>
           <t>[[ 2937712.61868119]
  [    8738.15973297]
- [-6848706.78611816]]</t>
+ [-6848706.78611806]]</t>
         </is>
       </c>
       <c r="E803" t="inlineStr"/>
@@ -20493,7 +20491,7 @@
         <is>
           <t>[[ 2.93771262e+06]
  [ 8.73815973e+03]
- [-1.90621722e+07]]</t>
+ [-1.78733771e+07]]</t>
         </is>
       </c>
       <c r="E805" t="inlineStr"/>
@@ -20516,8 +20514,8 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>[[-1.97655841e+06]
- [ 4.13547861e+08]
+          <t>[[-1.98293919e+06]
+ [ 4.15003668e+08]
  [ 6.20262840e+06]]</t>
         </is>
       </c>
@@ -20541,8 +20539,7 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>[1583471.47229551 1583471.47229551 3166942.94459102       0.
-       0.               0.        ]</t>
+          <t>[1512500. 1512500. 3025000.       0.       0.       0.]</t>
         </is>
       </c>
       <c r="E807" t="inlineStr"/>
@@ -20634,7 +20631,7 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>[2172516.75124535]</t>
+          <t>[2052263.78838131]</t>
         </is>
       </c>
       <c r="E811" t="inlineStr"/>
@@ -20657,7 +20654,7 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>[-2.95028792e+00 -4.18477927e-02  9.65095170e+01]</t>
+          <t>[-3.12316086e+00 -4.42998757e-02  1.04382254e+02]</t>
         </is>
       </c>
       <c r="E812" t="inlineStr"/>
@@ -20680,7 +20677,7 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>[2.79468096e+10 2.78158767e+10 3.03492704e+08 5.41253437e+02
+          <t>[2.87019519e+10 2.85710190e+10 2.97397220e+08 5.41253437e+02
  1.42357768e+07 1.69892134e+05]</t>
         </is>
       </c>
@@ -20704,7 +20701,7 @@
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>[948395.20225367]</t>
+          <t>[948395.20225366]</t>
         </is>
       </c>
       <c r="E814" t="inlineStr"/>
@@ -20859,22 +20856,22 @@
           <t>[[      0.        ]
  [      0.        ]
  [      0.        ]
- [ -32553.58509118]
- [ -33495.35980444]
- [ -36380.37048799]
- [ -41394.03792705]
- [ -48861.90035993]
- [ -59276.69160767]
- [ -73360.44041837]
- [ -85175.84772957]
- [ -99487.4353026 ]
- [-116885.41960682]
- [   -745.62084712]
- [   -880.29089912]
- [   -971.18528904]
- [  -1008.42081737]
- [  -1041.96178195]
- [  -1072.58325805]]</t>
+ [ -30974.55430283]
+ [ -31871.91514184]
+ [ -34620.99320849]
+ [ -39398.548849  ]
+ [ -46516.76572879]
+ [ -56446.05467055]
+ [ -69875.24006445]
+ [ -81254.77857179]
+ [ -95051.02579361]
+ [-111836.96771038]
+ [   -729.03380056]
+ [   -860.22223859]
+ [   -948.63122849]
+ [   -984.81920533]
+ [  -1017.40258925]
+ [  -1047.13860747]]</t>
         </is>
       </c>
       <c r="E819" t="inlineStr"/>
@@ -20967,18 +20964,18 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>[[-1072.58325805]
- [-1236.87265147]
- [-1355.30471013]
- [-1450.32570967]
- [-1562.00480257]
- [-1655.52320666]
- [-1736.78099548]
- [-1704.1947071 ]
- [-1666.69722919]
- [-1625.19033649]
- [-1412.5622388 ]
- [-1208.62674008]
+          <t>[[-1047.13860747]
+ [-1206.50615946]
+ [-1321.22697622]
+ [-1413.18203997]
+ [-1521.16636429]
+ [-1611.52120343]
+ [-1689.9826881 ]
+ [-1604.28359226]
+ [-1515.04957571]
+ [-1423.35422209]
+ [-1284.97426625]
+ [-1147.0849804 ]
  [-1007.39469272]]</t>
         </is>
       </c>
@@ -21002,24 +20999,24 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>[[-39301622.80522774]
- [-37083746.85370922]
- [-34704730.65800916]
- [-33432321.5489004 ]
- [-32150441.13722694]
- [-30849011.51341592]
- [-29516690.10095161]
- [-28140109.1159741 ]
- [-26702894.26848895]
- [-25702284.67238919]
- [-24659100.08679987]
- [-23564129.1941055 ]
- [-22632349.55059476]
- [-21891978.3643952 ]
- [-21151234.99685385]
- [-20780757.60583011]
- [-20410221.82430553]
- [-20039633.10883924]]</t>
+          <t>[[-43752370.57471408]
+ [-41339484.26477805]
+ [-38773273.91504689]
+ [-37043295.85900379]
+ [-35304292.8704958 ]
+ [-33546661.44715886]
+ [-31580087.35303585]
+ [-29571320.67870257]
+ [-27504741.77710497]
+ [-26182987.78264907]
+ [-24819693.74973121]
+ [-23405939.10816694]
+ [-22221414.18425542]
+ [-21220000.88512706]
+ [-20218225.25027365]
+ [-19762560.92009112]
+ [-19306839.85353456]
+ [-18851067.373628  ]]</t>
         </is>
       </c>
       <c r="E823" t="inlineStr"/>
@@ -21042,24 +21039,24 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>[[ -4753945.82897518]
- [-11712073.35719811]
- [-11871227.17813491]
- [  2938271.39553704]
- [  2938465.26757913]
- [  2938663.57138708]
- [  2938871.43247075]
- [  2939095.1164675 ]
- [  2939342.69517492]
- [  2938956.44099947]
- [  2939095.32350315]
- [  2939252.0770126 ]
- [  2939201.94481211]
- [  2938876.68606963]
- [  2938934.09570128]
- [  2938344.42753372]
- [  2938358.21754858]
- [  2938371.83028273]]</t>
+          <t>[[ -5104735.82536491]
+ [-12164069.40209557]
+ [-11877845.78320616]
+ [  2938427.41939447]
+ [  2938623.04563336]
+ [  2938821.05975201]
+ [  2939145.50114822]
+ [  2939357.97325217]
+ [  2939586.02094398]
+ [  2939010.81958095]
+ [  2939133.66693317]
+ [  2939269.21544171]
+ [  2939167.06597052]
+ [  2938941.82624574]
+ [  2939002.03814182]
+ [  2938320.1404695 ]
+ [  2938334.59855992]
+ [  2938348.87352696]]</t>
         </is>
       </c>
       <c r="E824" t="inlineStr"/>
@@ -21082,24 +21079,24 @@
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>[[-20581.64500714]
- [-51103.09626876]
- [-53374.40741584]
- [  8740.54821588]
- [  8741.39538054]
- [  8742.26882492]
- [  8743.19139878]
- [  8744.191347  ]
- [  8745.30537351]
- [  8743.6338008 ]
- [  8744.2646228 ]
- [  8744.97884979]
- [  8744.77852562]
- [  8743.35027855]
- [  8743.62465215]
- [  8740.99366528]
- [  8741.0605007 ]
- [  8741.12679515]]</t>
+          <t>[[-22100.76206508]
+ [-53082.3384408 ]
+ [-53452.72347361]
+ [  8741.2195524 ]
+ [  8742.07451768]
+ [  8742.94695231]
+ [  8744.3762159 ]
+ [  8745.32688916]
+ [  8746.35434028]
+ [  8743.85798883]
+ [  8744.41690778]
+ [  8745.03561615]
+ [  8744.60481118]
+ [  8743.62567677]
+ [  8743.91352517]
+ [  8740.8774971 ]
+ [  8740.94758618]
+ [  8741.01712062]]</t>
         </is>
       </c>
       <c r="E825" t="inlineStr"/>
@@ -21122,24 +21119,24 @@
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>[[ -240238.204045  ]
- [-1063062.43406027]
- [-2069615.44849589]
- [-2363063.35778223]
- [-2318528.26475299]
- [-2273820.66310704]
- [-2228961.42852102]
- [-2183971.8345807 ]
- [-2138873.90815754]
- [-2108768.83749656]
- [-2078634.29875587]
- [-2048477.76309904]
- [-2018307.60718623]
- [-1988122.51803417]
- [-1957918.55324632]
- [-1942815.58243065]
- [-1927709.71503089]
- [-1912601.42434087]]</t>
+          <t>[[ -255636.57860753]
+ [-1101858.42508819]
+ [-2096149.69659979]
+ [-2362127.94958108]
+ [-2317602.95382973]
+ [-2272949.44501648]
+ [-2228196.21679916]
+ [-2183375.53326176]
+ [-2138507.67985751]
+ [-2108587.5121148 ]
+ [-2078656.44542454]
+ [-2048721.22849319]
+ [-2018787.45984741]
+ [-1988851.6060803 ]
+ [-1958911.86402897]
+ [-1943946.23556958]
+ [-1928979.6541071 ]
+ [-1914012.59262107]]</t>
         </is>
       </c>
       <c r="E826" t="inlineStr"/>
@@ -21162,24 +21159,24 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>[[5.62660459e+07]
- [2.47361620e+08]
- [4.76859680e+08]
- [5.40566261e+08]
- [5.25681304e+08]
- [5.10757426e+08]
- [4.95799766e+08]
- [4.80813508e+08]
- [4.65803947e+08]
- [4.55789381e+08]
- [4.45768852e+08]
- [4.35744097e+08]
- [4.25717041e+08]
- [4.15687416e+08]
- [4.05654370e+08]
- [4.00637933e+08]
- [3.95621058e+08]
- [3.90603853e+08]]</t>
+          <t>[[5.98877453e+07]
+ [2.56421582e+08]
+ [4.82967425e+08]
+ [5.40302398e+08]
+ [5.25419832e+08]
+ [5.10508361e+08]
+ [4.95574910e+08]
+ [4.80626960e+08]
+ [4.65669305e+08]
+ [4.55696274e+08]
+ [4.45721335e+08]
+ [4.35746036e+08]
+ [4.25771644e+08]
+ [4.15797414e+08]
+ [4.05822949e+08]
+ [4.00836894e+08]
+ [3.95850799e+08]
+ [3.90864773e+08]]</t>
         </is>
       </c>
       <c r="E827" t="inlineStr"/>
@@ -21202,24 +21199,24 @@
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>[[1022012.42736814]
- [2233777.89201055]
- [3860295.85103691]
- [6203564.71588812]
- [6203530.38208776]
- [6203495.79310468]
- [6203460.67701973]
- [6203424.72780275]
- [6203387.58479432]
- [6203349.0667971 ]
- [6203322.56127631]
- [6203294.86671932]
- [6203265.50060612]
- [6203240.30585334]
- [6203220.28681429]
- [6203200.25784116]
- [6203190.24054482]
- [6203180.22170205]]</t>
+          <t>[[1062409.90200543]
+ [2301988.74291709]
+ [3925467.19307841]
+ [6203365.17649596]
+ [6203332.29959043]
+ [6203299.25152418]
+ [6203200.60640037]
+ [6203167.05979664]
+ [6203132.7938297 ]
+ [6203139.93632352]
+ [6203115.35244422]
+ [6203089.99614772]
+ [6203095.77996006]
+ [6203072.1253514 ]
+ [6203052.12756792]
+ [6203072.4257614 ]
+ [6203062.41800208]
+ [6203052.40902895]]</t>
         </is>
       </c>
       <c r="E828" t="inlineStr"/>
@@ -21271,12 +21268,12 @@
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.27941854 11.27941854
- 11.27941854 11.27941854 11.27941854 11.27941854 11.2713189  11.26321926
- 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963 10.84690757 10.43869552 10.03048346  8.68665564  7.34282782
-  5.999     ]</t>
+          <t>[11.        11.        11.        11.        11.        11.
+ 11.        11.        11.        11.        11.        11.
+ 11.        11.        11.        11.        11.        11.
+ 11.        11.        11.        11.        11.        11.
+ 11.        10.2972302  9.5944604  8.8916906  7.9274604  6.9632302
+  5.999    ]</t>
         </is>
       </c>
       <c r="E830" t="inlineStr"/>
@@ -21299,11 +21296,11 @@
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t>[0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.05873341 0.05873341 0.05873341 0.03130576 0.03130576 0.03130576
- 0.01179358 0.01179358 0.01179358 0.01140435 0.01140435 0.01140435]</t>
+          <t>[0.08598397 0.08598397 0.08598397 0.11248397 0.11248397 0.11248397
+ 0.12545774 0.12545774 0.12545774 0.1149499  0.1149499  0.1149499
+ 0.10698255 0.10698255 0.10698255 0.09718516 0.09718516 0.09718516
+ 0.04       0.04       0.04       0.03256123 0.03256123 0.03256123
+ 0.02006123 0.02006123 0.02006123 0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E831" t="inlineStr"/>
@@ -21451,11 +21448,11 @@
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>[2.89958717 2.89958717 2.89958717 2.89958717 2.89958717 2.89958717
- 2.89958717 2.89958717 2.89958717 2.89853894 2.89644246 2.89434598
- 2.89329775 2.89329775 2.89329775 2.89329775 2.89329775 2.89329775
- 2.21053174 2.21053174 2.21053174 1.18113161 1.18113161 1.18113161
- 0.43764062 0.4214574  0.40527417 0.35833065 0.30681399 0.25529734]</t>
+          <t>[3.15453787 3.15453787 3.15453787 4.11673683 4.11673683 4.11673683
+ 4.58608478 4.58608478 4.58608478 4.20603309 4.20603309 4.20603309
+ 3.91737186 3.91737186 3.91737186 3.56182214 3.56182214 3.56182214
+ 1.47368341 1.47368341 1.47368341 1.2004377  1.2004377  1.2004377
+ 0.71674605 0.66935414 0.62196223 0.423276   0.37465705 0.32603809]</t>
         </is>
       </c>
       <c r="E837" t="inlineStr"/>
@@ -21478,11 +21475,11 @@
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>[1.65049817 1.65049817 1.65049817 1.65049817 1.65049817 1.65049817
- 1.65049817 1.65049817 1.65049817 1.64990337 1.64871377 1.64752417
- 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937
- 1.25734279 1.25734279 1.25734279 0.67108252 0.67108252 0.67108252
- 0.24846446 0.23928098 0.23009749 0.20345091 0.17421682 0.14498276]</t>
+          <t>[1.7964496  1.7964496  1.7964496  2.34707531 2.34707531 2.34707531
+ 2.61614467 2.61614467 2.61614467 2.39824272 2.39824272 2.39824272
+ 2.23287916 2.23287916 2.23287916 2.02936136 2.02936136 2.02936136
+ 0.83762341 0.83762341 0.83762341 0.68210628 0.68210628 0.68210628
+ 0.40706992 0.38017659 0.35328328 0.24038536 0.21279571 0.1852061 ]</t>
         </is>
       </c>
       <c r="E838" t="inlineStr"/>
@@ -21505,11 +21502,11 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>[1.65049817 1.65049817 1.65049817 1.65049817 1.65049817 1.65049817
- 1.65049817 1.65049817 1.65049817 1.64990337 1.64871377 1.64752417
- 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937
- 1.25734279 1.25734279 1.25734279 0.67108252 0.67108252 0.67108252
- 0.24846446 0.23928098 0.23009749 0.20345091 0.17421682 0.14498276]</t>
+          <t>[1.7964496  1.7964496  1.7964496  2.34707531 2.34707531 2.34707531
+ 2.61614467 2.61614467 2.61614467 2.39824272 2.39824272 2.39824272
+ 2.23287916 2.23287916 2.23287916 2.02936136 2.02936136 2.02936136
+ 0.83762341 0.83762341 0.83762341 0.68210628 0.68210628 0.68210628
+ 0.40706992 0.38017659 0.35328328 0.24038536 0.21279571 0.1852061 ]</t>
         </is>
       </c>
       <c r="E839" t="inlineStr"/>
@@ -21532,11 +21529,11 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>[45.48731369 45.48731369 45.48731369 45.48731369 45.48731369 45.48731369
- 45.48731369 45.48731369 45.48731369 45.43800033 45.33948055 45.24110328
- 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806
- 34.63972697 34.63972697 34.63972697 18.5991286  18.5991286  18.5991286
-  6.66660791  5.95405874  5.29418239  3.9134019   2.45656527  1.415279  ]</t>
+          <t>[46.97230669 46.97230669 46.97230669 61.00523245 61.00523245 61.00523245
+ 67.80033872 67.80033872 67.80033872 62.30056606 62.30056606 62.30056606
+ 58.10895957 58.10895957 58.10895957 52.92904051 52.92904051 52.92904051
+ 22.12794594 22.12794594 22.12794594 18.04944712 18.04944712 18.04944712
+ 10.12104202  8.24322947  6.6133551   3.72848609  2.58561395  1.703992  ]</t>
         </is>
       </c>
       <c r="E840" t="inlineStr"/>
@@ -21559,11 +21556,11 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>[45.48731369 45.48731369 45.48731369 45.48731369 45.48731369 45.48731369
- 45.48731369 45.48731369 45.48731369 45.43800033 45.33948055 45.24110328
- 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806
- 34.63972697 34.63972697 34.63972697 18.5991286  18.5991286  18.5991286
-  6.66660791  5.95405874  5.29418239  3.9134019   2.45656527  1.415279  ]</t>
+          <t>[46.97230669 46.97230669 46.97230669 61.00523245 61.00523245 61.00523245
+ 67.80033872 67.80033872 67.80033872 62.30056606 62.30056606 62.30056606
+ 58.10895957 58.10895957 58.10895957 52.92904051 52.92904051 52.92904051
+ 22.12794594 22.12794594 22.12794594 18.04944712 18.04944712 18.04944712
+ 10.12104202  8.24322947  6.6133551   3.72848609  2.58561395  1.703992  ]</t>
         </is>
       </c>
       <c r="E841" t="inlineStr"/>
@@ -21586,11 +21583,12 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>[90.97462738 90.97462738 90.97462738 90.97462738 90.97462738 90.97462738
- 90.97462738 90.97462738 90.97462738 90.87600065 90.67896109 90.48220656
- 90.38393611 90.38393611 90.38393611 90.38393612 90.38393612 90.38393612
- 69.27945394 69.27945394 69.27945394 37.1982572  37.1982572  37.1982572
- 13.33321581 11.90811748 10.58836479  7.82680381  4.91313053  2.83055801]</t>
+          <t>[ 93.94461338  93.94461338  93.94461338 122.0104649  122.0104649
+ 122.0104649  135.60067744 135.60067744 135.60067744 124.60113212
+ 124.60113212 124.60113212 116.21791913 116.21791913 116.21791913
+ 105.85808102 105.85808102 105.85808102  44.25589189  44.25589189
+  44.25589189  36.09889424  36.09889424  36.09889424  20.24208404
+  16.48645895  13.22671021   7.45697218   5.1712279    3.40798401]</t>
         </is>
       </c>
       <c r="E842" t="inlineStr"/>
@@ -21613,36 +21611,36 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>[[-3.93016228e+07]
- [-3.70837469e+07]
- [-3.47047307e+07]
- [-3.34323215e+07]
- [-3.21504411e+07]
- [-3.08490115e+07]
- [-2.95166901e+07]
- [-2.81401091e+07]
- [-2.67028943e+07]
- [-2.57022847e+07]
- [-2.46591001e+07]
- [-2.35641292e+07]
- [-2.26323496e+07]
- [-2.18919784e+07]
- [-2.11512350e+07]
- [-2.07807576e+07]
- [-2.04102218e+07]
- [-2.00396331e+07]
- [-1.70830647e+07]
- [-1.51061849e+07]
- [-1.31276799e+07]
- [-1.16057921e+07]
- [-1.00822069e+07]
- [-8.55693652e+06]
- [-8.20700381e+06]
- [-7.86915310e+06]
- [-7.54396954e+06]
- [-7.27418798e+06]
- [-7.04218473e+06]
- [ 8.44011083e-09]]</t>
+          <t>[[-4.37523706e+07]
+ [-4.13394843e+07]
+ [-3.87732739e+07]
+ [-3.70432959e+07]
+ [-3.53042929e+07]
+ [-3.35466614e+07]
+ [-3.15800874e+07]
+ [-2.95713207e+07]
+ [-2.75047418e+07]
+ [-2.61829878e+07]
+ [-2.48196937e+07]
+ [-2.34059391e+07]
+ [-2.22214142e+07]
+ [-2.12200009e+07]
+ [-2.02182253e+07]
+ [-1.97625609e+07]
+ [-1.93068399e+07]
+ [-1.88510674e+07]
+ [-1.65493300e+07]
+ [-1.52273094e+07]
+ [-1.39037132e+07]
+ [-1.23579110e+07]
+ [-1.08104669e+07]
+ [-9.26139388e+06]
+ [-8.69939894e+06]
+ [-8.17352364e+06]
+ [-7.68459427e+06]
+ [-7.37028584e+06]
+ [-7.09158587e+06]
+ [ 2.92493496e-09]]</t>
         </is>
       </c>
       <c r="E843" t="inlineStr"/>
@@ -21665,36 +21663,36 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>[[-4.75394583e+06]
- [-1.17120734e+07]
- [-1.18712272e+07]
- [ 2.93827140e+06]
- [ 2.93846527e+06]
- [ 2.93866357e+06]
- [ 2.93887143e+06]
- [ 2.93909512e+06]
- [ 2.93934270e+06]
- [ 2.93895644e+06]
- [ 2.93909532e+06]
- [ 2.93925208e+06]
- [ 2.93920194e+06]
- [ 2.93887669e+06]
- [ 2.93893410e+06]
- [ 2.93834443e+06]
- [ 2.93835822e+06]
- [ 2.93837183e+06]
- [ 2.94158435e+06]
- [ 2.94217483e+06]
- [ 2.94271038e+06]
- [ 2.94222371e+06]
- [ 2.94302910e+06]
- [ 2.94366618e+06]
- [ 2.93923669e+06]
- [ 2.93932624e+06]
- [ 2.93937503e+06]
- [ 2.93915893e+06]
- [ 2.93898885e+06]
- [ 1.04204481e+03]]</t>
+          <t>[[-5.10473583e+06]
+ [-1.21640694e+07]
+ [-1.18778458e+07]
+ [ 2.93842742e+06]
+ [ 2.93862305e+06]
+ [ 2.93882106e+06]
+ [ 2.93914550e+06]
+ [ 2.93935797e+06]
+ [ 2.93958602e+06]
+ [ 2.93901082e+06]
+ [ 2.93913367e+06]
+ [ 2.93926922e+06]
+ [ 2.93916707e+06]
+ [ 2.93894183e+06]
+ [ 2.93900204e+06]
+ [ 2.93832014e+06]
+ [ 2.93833460e+06]
+ [ 2.93834887e+06]
+ [ 2.93992384e+06]
+ [ 2.94054250e+06]
+ [ 2.94110379e+06]
+ [ 2.94246238e+06]
+ [ 2.94330636e+06]
+ [ 2.94397361e+06]
+ [ 2.94017962e+06]
+ [ 2.94017455e+06]
+ [ 2.94012687e+06]
+ [ 2.93934113e+06]
+ [ 2.93919329e+06]
+ [ 1.26718007e+03]]</t>
         </is>
       </c>
       <c r="E844" t="inlineStr"/>
@@ -21717,36 +21715,36 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>[[-2.05816450e+04]
- [-5.11030963e+04]
- [-5.33744074e+04]
- [ 8.74054822e+03]
- [ 8.74139538e+03]
- [ 8.74226882e+03]
- [ 8.74319140e+03]
- [ 8.74419135e+03]
- [ 8.74530537e+03]
- [ 8.74363380e+03]
- [ 8.74426462e+03]
- [ 8.74497885e+03]
- [ 8.74477853e+03]
- [ 8.74335028e+03]
- [ 8.74362465e+03]
- [ 8.74099367e+03]
- [ 8.74106050e+03]
- [ 8.74112680e+03]
- [ 8.75573163e+03]
- [ 8.75873163e+03]
- [ 8.76157130e+03]
- [ 8.75989437e+03]
- [ 8.76482728e+03]
- [ 8.76925640e+03]
- [ 8.74653637e+03]
- [ 8.74765748e+03]
- [ 8.74868782e+03]
- [ 8.74814511e+03]
- [ 8.74815297e+03]
- [ 8.93201103e+00]]</t>
+          <t>[[-2.21007621e+04]
+ [-5.30823384e+04]
+ [-5.34527235e+04]
+ [ 8.74121955e+03]
+ [ 8.74207452e+03]
+ [ 8.74294695e+03]
+ [ 8.74437622e+03]
+ [ 8.74532689e+03]
+ [ 8.74635434e+03]
+ [ 8.74385799e+03]
+ [ 8.74441691e+03]
+ [ 8.74503562e+03]
+ [ 8.74460481e+03]
+ [ 8.74362568e+03]
+ [ 8.74391353e+03]
+ [ 8.74087750e+03]
+ [ 8.74094759e+03]
+ [ 8.74101712e+03]
+ [ 8.74822459e+03]
+ [ 8.75136794e+03]
+ [ 8.75434425e+03]
+ [ 8.76149409e+03]
+ [ 8.76666184e+03]
+ [ 8.77129887e+03]
+ [ 8.75175192e+03]
+ [ 8.75239870e+03]
+ [ 8.75298862e+03]
+ [ 8.74907121e+03]
+ [ 8.74949216e+03]
+ [ 1.05985261e+01]]</t>
         </is>
       </c>
       <c r="E845" t="inlineStr"/>
@@ -21769,36 +21767,36 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>[[-2.40238204e+05]
- [-1.06306243e+06]
- [-2.06961545e+06]
- [-2.36306336e+06]
- [-2.31852826e+06]
- [-2.27382066e+06]
- [-2.22896143e+06]
- [-2.18397183e+06]
- [-2.13887391e+06]
- [-2.10876884e+06]
- [-2.07863430e+06]
- [-2.04847776e+06]
- [-2.01830761e+06]
- [-1.98812252e+06]
- [-1.95791855e+06]
- [-1.94281558e+06]
- [-1.92770972e+06]
- [-1.91260142e+06]
- [-1.80718908e+06]
- [-1.70158065e+06]
- [-1.59594966e+06]
- [-1.44476389e+06]
- [-1.29305324e+06]
- [-1.14126270e+06]
- [-1.05019877e+06]
- [-9.58626697e+05]
- [-8.66576291e+05]
- [-7.80208926e+05]
- [-6.93215874e+05]
- [-1.94780409e-04]]</t>
+          <t>[[-2.55636579e+05]
+ [-1.10185843e+06]
+ [-2.09614970e+06]
+ [-2.36212795e+06]
+ [-2.31760295e+06]
+ [-2.27294945e+06]
+ [-2.22819622e+06]
+ [-2.18337553e+06]
+ [-2.13850768e+06]
+ [-2.10858751e+06]
+ [-2.07865645e+06]
+ [-2.04872123e+06]
+ [-2.01878746e+06]
+ [-1.98885161e+06]
+ [-1.95891186e+06]
+ [-1.94394624e+06]
+ [-1.92897965e+06]
+ [-1.91401259e+06]
+ [-1.80937496e+06]
+ [-1.70405509e+06]
+ [-1.59825116e+06]
+ [-1.44632245e+06]
+ [-1.29379956e+06]
+ [-1.14115582e+06]
+ [-1.04971014e+06]
+ [-9.58041562e+05]
+ [-8.66127551e+05]
+ [-7.79991699e+05]
+ [-6.93247123e+05]
+ [-2.40440546e-04]]</t>
         </is>
       </c>
       <c r="E846" t="inlineStr"/>
@@ -21821,36 +21819,36 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>[[ 5.62660459e+07]
- [ 2.47361620e+08]
- [ 4.76859680e+08]
- [ 5.40566261e+08]
- [ 5.25681304e+08]
- [ 5.10757426e+08]
- [ 4.95799766e+08]
- [ 4.80813508e+08]
- [ 4.65803947e+08]
- [ 4.55789381e+08]
- [ 4.45768852e+08]
- [ 4.35744097e+08]
- [ 4.25717041e+08]
- [ 4.15687416e+08]
- [ 4.05654370e+08]
- [ 4.00637933e+08]
- [ 3.95621058e+08]
- [ 3.90603853e+08]
- [ 3.55620566e+08]
- [ 3.20608273e+08]
- [ 2.85605344e+08]
- [ 2.35577154e+08]
- [ 1.85495340e+08]
- [ 1.35451524e+08]
- [ 1.05466284e+08]
- [ 7.54436711e+07]
- [ 4.54005787e+07]
- [ 1.73564390e+07]
- [-1.06787941e+07]
- [ 2.27234716e-02]]</t>
+          <t>[[ 5.98877453e+07]
+ [ 2.56421582e+08]
+ [ 4.82967425e+08]
+ [ 5.40302398e+08]
+ [ 5.25419832e+08]
+ [ 5.10508361e+08]
+ [ 4.95574910e+08]
+ [ 4.80626960e+08]
+ [ 4.65669305e+08]
+ [ 4.55696274e+08]
+ [ 4.45721335e+08]
+ [ 4.35746036e+08]
+ [ 4.25771644e+08]
+ [ 4.15797414e+08]
+ [ 4.05822949e+08]
+ [ 4.00836894e+08]
+ [ 3.95850799e+08]
+ [ 3.90864773e+08]
+ [ 3.56054209e+08]
+ [ 3.21114714e+08]
+ [ 2.86091921e+08]
+ [ 2.35937395e+08]
+ [ 1.85717101e+08]
+ [ 1.35529305e+08]
+ [ 1.05476584e+08]
+ [ 7.54234776e+07]
+ [ 4.53777152e+07]
+ [ 1.73452963e+07]
+ [-1.06745984e+07]
+ [ 2.87482363e-02]]</t>
         </is>
       </c>
       <c r="E847" t="inlineStr"/>
@@ -21873,35 +21871,35 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>[[1022012.42736814]
- [2233777.89201055]
- [3860295.85103691]
- [6203564.71588812]
- [6203530.38208776]
- [6203495.79310468]
- [6203460.67701973]
- [6203424.72780275]
- [6203387.58479432]
- [6203349.0667971 ]
- [6203322.56127631]
- [6203294.86671932]
- [6203265.50060612]
- [6203240.30585334]
- [6203220.28681429]
- [6203200.25784116]
- [6203190.24054482]
- [6203180.22170205]
- [6203302.85908097]
- [6203232.92834189]
- [6203162.96575596]
- [6203497.87087318]
- [6203397.06133935]
- [6203296.14264678]
- [6204158.11823225]
- [6204151.89573554]
- [6204147.50943434]
- [6204275.55643747]
- [6204483.39468891]
+          <t>[[1062409.90200543]
+ [2301988.74291709]
+ [3925467.19307841]
+ [6203365.17649596]
+ [6203332.29959043]
+ [6203299.25152418]
+ [6203200.60640037]
+ [6203167.05979664]
+ [6203132.7938297 ]
+ [6203139.93632352]
+ [6203115.35244422]
+ [6203089.99614772]
+ [6203095.77996006]
+ [6203072.1253514 ]
+ [6203052.12756792]
+ [6203072.4257614 ]
+ [6203062.41800208]
+ [6203052.40902895]
+ [6203577.04048519]
+ [6203506.90085647]
+ [6203436.71417614]
+ [6203534.46423873]
+ [6203433.71618199]
+ [6203332.86438787]
+ [6203639.24836956]
+ [6203645.13712644]
+ [6203656.46708206]
+ [6204048.76666109]
+ [6204167.4822478 ]
  [      0.        ]]</t>
         </is>
       </c>
@@ -22047,7 +22045,7 @@
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>[11.27941854]</t>
+          <t>[11.]</t>
         </is>
       </c>
       <c r="E853" t="inlineStr"/>
@@ -26817,7 +26815,7 @@
       </c>
       <c r="D986" t="inlineStr">
         <is>
-          <t>[209392.02038667]</t>
+          <t>[209392.02038664]</t>
         </is>
       </c>
       <c r="E986" t="inlineStr"/>
@@ -26978,7 +26976,7 @@
       </c>
       <c r="D993" t="inlineStr">
         <is>
-          <t>[41458.17715201]</t>
+          <t>[41458.177152]</t>
         </is>
       </c>
       <c r="E993" t="inlineStr"/>
@@ -27001,7 +26999,7 @@
       </c>
       <c r="D994" t="inlineStr">
         <is>
-          <t>[708934.82929931]</t>
+          <t>[708934.8292992]</t>
         </is>
       </c>
       <c r="E994" t="inlineStr"/>
@@ -27139,7 +27137,7 @@
       </c>
       <c r="D1000" t="inlineStr">
         <is>
-          <t>[9681293.47433654]</t>
+          <t>[9681293.47433639]</t>
         </is>
       </c>
       <c r="E1000" t="inlineStr"/>
@@ -27162,7 +27160,7 @@
       </c>
       <c r="D1001" t="inlineStr">
         <is>
-          <t>[654746.8976497]</t>
+          <t>[654746.89764968]</t>
         </is>
       </c>
       <c r="E1001" t="inlineStr"/>
@@ -27185,7 +27183,7 @@
       </c>
       <c r="D1002" t="inlineStr">
         <is>
-          <t>[3348241.93360998]</t>
+          <t>[3061039.46302408]</t>
         </is>
       </c>
       <c r="E1002" t="inlineStr"/>
@@ -27208,7 +27206,7 @@
       </c>
       <c r="D1003" t="inlineStr">
         <is>
-          <t>[1224121.54899169]</t>
+          <t>[1103868.58612766]</t>
         </is>
       </c>
       <c r="E1003" t="inlineStr"/>
@@ -27231,7 +27229,7 @@
       </c>
       <c r="D1004" t="inlineStr">
         <is>
-          <t>[16629276.42305422]</t>
+          <t>[16342073.95246818]</t>
         </is>
       </c>
       <c r="E1004" t="inlineStr"/>
@@ -27254,7 +27252,7 @@
       </c>
       <c r="D1005" t="inlineStr">
         <is>
-          <t>[1108.6184282]</t>
+          <t>[1089.47159683]</t>
         </is>
       </c>
       <c r="E1005" t="inlineStr"/>
@@ -27277,7 +27275,7 @@
       </c>
       <c r="D1006" t="inlineStr">
         <is>
-          <t>[2172516.75124535]</t>
+          <t>[2052263.78838131]</t>
         </is>
       </c>
       <c r="E1006" t="inlineStr"/>
@@ -27346,7 +27344,7 @@
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>[3348241.93360998]</t>
+          <t>[3061039.46302408]</t>
         </is>
       </c>
       <c r="E1009" t="inlineStr"/>
@@ -27369,7 +27367,7 @@
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>[3348241.93360998]</t>
+          <t>[3061039.46302408]</t>
         </is>
       </c>
       <c r="E1010" t="inlineStr"/>
@@ -27419,7 +27417,7 @@
       </c>
       <c r="D1012" t="inlineStr">
         <is>
-          <t>[0.3062325]</t>
+          <t>[0.28405524]</t>
         </is>
       </c>
       <c r="E1012" t="inlineStr"/>
@@ -27567,9 +27565,9 @@
       </c>
       <c r="D1017" t="inlineStr">
         <is>
-          <t>[1072.58325805 1236.87265147 1355.30471013 1450.32570967 1562.00480257
- 1655.52320666 1736.78099548 1704.1947071  1666.69722919 1625.19033649
- 1412.5622388  1208.62674008 1007.39469272]</t>
+          <t>[1047.13860747 1206.50615946 1321.22697622 1413.18203997 1521.16636429
+ 1611.52120343 1689.9826881  1604.28359226 1515.04957571 1423.35422209
+ 1284.97426625 1147.0849804  1007.39469272]</t>
         </is>
       </c>
       <c r="E1017" t="inlineStr"/>
@@ -27807,9 +27805,9 @@
       </c>
       <c r="D1027" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963 10.84690757 10.43869552 10.03048346  8.68665564  7.34282782
-  5.999     ]</t>
+          <t>[11.        11.        11.        11.        11.        11.
+ 11.        10.2972302  9.5944604  8.8916906  7.9274604  6.9632302
+  5.999    ]</t>
         </is>
       </c>
       <c r="E1027" t="inlineStr"/>
@@ -27903,9 +27901,9 @@
       </c>
       <c r="D1031" t="inlineStr">
         <is>
-          <t>[1072.58325805 1236.87265147 1355.30471013 1450.32570967 1562.00480257
- 1655.52320666 1736.78099548 1704.1947071  1666.69722919 1625.19033649
- 1412.5622388  1208.62674008 1007.39469272]</t>
+          <t>[1047.13860747 1206.50615946 1321.22697622 1413.18203997 1521.16636429
+ 1611.52120343 1689.9826881  1604.28359226 1515.04957571 1423.35422209
+ 1284.97426625 1147.0849804  1007.39469272]</t>
         </is>
       </c>
       <c r="E1031" t="inlineStr"/>
@@ -28045,9 +28043,9 @@
       </c>
       <c r="D1037" t="inlineStr">
         <is>
-          <t>[-1072.58325805 -1236.87265147 -1355.30471013 -1450.32570967
- -1562.00480257 -1655.52320666 -1736.78099548 -1704.1947071
- -1666.69722919 -1625.19033649 -1412.5622388  -1208.62674008
+          <t>[-1047.13860747 -1206.50615946 -1321.22697622 -1413.18203997
+ -1521.16636429 -1611.52120343 -1689.9826881  -1604.28359226
+ -1515.04957571 -1423.35422209 -1284.97426625 -1147.0849804
  -1007.39469272]</t>
         </is>
       </c>
@@ -28096,7 +28094,7 @@
       </c>
       <c r="D1039" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 10.03048346  5.999     ]</t>
+          <t>[11.        11.        11.         8.8916906  5.999    ]</t>
         </is>
       </c>
       <c r="E1039" t="inlineStr"/>
@@ -28119,7 +28117,7 @@
       </c>
       <c r="D1040" t="inlineStr">
         <is>
-          <t>[0.05873341 0.03130576 0.01179358 0.01140435]</t>
+          <t>[0.04       0.03256123 0.02006123 0.015     ]</t>
         </is>
       </c>
       <c r="E1040" t="inlineStr"/>
@@ -28184,7 +28182,7 @@
       </c>
       <c r="D1043" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 10.03048346  5.999     ]</t>
+          <t>[11.        11.        11.         8.8916906  5.999    ]</t>
         </is>
       </c>
       <c r="E1043" t="inlineStr"/>
@@ -28207,7 +28205,7 @@
       </c>
       <c r="D1044" t="inlineStr">
         <is>
-          <t>[0.05873341 0.03130576 0.01179358 0.01140435]</t>
+          <t>[0.04       0.03256123 0.02006123 0.015     ]</t>
         </is>
       </c>
       <c r="E1044" t="inlineStr"/>
@@ -28443,8 +28441,8 @@
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>[0.05873341 0.05873341 0.05873341 0.03130576 0.03130576 0.03130576
- 0.01179358 0.01179358 0.01179358 0.01140435 0.01140435 0.01140435]</t>
+          <t>[0.04       0.04       0.04       0.03256123 0.03256123 0.03256123
+ 0.02006123 0.02006123 0.02006123 0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E1054" t="inlineStr"/>
@@ -28627,8 +28625,8 @@
       </c>
       <c r="D1062" t="inlineStr">
         <is>
-          <t>[2.21053174 2.21053174 2.21053174 1.18113161 1.18113161 1.18113161
- 0.43764062 0.4214574  0.40527417 0.35833065 0.30681399 0.25529734]</t>
+          <t>[1.47368341 1.47368341 1.47368341 1.2004377  1.2004377  1.2004377
+ 0.71674605 0.66935414 0.62196223 0.423276   0.37465705 0.32603809]</t>
         </is>
       </c>
       <c r="E1062" t="inlineStr"/>
@@ -28651,8 +28649,8 @@
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>[1.25734279 1.25734279 1.25734279 0.67108252 0.67108252 0.67108252
- 0.24846446 0.23928098 0.23009749 0.20345091 0.17421682 0.14498276]</t>
+          <t>[0.83762341 0.83762341 0.83762341 0.68210628 0.68210628 0.68210628
+ 0.40706992 0.38017659 0.35328328 0.24038536 0.21279571 0.1852061 ]</t>
         </is>
       </c>
       <c r="E1063" t="inlineStr"/>
@@ -28675,8 +28673,8 @@
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>[1.25734279 1.25734279 1.25734279 0.67108252 0.67108252 0.67108252
- 0.24846446 0.23928098 0.23009749 0.20345091 0.17421682 0.14498276]</t>
+          <t>[0.83762341 0.83762341 0.83762341 0.68210628 0.68210628 0.68210628
+ 0.40706992 0.38017659 0.35328328 0.24038536 0.21279571 0.1852061 ]</t>
         </is>
       </c>
       <c r="E1064" t="inlineStr"/>
@@ -28699,8 +28697,8 @@
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t>[34.63972697 34.63972697 34.63972697 18.5991286  18.5991286  18.5991286
-  6.66660791  5.95405874  5.29418239  3.9134019   2.45656527  1.415279  ]</t>
+          <t>[22.12794594 22.12794594 22.12794594 18.04944712 18.04944712 18.04944712
+ 10.12104202  8.24322947  6.6133551   3.72848609  2.58561395  1.703992  ]</t>
         </is>
       </c>
       <c r="E1065" t="inlineStr"/>
@@ -28723,8 +28721,8 @@
       </c>
       <c r="D1066" t="inlineStr">
         <is>
-          <t>[34.63972697 34.63972697 34.63972697 18.5991286  18.5991286  18.5991286
-  6.66660791  5.95405874  5.29418239  3.9134019   2.45656527  1.415279  ]</t>
+          <t>[22.12794594 22.12794594 22.12794594 18.04944712 18.04944712 18.04944712
+ 10.12104202  8.24322947  6.6133551   3.72848609  2.58561395  1.703992  ]</t>
         </is>
       </c>
       <c r="E1066" t="inlineStr"/>
@@ -28747,8 +28745,8 @@
       </c>
       <c r="D1067" t="inlineStr">
         <is>
-          <t>[69.27945394 69.27945394 69.27945394 37.1982572  37.1982572  37.1982572
- 13.33321581 11.90811748 10.58836479  7.82680381  4.91313053  2.83055801]</t>
+          <t>[44.25589189 44.25589189 44.25589189 36.09889424 36.09889424 36.09889424
+ 20.24208404 16.48645895 13.22671021  7.45697218  5.1712279   3.40798401]</t>
         </is>
       </c>
       <c r="E1067" t="inlineStr"/>
@@ -28842,18 +28840,18 @@
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>[[-17085292.39455575]
- [-15106787.33230787]
- [-13127055.2158671 ]
- [-11603469.98980056]
- [-10078199.62862565]
- [ -8551493.95693837]
- [ -8201321.42828345]
- [ -7863816.04683115]
- [ -7539021.76907288]
- [ -7270408.94491523]
- [ -7040321.41646089]
- [ -6848706.78611817]]</t>
+          <t>[[-16551356.5193535 ]
+ [-15227760.3437843 ]
+ [-13902976.07277951]
+ [-12355531.9096035 ]
+ [-10806458.9323259 ]
+ [ -9255999.58933735]
+ [ -8694040.31308275]
+ [ -8169026.9684803 ]
+ [ -7680989.10045143]
+ [ -7367738.76107827]
+ [ -7090309.31507802]
+ [ -6848706.78611806]]</t>
         </is>
       </c>
       <c r="E1071" t="inlineStr"/>
@@ -28876,18 +28874,18 @@
       </c>
       <c r="D1072" t="inlineStr">
         <is>
-          <t>[[2938075.08386145]
- [2938704.53375173]
- [2939277.75256776]
- [2939643.07625272]
- [2940534.36767056]
- [2941258.63638136]
- [2938712.69692815]
- [2938854.10871117]
- [2938959.83997551]
- [2938851.44787888]
- [2938768.25302213]
- [2938632.92786664]]</t>
+          <t>[[2938092.09435215]
+ [2938753.93111957]
+ [2939357.02824746]
+ [2940495.25183675]
+ [2941431.85627985]
+ [2942192.50971769]
+ [2939568.94631321]
+ [2939638.45394228]
+ [2939673.54139642]
+ [2939091.13390703]
+ [2939028.46071783]
+ [2938904.00079071]]</t>
         </is>
       </c>
       <c r="E1072" t="inlineStr"/>
@@ -28910,18 +28908,18 @@
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>[[8739.85634178]
- [8742.96692052]
- [8745.91105282]
- [8748.02673807]
- [8753.21436704]
- [8757.90358529]
- [8744.01948481]
- [8745.32379041]
- [8746.56087023]
- [8746.48319686]
- [8746.82819596]
- [8747.31396616]]</t>
+          <t>[[8739.93771824]
+ [8743.20691112]
+ [8746.30258971]
+ [8752.32076314]
+ [8757.76588145]
+ [8762.68341997]
+ [8748.73296967]
+ [8749.67066251]
+ [8750.58811155]
+ [8747.64698476]
+ [8748.39198795]
+ [8749.20084829]]</t>
         </is>
       </c>
       <c r="E1073" t="inlineStr"/>
@@ -28944,18 +28942,18 @@
       </c>
       <c r="D1074" t="inlineStr">
         <is>
-          <t>[[-1874702.61585907]
- [-1772259.34942906]
- [-1669406.4733067 ]
- [-1521620.92837957]
- [-1372850.71549001]
- [-1223556.08861981]
- [-1133722.31383265]
- [-1043277.01178898]
- [ -952248.53018922]
- [ -866732.05049261]
- [ -780469.3497274 ]
- [ -693050.81504679]]</t>
+          <t>[[-1880905.21151123]
+ [-1777960.20179612]
+ [-1674307.18960381]
+ [-1525121.14197413]
+ [-1374962.28360269]
+ [-1224320.86752423]
+ [-1133868.71648534]
+ [-1043094.18892659]
+ [ -951973.32142001]
+ [ -866472.24826492]
+ [ -780246.19467786]
+ [ -693050.89762387]]</t>
         </is>
       </c>
       <c r="E1074" t="inlineStr"/>
@@ -28978,18 +28976,18 @@
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>[[ 3.79350771e+08]
- [ 3.45035217e+08]
- [ 3.10641218e+08]
- [ 2.61352369e+08]
- [ 2.11902090e+08]
- [ 1.62387381e+08]
- [ 1.32658016e+08]
- [ 1.02863409e+08]
- [ 7.30198965e+07]
- [ 4.51337617e+07]
- [ 1.72219380e+07]
- [-1.06981121e+07]]</t>
+          <t>[[ 3.80768634e+08]
+ [ 3.46349591e+08]
+ [ 3.11793977e+08]
+ [ 2.62227533e+08]
+ [ 2.12505235e+08]
+ [ 1.62731207e+08]
+ [ 1.32879326e+08]
+ [ 1.03002029e+08]
+ [ 7.31062178e+07]
+ [ 4.51855761e+07]
+ [ 1.72438283e+07]
+ [-1.06981119e+07]]</t>
         </is>
       </c>
       <c r="E1075" t="inlineStr"/>
@@ -29012,18 +29010,18 @@
       </c>
       <c r="D1076" t="inlineStr">
         <is>
-          <t>[[6203302.97134669]
- [6203233.00718083]
- [6203162.9870756 ]
- [6203497.82949682]
- [6203396.9075256 ]
- [6203295.87722049]
- [6204157.14503212]
- [6204150.84063862]
- [6204146.47888742]
- [6204274.47585323]
- [6204482.43070916]
- [6204786.14736651]]</t>
+          <t>[[6203577.19671978]
+ [6203507.0084488 ]
+ [6203436.73811652]
+ [6203534.4161937 ]
+ [6203433.56112533]
+ [6203332.60318305]
+ [6203638.65950809]
+ [6203644.51073971]
+ [6203655.90139872]
+ [6204048.10015678]
+ [6204166.95022944]
+ [6204329.85111204]]</t>
         </is>
       </c>
       <c r="E1076" t="inlineStr"/>
@@ -29127,7 +29125,7 @@
       </c>
       <c r="D1080" t="inlineStr">
         <is>
-          <t>[948395.20225367]</t>
+          <t>[948395.20225366]</t>
         </is>
       </c>
       <c r="E1080" t="inlineStr"/>
@@ -29199,7 +29197,7 @@
         <is>
           <t>[[ 2937712.61868119]
  [    8738.15973297]
- [-6848706.78611816]]</t>
+ [-6848706.78611806]]</t>
         </is>
       </c>
       <c r="E1083" t="inlineStr"/>
@@ -29317,18 +29315,18 @@
       </c>
       <c r="D1087" t="inlineStr">
         <is>
-          <t>[[-1072.58325805]
- [-1236.87265147]
- [-1355.30471013]
- [-1450.32570967]
- [-1562.00480257]
- [-1655.52320666]
- [-1736.78099548]
- [-1704.1947071 ]
- [-1666.69722919]
- [-1625.19033649]
- [-1412.5622388 ]
- [-1208.62674008]
+          <t>[[-1047.13860747]
+ [-1206.50615946]
+ [-1321.22697622]
+ [-1413.18203997]
+ [-1521.16636429]
+ [-1611.52120343]
+ [-1689.9826881 ]
+ [-1604.28359226]
+ [-1515.04957571]
+ [-1423.35422209]
+ [-1284.97426625]
+ [-1147.0849804 ]
  [-1007.39469272]]</t>
         </is>
       </c>
@@ -29352,7 +29350,7 @@
       </c>
       <c r="D1088" t="inlineStr">
         <is>
-          <t>[1224121.54899169]</t>
+          <t>[1103868.58612766]</t>
         </is>
       </c>
       <c r="E1088" t="inlineStr"/>
@@ -29375,7 +29373,7 @@
       </c>
       <c r="D1089" t="inlineStr">
         <is>
-          <t>[45.81389837]</t>
+          <t>[54.92787647]</t>
         </is>
       </c>
       <c r="E1089" t="inlineStr"/>
@@ -29398,7 +29396,7 @@
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t>[4.05052792e+09 4.05052792e+09 3.71865981e+07 0.00000000e+00
+          <t>[4.80567017e+09 4.80567017e+09 3.10911145e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -30533,7 +30531,7 @@
       </c>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>[0.08694716]</t>
+          <t>[0.08802395]</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr">
@@ -30610,7 +30608,7 @@
       </c>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>[-209.00433627]</t>
+          <t>[-213.79808561]</t>
         </is>
       </c>
       <c r="E1125" t="inlineStr">
@@ -30637,7 +30635,7 @@
       </c>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>[-0.04694716]</t>
+          <t>[-0.04802395]</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr">
@@ -30664,7 +30662,7 @@
       </c>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>[0.11794716]</t>
+          <t>[0.11902395]</t>
         </is>
       </c>
       <c r="E1127" t="inlineStr">
@@ -30687,7 +30685,7 @@
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>[0.46004953]</t>
+          <t>[0.4544218]</t>
         </is>
       </c>
       <c r="E1128" t="inlineStr">
@@ -30710,7 +30708,7 @@
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>[2.17367902]</t>
+          <t>[2.20059866]</t>
         </is>
       </c>
       <c r="E1129" t="inlineStr">
@@ -30733,7 +30731,7 @@
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>[-0.53995047]</t>
+          <t>[-0.5455782]</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
@@ -30756,7 +30754,7 @@
       <c r="C1131" t="inlineStr"/>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>[-1.17367902]</t>
+          <t>[-1.20059866]</t>
         </is>
       </c>
       <c r="E1131" t="inlineStr">
@@ -30783,7 +30781,7 @@
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>[0.15433121]</t>
+          <t>[0.15624251]</t>
         </is>
       </c>
       <c r="E1132" t="inlineStr">
@@ -30810,7 +30808,7 @@
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>[6.96013599e+08]</t>
+          <t>[7.58863298e+08]</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
@@ -30837,7 +30835,7 @@
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>[2.0142636e+09]</t>
+          <t>[2.0771133e+09]</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr">
@@ -30864,7 +30862,7 @@
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>[3357.10599805]</t>
+          <t>[3461.85549611]</t>
         </is>
       </c>
       <c r="E1135" t="inlineStr">
@@ -30891,7 +30889,7 @@
       </c>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>[9611.78665355]</t>
+          <t>[10316.45332022]</t>
         </is>
       </c>
       <c r="E1136" t="inlineStr">
@@ -30918,7 +30916,7 @@
       </c>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>[2.27186908e+08]</t>
+          <t>[2.37338612e+08]</t>
         </is>
       </c>
       <c r="E1137" t="inlineStr">
@@ -33750,7 +33748,7 @@
       </c>
       <c r="D1264" t="inlineStr">
         <is>
-          <t>[629518.94338624]</t>
+          <t>[629518.94338623]</t>
         </is>
       </c>
       <c r="E1264" t="inlineStr"/>
@@ -33796,8 +33794,8 @@
       </c>
       <c r="D1266" t="inlineStr">
         <is>
-          <t>[9224591.70652067 8617359.43814265 8195565.5092559   351066.13395715
- 1743279.89239721 -201547.34092705]</t>
+          <t>[9224591.7065202  8617359.4381421  8195565.50925527  351066.13395713
+ 1743279.89239704 -201547.34092704]</t>
         </is>
       </c>
       <c r="E1266" t="inlineStr"/>
@@ -33820,8 +33818,8 @@
       </c>
       <c r="D1267" t="inlineStr">
         <is>
-          <t>[8803003.80975181 7821243.200669   7820064.33954486  364572.1554224
- 1345889.31715722 -215859.21949914]</t>
+          <t>[8803003.80975138 7821243.20066854 7820064.33954427  364572.15542238
+ 1345889.31715709 -215859.21949914]</t>
         </is>
       </c>
       <c r="E1267" t="inlineStr"/>
@@ -33844,8 +33842,8 @@
       </c>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>[2.01830545e+07 2.93110515e+07 1.79560819e+07 5.82076609e-11
- 1.20727743e+07 1.70465683e+05]</t>
+          <t>[ 2.01830545e+07  2.93110515e+07  1.79560819e+07 -5.82076609e-11
+  1.20727743e+07  1.70465683e+05]</t>
         </is>
       </c>
       <c r="E1268" t="inlineStr"/>
@@ -34008,7 +34006,7 @@
         <is>
           <t>[[ 2937712.61868119]
  [    8738.15973297]
- [-6848706.78611816]]</t>
+ [-6848706.78611806]]</t>
         </is>
       </c>
       <c r="E1275" t="inlineStr"/>
@@ -34056,17 +34054,17 @@
       </c>
       <c r="D1277" t="inlineStr">
         <is>
-          <t>[[15133044.79996205]
- [16443738.54061959]
- [17924691.70557912]
- [19671378.0359403 ]
- [21791946.31879685]
- [24413177.24005783]
- [27672106.78274268]
- [31652878.78418546]
- [36152722.5957873 ]
- [40141585.61140442]
- [41684736.58128852]
+          <t>[[15133044.79996403]
+ [16443738.54062173]
+ [17924691.7055814 ]
+ [19671378.03594278]
+ [21791946.31879954]
+ [24413177.24006078]
+ [27672106.78274573]
+ [31652878.78418851]
+ [36152722.59578992]
+ [40141585.61140601]
+ [41684736.58128898]
  [22562408.18779118]
  [22934263.02721984]
  [ 8414811.21324994]
@@ -34093,17 +34091,17 @@
       </c>
       <c r="D1278" t="inlineStr">
         <is>
-          <t>[[ 9411266.7132719 ]
- [ 7187031.32300719]
- [ 4891520.49578731]
- [ 2868457.99259127]
- [ 6303590.58501239]
- [10596799.65701132]
- [16116353.41849292]
- [23283333.17630054]
- [32322905.05703912]
- [42382227.91306894]
- [50055577.43174897]
+          <t>[[ 9411266.71327287]
+ [ 7187031.32300797]
+ [ 4891520.49578788]
+ [ 2868457.9925917 ]
+ [ 6303590.58501308]
+ [10596799.65701233]
+ [16116353.4184942 ]
+ [23283333.17630208]
+ [32322905.05704056]
+ [42382227.91307   ]
+ [50055577.43174925]
  [26439553.38080154]
  [15050532.29385312]
  [14286544.01424126]
@@ -34130,17 +34128,17 @@
       </c>
       <c r="D1279" t="inlineStr">
         <is>
-          <t>[[ 5921121.08569095]
- [ 6701289.2677509 ]
- [ 7650305.27620201]
- [ 8816020.68033054]
- [10259964.77622507]
- [12083055.86120423]
- [14454793.35964792]
- [17625087.80521297]
- [21778513.06785724]
- [26361160.04618529]
- [29565352.31016558]
+          <t>[[ 5921121.08569216]
+ [ 6701289.26775222]
+ [ 7650305.27620352]
+ [ 8816020.68033213]
+ [10259964.77622651]
+ [12083055.86120621]
+ [14454793.35965358]
+ [17625087.80522383]
+ [21778513.06785512]
+ [26361160.0461743 ]
+ [29565352.31016183]
  [       0.        ]
  [       0.        ]
  [       0.        ]
@@ -34299,7 +34297,7 @@
       </c>
       <c r="D1286" t="inlineStr">
         <is>
-          <t>[948395.20225367]</t>
+          <t>[948395.20225366]</t>
         </is>
       </c>
       <c r="E1286" t="inlineStr"/>
@@ -34421,11 +34419,11 @@
       </c>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          32553.58509118
-  33495.35980444  36380.37048799  41394.03792705  48861.90035993
-  59276.69160767  73360.44041837  85175.84772957  99487.4353026
- 116885.41960682    745.62084712    880.29089912    971.18528904
-   1008.42081737   1041.96178195   1072.58325805]</t>
+          <t>[     0.              0.              0.          30974.55430283
+  31871.91514184  34620.99320849  39398.548849    46516.76572879
+  56446.05467055  69875.24006445  81254.77857179  95051.02579361
+ 111836.96771038    729.03380056    860.22223859    948.63122849
+    984.81920533   1017.40258925   1047.13860747]</t>
         </is>
       </c>
       <c r="E1291" t="inlineStr"/>
@@ -34675,10 +34673,10 @@
       </c>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          32553.58509118
-  33495.35980444  36380.37048799  41394.03792705  48861.90035993
-  59276.69160767  73360.44041837  85175.84772957  99487.4353026
- 116885.41960682      0.              0.              0.
+          <t>[     0.              0.              0.          30974.55430283
+  31871.91514184  34620.99320849  39398.548849    46516.76572879
+  56446.05467055  69875.24006445  81254.77857179  95051.02579361
+ 111836.96771038      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -34878,8 +34876,8 @@
         <is>
           <t>[   0.            0.            0.            0.            0.
     0.            0.            0.            0.            0.
-    0.            0.            0.          745.62084712  880.29089912
-  971.18528904 1008.42081737 1041.96178195 1072.58325805]</t>
+    0.            0.            0.          729.03380056  860.22223859
+  948.63122849  984.81920533 1017.40258925 1047.13860747]</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr"/>
@@ -35069,11 +35067,11 @@
       </c>
       <c r="D1317" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -32553.58509118
-  -33495.35980444  -36380.37048799  -41394.03792705  -48861.90035993
-  -59276.69160767  -73360.44041837  -85175.84772957  -99487.4353026
- -116885.41960682    -745.62084712    -880.29089912    -971.18528904
-   -1008.42081737   -1041.96178195   -1072.58325805]</t>
+          <t>[      0.               0.               0.          -30974.55430283
+  -31871.91514184  -34620.99320849  -39398.548849    -46516.76572879
+  -56446.05467055  -69875.24006445  -81254.77857179  -95051.02579361
+ -111836.96771038    -729.03380056    -860.22223859    -948.63122849
+    -984.81920533   -1017.40258925   -1047.13860747]</t>
         </is>
       </c>
       <c r="E1317" t="inlineStr"/>
@@ -35119,8 +35117,8 @@
       <c r="C1319" t="inlineStr"/>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>[146.48595503 146.48595503 146.48595503 146.32816989 146.17038475
- 146.17038475]</t>
+          <t>[127.93081812  97.79170948  87.67893009  95.69386215 102.82050564
+ 113.18600806]</t>
         </is>
       </c>
       <c r="E1319" t="inlineStr"/>
@@ -35139,7 +35137,7 @@
       <c r="C1320" t="inlineStr"/>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>[1.         1.         1.         0.99784573 1.         1.        ]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E1320" t="inlineStr"/>
@@ -35158,7 +35156,7 @@
       <c r="C1321" t="inlineStr"/>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>[1.         1.         1.         0.99784573 1.         1.        ]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E1321" t="inlineStr"/>
@@ -35177,7 +35175,7 @@
       <c r="C1322" t="inlineStr"/>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1.]</t>
+          <t>[1.30819697 1.11533876 0.91624403 0.9306885  0.90842064]</t>
         </is>
       </c>
       <c r="E1322" t="inlineStr"/>
@@ -35221,10 +35219,8 @@
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>[5.63970927 5.63970927 5.63970927 5.63970927 5.63970927 5.63970927
- 5.63970927 5.63970927 5.63970927 5.63970927 5.63565945 5.63160963
- 5.62755981 5.62755981 5.62755981 5.62755981 5.62755981 5.62755981
- 5.62755981]</t>
+          <t>[5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5
+ 5.5]</t>
         </is>
       </c>
       <c r="E1324" t="inlineStr"/>
@@ -35247,7 +35243,7 @@
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>[  0.           0.         -35.00974132]</t>
+          <t>[  0.   0. -35.]</t>
         </is>
       </c>
       <c r="E1325" t="inlineStr"/>
@@ -35270,7 +35266,7 @@
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>[6992.42417256]</t>
+          <t>[6652.32244398]</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr"/>
@@ -35293,7 +35289,7 @@
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>[70284269.40955062]</t>
+          <t>[66865740.88083993]</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr"/>
@@ -35335,7 +35331,7 @@
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>[99.49244689]</t>
+          <t>[95.03317777]</t>
         </is>
       </c>
       <c r="E1329" t="inlineStr"/>
@@ -35358,7 +35354,7 @@
       </c>
       <c r="D1330" t="inlineStr">
         <is>
-          <t>[787.7172568]</t>
+          <t>[718.68840689]</t>
         </is>
       </c>
       <c r="E1330" t="inlineStr"/>
@@ -35381,7 +35377,7 @@
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>[787.7172568]</t>
+          <t>[718.68840689]</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr"/>
@@ -35404,8 +35400,8 @@
       </c>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>[7.16723478e+06 7.16723478e+06 2.45150482e+05 2.92544421e+09
- 2.92544421e+09 0.00000000e+00]</t>
+          <t>[6.81863051e+06 6.81863051e+06 2.27379167e+05 2.78441474e+09
+ 2.78441474e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E1332" t="inlineStr"/>
@@ -35477,10 +35473,8 @@
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.27941854 11.27941854
- 11.27941854 11.27941854 11.27941854 11.27941854 11.2713189  11.26321926
- 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963]</t>
+          <t>[11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11.
+ 11.]</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr"/>
@@ -35734,8 +35728,8 @@
       </c>
       <c r="D1346" t="inlineStr">
         <is>
-          <t>[22616.77995613 22616.77995626 22616.77995634 22592.25118409
- 22567.72241186 22567.72241188]</t>
+          <t>[24605.39539069 32110.54727753 35771.46131851 32807.05809414
+ 30555.50052919 27782.21269384]</t>
         </is>
       </c>
       <c r="E1346" t="inlineStr">
@@ -35762,8 +35756,8 @@
       </c>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>[354801.04678571 354801.04679182 354801.04679543 353647.94826156
- 352497.35084787 352497.35084861]</t>
+          <t>[366383.99216498 475840.81309656 528842.64201132 485944.41528487
+ 453249.88462126 412846.51597368]</t>
         </is>
       </c>
       <c r="E1347" t="inlineStr">
@@ -35790,8 +35784,8 @@
       </c>
       <c r="D1348" t="inlineStr">
         <is>
-          <t>[354801.04678571 354801.04679182 354801.04679543 353647.94826156
- 352497.35084787 352497.35084861]</t>
+          <t>[366383.99216498 475840.81309656 528842.64201132 485944.41528487
+ 453249.88462126 412846.51597368]</t>
         </is>
       </c>
       <c r="E1348" t="inlineStr">
@@ -35818,8 +35812,8 @@
       </c>
       <c r="D1349" t="inlineStr">
         <is>
-          <t>[8.50230162e+12 8.50230162e+12 8.50230162e+12 8.47466926e+12
- 8.44709683e+12 8.44709683e+12]</t>
+          <t>[8.77987041e+12 1.14028472e+13 1.26729605e+13 1.16449656e+13
+ 1.08614878e+13 9.89327860e+12]</t>
         </is>
       </c>
       <c r="E1349" t="inlineStr">
@@ -35846,8 +35840,8 @@
       </c>
       <c r="D1350" t="inlineStr">
         <is>
-          <t>[8.50230162e+12 8.50230162e+12 8.50230162e+12 8.47466926e+12
- 8.44709683e+12 8.44709683e+12]</t>
+          <t>[8.77987041e+12 1.14028472e+13 1.26729605e+13 1.16449656e+13
+ 1.08614878e+13 9.89327860e+12]</t>
         </is>
       </c>
       <c r="E1350" t="inlineStr">
@@ -35874,8 +35868,8 @@
       </c>
       <c r="D1351" t="inlineStr">
         <is>
-          <t>[6.74232519e+12 6.74232519e+12 6.74232519e+12 6.72041272e+12
- 6.69854779e+12 6.69854779e+12]</t>
+          <t>[6.96243723e+12 9.04245782e+12 1.00496577e+13 9.23445774e+12
+ 8.61315980e+12 7.84536993e+12]</t>
         </is>
       </c>
       <c r="E1351" t="inlineStr">
@@ -35902,8 +35896,8 @@
       </c>
       <c r="D1352" t="inlineStr">
         <is>
-          <t>[5.41978911e+11 5.41978911e+11 5.41978911e+11 5.41391114e+11
- 5.40803317e+11 5.40803317e+11]</t>
+          <t>[5.89633247e+11 7.69483520e+11 8.57212109e+11 7.86174409e+11
+ 7.32219040e+11 6.65761148e+11]</t>
         </is>
       </c>
       <c r="E1352" t="inlineStr">
@@ -36011,12 +36005,12 @@
       </c>
       <c r="D1356" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.36901805 0.13266312 0.13266312 0.        ]
- [0.         0.         0.36901805 0.13266312 0.13266312 0.        ]
- [0.         0.         0.36901805 0.13266312 0.13266312 0.        ]
- [0.         0.         0.3694187  0.13295232 0.13295232 0.        ]
- [0.         0.         0.36982022 0.13324246 0.13324246 0.        ]
- [0.         0.         0.36982022 0.13324246 0.13324246 0.        ]]</t>
+          <t>[[0.         0.         0.3391939  0.12528659 0.12528659 0.        ]
+ [0.         0.         0.2599146  0.09646714 0.09646714 0.        ]
+ [0.         0.         0.23331448 0.08679898 0.08679898 0.        ]
+ [0.         0.         0.25439648 0.09446142 0.09446142 0.        ]
+ [0.         0.         0.27314231 0.10127526 0.10127526 0.        ]
+ [0.         0.         0.30040804 0.1111866  0.1111866  0.        ]]</t>
         </is>
       </c>
       <c r="E1356" t="inlineStr"/>
@@ -36039,12 +36033,12 @@
       </c>
       <c r="D1357" t="inlineStr">
         <is>
-          <t>[[0.60587768 0.60587768 0.         0.         0.         0.06633156]
- [0.60587768 0.60587768 0.         0.         0.         0.06633156]
- [0.60587768 0.60587768 0.         0.         0.         0.06633156]
- [0.60653342 0.60653342 0.         0.         0.         0.06647616]
- [0.60719058 0.60719058 0.         0.         0.         0.06662123]
- [0.60719058 0.60719058 0.         0.         0.         0.06662123]]</t>
+          <t>[[0.55665352 0.55665352 0.         0.         0.         0.06264329]
+ [0.42606217 0.42606217 0.         0.         0.         0.04823357]
+ [0.38224186 0.38224186 0.         0.         0.         0.04339949]
+ [0.41697197 0.41697197 0.         0.         0.         0.04723071]
+ [0.44785227 0.44785227 0.         0.         0.         0.05063763]
+ [0.49276586 0.49276586 0.         0.         0.         0.0555933 ]]</t>
         </is>
       </c>
       <c r="E1357" t="inlineStr"/>
@@ -36067,7 +36061,7 @@
       </c>
       <c r="D1358" t="inlineStr">
         <is>
-          <t>[1181.58160501]</t>
+          <t>[1304.42376443]</t>
         </is>
       </c>
       <c r="E1358" t="inlineStr"/>
@@ -36090,7 +36084,7 @@
       </c>
       <c r="D1359" t="inlineStr">
         <is>
-          <t>[4679674.13822839]</t>
+          <t>[6003043.99113554]</t>
         </is>
       </c>
       <c r="E1359" t="inlineStr"/>
@@ -36113,7 +36107,7 @@
       </c>
       <c r="D1360" t="inlineStr">
         <is>
-          <t>[1921445.14539197]</t>
+          <t>[2528928.640364]</t>
         </is>
       </c>
       <c r="E1360" t="inlineStr"/>
@@ -36136,7 +36130,7 @@
       </c>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>[42.48351085]</t>
+          <t>[44.68533064]</t>
         </is>
       </c>
       <c r="E1361" t="inlineStr"/>
@@ -36159,7 +36153,7 @@
       </c>
       <c r="D1362" t="inlineStr">
         <is>
-          <t>[4.65443023e+09 4.65443023e+09 6.02240134e+07 0.00000000e+00
+          <t>[6.49019468e+09 6.49019468e+09 7.50358943e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36183,9 +36177,7 @@
       </c>
       <c r="D1363" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.27941854 11.27941854
- 11.27941854 11.27941854 11.27941854 11.27536872 11.26726908 11.25916944
- 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963]</t>
+          <t>[11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11.]</t>
         </is>
       </c>
       <c r="E1363" t="inlineStr"/>
@@ -36208,8 +36200,9 @@
       </c>
       <c r="D1364" t="inlineStr">
         <is>
-          <t>[0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239
- 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239]</t>
+          <t>[0.09200285 0.09200285 0.09200285 0.12035785 0.12035785 0.12035785
+ 0.13423978 0.13423978 0.13423978 0.12299639 0.12299639 0.12299639
+ 0.11447133 0.11447133 0.11447133 0.10398812 0.10398812 0.10398812]</t>
         </is>
       </c>
       <c r="E1364" t="inlineStr"/>
@@ -36257,7 +36250,7 @@
       </c>
       <c r="D1366" t="inlineStr">
         <is>
-          <t>[2021445.14539197]</t>
+          <t>[2628928.640364]</t>
         </is>
       </c>
       <c r="E1366" t="inlineStr"/>
@@ -36280,7 +36273,7 @@
       </c>
       <c r="D1367" t="inlineStr">
         <is>
-          <t>[5179674.13822839]</t>
+          <t>[6503043.99113554]</t>
         </is>
       </c>
       <c r="E1367" t="inlineStr"/>
@@ -36303,7 +36296,7 @@
       </c>
       <c r="D1368" t="inlineStr">
         <is>
-          <t>[44.58678282]</t>
+          <t>[46.21883249]</t>
         </is>
       </c>
       <c r="E1368" t="inlineStr"/>
@@ -36326,7 +36319,7 @@
       </c>
       <c r="D1369" t="inlineStr">
         <is>
-          <t>[5.37851370e+09 5.37851370e+09 6.33909564e+07 0.00000000e+00
+          <t>[7.21420718e+09 7.21420718e+09 7.80608943e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36350,7 +36343,7 @@
       </c>
       <c r="D1370" t="inlineStr">
         <is>
-          <t>[3245566.69438365]</t>
+          <t>[3732797.22649166]</t>
         </is>
       </c>
       <c r="E1370" t="inlineStr"/>
@@ -36373,7 +36366,7 @@
       </c>
       <c r="D1371" t="inlineStr">
         <is>
-          <t>[8527916.07183837]</t>
+          <t>[9564083.45415962]</t>
         </is>
       </c>
       <c r="E1371" t="inlineStr"/>
@@ -36423,7 +36416,7 @@
       </c>
       <c r="D1373" t="inlineStr">
         <is>
-          <t>[0.23180243]</t>
+          <t>[0.23257764]</t>
         </is>
       </c>
       <c r="E1373" t="inlineStr"/>
@@ -36446,7 +36439,7 @@
       </c>
       <c r="D1374" t="inlineStr">
         <is>
-          <t>[0.23307217]</t>
+          <t>[0.23381478]</t>
         </is>
       </c>
       <c r="E1374" t="inlineStr"/>
@@ -36469,7 +36462,7 @@
       </c>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>[0.23180243 0.23307217 0.94982106 0.96560818 1.05961348 1.82329178]</t>
+          <t>[0.23257764 0.23381478 0.98116631 1.03088213 1.13553871 1.86475739]</t>
         </is>
       </c>
       <c r="E1375" t="inlineStr"/>
@@ -36492,7 +36485,7 @@
       </c>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>[0.23307217 1.05961348 1.9725927 ]</t>
+          <t>[0.23381478 1.13553871 2.00322754]</t>
         </is>
       </c>
       <c r="E1376" t="inlineStr"/>
@@ -36515,7 +36508,7 @@
       </c>
       <c r="D1377" t="inlineStr">
         <is>
-          <t>[0.23180243 0.96560818 1.82329178]</t>
+          <t>[0.23257764 1.03088213 1.86475739]</t>
         </is>
       </c>
       <c r="E1377" t="inlineStr"/>
@@ -36538,7 +36531,7 @@
       </c>
       <c r="D1378" t="inlineStr">
         <is>
-          <t>[4.29633333 0.         0.        ]</t>
+          <t>[4.49019808 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1378" t="inlineStr"/>
@@ -36557,9 +36550,9 @@
       <c r="C1379" t="inlineStr"/>
       <c r="D1379" t="inlineStr">
         <is>
-          <t>[[  1.00929001   0.74727428  -3.24050897   4.28288096  -1.79893628]
- [ -3.21849704   0.75928841   8.9011162  -10.19939204   4.75748448]
- [ -6.08720557   6.77410664  13.25081636  -4.49115321  -8.44656422]]</t>
+          <t>[[  0.74291521  -0.13633369   1.89463898  -2.33399316   0.83277265]
+ [ -2.8916299    1.20281842   7.2552684   -8.98923954   4.42278262]
+ [ -5.46300133   6.96645945  13.23780122 -10.17345282  -3.56780653]]</t>
         </is>
       </c>
       <c r="E1379" t="inlineStr"/>
@@ -36578,9 +36571,9 @@
       <c r="C1380" t="inlineStr"/>
       <c r="D1380" t="inlineStr">
         <is>
-          <t>[[  1.0010377    0.74389532  -3.20719377   4.22934668  -1.76708593]
- [ -3.25881691   0.45600451   9.73176306 -12.28506859   6.35611794]
- [ -5.21202543   5.15449489  10.31331483  -2.27970323  -6.97608107]]</t>
+          <t>[[  0.73683548  -0.13702221   1.91038114  -2.36541225   0.85521784]
+ [ -2.87971264   0.89709287   7.73239298 -10.6225275    5.87275429]
+ [ -4.75567141   5.49707547  10.26887364  -6.51333653  -3.49694117]]</t>
         </is>
       </c>
       <c r="E1380" t="inlineStr"/>
@@ -36599,9 +36592,9 @@
       <c r="C1381" t="inlineStr"/>
       <c r="D1381" t="inlineStr">
         <is>
-          <t>[[ -0.17516978   3.56994077 -19.51269331  34.16278125 -17.04485893]
- [  0.           0.           0.           0.           0.        ]
- [  0.           0.           0.           0.           0.        ]]</t>
+          <t>[[-1.77137432  7.42987142 -8.34175954  4.99887915 -1.31561671]
+ [ 0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
       </c>
       <c r="E1381" t="inlineStr"/>
@@ -36620,9 +36613,9 @@
       <c r="C1382" t="inlineStr"/>
       <c r="D1382" t="inlineStr">
         <is>
-          <t>[[ 0.65905859  1.931802   -5.06750063  5.86279776 -2.38615773]
- [-0.32426099  3.67558924 -8.42563623  9.79180673 -3.71749875]
- [ 1.92156194 -1.37743767  6.97493583 -6.70603962  0.18697951]]</t>
+          <t>[[ 1.1024301   1.14770378 -3.88715516  4.22218766 -1.58516639]
+ [-0.36708759  3.56242585 -6.66007967  6.57301623 -2.10827482]
+ [ 2.12393228  0.1726779   0.11068556  0.63691429 -2.04421003]]</t>
         </is>
       </c>
       <c r="E1382" t="inlineStr"/>
@@ -36641,12 +36634,9 @@
       <c r="C1383" t="inlineStr"/>
       <c r="D1383" t="inlineStr">
         <is>
-          <t>[[ 6.46595006e-01  1.95667853e+00 -5.12518542e+00  5.92105610e+00
-  -2.39914421e+00]
- [-4.31351123e-01  3.92816222e+00 -9.14942543e+00  1.04553942e+01
-  -3.80277982e+00]
- [ 1.27975031e+00  4.20169077e-03  2.68367046e+00 -1.75475322e+00
-  -1.21286924e+00]]</t>
+          <t>[[ 1.09010506  1.16606271 -3.91085812  4.23677847 -1.58208812]
+ [-0.51552358  3.74868005 -6.99032451  6.71517118 -1.95800314]
+ [ 1.4481087   1.12823118 -1.81673881  2.65496306 -2.41456414]]</t>
         </is>
       </c>
       <c r="E1383" t="inlineStr"/>
@@ -36665,9 +36655,9 @@
       <c r="C1384" t="inlineStr"/>
       <c r="D1384" t="inlineStr">
         <is>
-          <t>[[ -3.24197207  26.750939   -74.28030179  89.6314224  -37.86008754]
- [  0.           0.           0.           0.           0.        ]
- [  0.           0.           0.           0.           0.        ]]</t>
+          <t>[[ -10.70368482   83.40968359 -228.69129462  262.28205237 -105.29675653]
+ [   0.            0.            0.            0.            0.        ]
+ [   0.            0.            0.            0.            0.        ]]</t>
         </is>
       </c>
       <c r="E1384" t="inlineStr"/>
@@ -36690,37 +36680,37 @@
       </c>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>[[2.09759621e-04]
- [4.23276816e-04]
- [1.56212625e-05]
- [3.71225775e-03]
- [8.10078026e-03]
- [1.39751314e-02]
- [2.12943691e-02]
- [3.00174443e-02]
- [4.01032151e-02]
- [5.15104602e-02]
- [5.98293741e-02]
- [6.87062753e-02]
- [7.81300713e-02]
- [8.80892967e-02]
- [9.85718924e-02]
- [1.09565535e-01]
- [1.15250134e-01]
- [1.21057867e-01]
- [1.26987190e-01]
- [1.72494511e-01]
- [2.24925306e-01]
- [2.83597681e-01]
- [3.81938187e-01]
- [4.97711762e-01]
- [6.27211691e-01]
- [7.13908671e-01]
- [8.08928692e-01]
- [9.10630397e-01]
- [1.01016221e+00]
- [1.11216207e+00]
- [1.21201959e+00]]</t>
+          <t>[[2.26224102e-04]
+ [4.32031256e-04]
+ [2.82544007e-05]
+ [3.80826746e-03]
+ [7.93817452e-03]
+ [1.31753517e-02]
+ [1.94892788e-02]
+ [2.67892069e-02]
+ [3.50028800e-02]
+ [4.41027174e-02]
+ [5.06690415e-02]
+ [5.76417407e-02]
+ [6.50119119e-02]
+ [7.27884449e-02]
+ [8.09720449e-02]
+ [8.95531780e-02]
+ [9.39973831e-02]
+ [9.85467717e-02]
+ [1.03200035e-01]
+ [1.42070241e-01]
+ [1.91793004e-01]
+ [2.51303019e-01]
+ [3.53243834e-01]
+ [4.73176247e-01]
+ [6.07270109e-01]
+ [6.94655956e-01]
+ [7.87803565e-01]
+ [8.86044916e-01]
+ [9.82229060e-01]
+ [1.08081666e+00]
+ [1.17763640e+00]]</t>
         </is>
       </c>
       <c r="E1385" t="inlineStr"/>
@@ -36743,7 +36733,7 @@
       </c>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>[1.21201959]</t>
+          <t>[1.1776364]</t>
         </is>
       </c>
       <c r="E1386" t="inlineStr"/>
@@ -36766,24 +36756,24 @@
       </c>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>[[-39301622.80522774]
- [-37083746.85370922]
- [-34704730.65800916]
- [-33432321.5489004 ]
- [-32150441.13722694]
- [-30849011.51341592]
- [-29516690.10095161]
- [-28140109.1159741 ]
- [-26702894.26848895]
- [-25702284.67238919]
- [-24659100.08679987]
- [-23564129.1941055 ]
- [-22632349.55059476]
- [-21891978.3643952 ]
- [-21151234.99685385]
- [-20780757.60583011]
- [-20410221.82430553]
- [-20039633.10883924]]</t>
+          <t>[[-43752370.57471408]
+ [-41339484.26477805]
+ [-38773273.91504689]
+ [-37043295.85900379]
+ [-35304292.8704958 ]
+ [-33546661.44715886]
+ [-31580087.35303585]
+ [-29571320.67870257]
+ [-27504741.77710497]
+ [-26182987.78264907]
+ [-24819693.74973121]
+ [-23405939.10816694]
+ [-22221414.18425542]
+ [-21220000.88512706]
+ [-20218225.25027365]
+ [-19762560.92009112]
+ [-19306839.85353456]
+ [-18851067.373628  ]]</t>
         </is>
       </c>
       <c r="E1387" t="inlineStr"/>
@@ -36806,24 +36796,24 @@
       </c>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>[[ -4753945.82897518]
- [-11712073.35719811]
- [-11871227.17813491]
- [  2938271.39553704]
- [  2938465.26757913]
- [  2938663.57138708]
- [  2938871.43247075]
- [  2939095.1164675 ]
- [  2939342.69517492]
- [  2938956.44099947]
- [  2939095.32350315]
- [  2939252.0770126 ]
- [  2939201.94481211]
- [  2938876.68606963]
- [  2938934.09570128]
- [  2938344.42753372]
- [  2938358.21754858]
- [  2938371.83028273]]</t>
+          <t>[[ -5104735.82536491]
+ [-12164069.40209557]
+ [-11877845.78320616]
+ [  2938427.41939447]
+ [  2938623.04563336]
+ [  2938821.05975201]
+ [  2939145.50114822]
+ [  2939357.97325217]
+ [  2939586.02094398]
+ [  2939010.81958095]
+ [  2939133.66693317]
+ [  2939269.21544171]
+ [  2939167.06597052]
+ [  2938941.82624574]
+ [  2939002.03814182]
+ [  2938320.1404695 ]
+ [  2938334.59855992]
+ [  2938348.87352696]]</t>
         </is>
       </c>
       <c r="E1388" t="inlineStr"/>
@@ -36846,24 +36836,24 @@
       </c>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>[[-20581.64500714]
- [-51103.09626876]
- [-53374.40741584]
- [  8740.54821588]
- [  8741.39538054]
- [  8742.26882492]
- [  8743.19139878]
- [  8744.191347  ]
- [  8745.30537351]
- [  8743.6338008 ]
- [  8744.2646228 ]
- [  8744.97884979]
- [  8744.77852562]
- [  8743.35027855]
- [  8743.62465215]
- [  8740.99366528]
- [  8741.0605007 ]
- [  8741.12679515]]</t>
+          <t>[[-22100.76206508]
+ [-53082.3384408 ]
+ [-53452.72347361]
+ [  8741.2195524 ]
+ [  8742.07451768]
+ [  8742.94695231]
+ [  8744.3762159 ]
+ [  8745.32688916]
+ [  8746.35434028]
+ [  8743.85798883]
+ [  8744.41690778]
+ [  8745.03561615]
+ [  8744.60481118]
+ [  8743.62567677]
+ [  8743.91352517]
+ [  8740.8774971 ]
+ [  8740.94758618]
+ [  8741.01712062]]</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr"/>
@@ -36886,24 +36876,24 @@
       </c>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>[[ -240238.204045  ]
- [-1063062.43406027]
- [-2069615.44849589]
- [-2363063.35778223]
- [-2318528.26475299]
- [-2273820.66310704]
- [-2228961.42852102]
- [-2183971.8345807 ]
- [-2138873.90815754]
- [-2108768.83749656]
- [-2078634.29875587]
- [-2048477.76309904]
- [-2018307.60718623]
- [-1988122.51803417]
- [-1957918.55324632]
- [-1942815.58243065]
- [-1927709.71503089]
- [-1912601.42434087]]</t>
+          <t>[[ -255636.57860753]
+ [-1101858.42508819]
+ [-2096149.69659979]
+ [-2362127.94958108]
+ [-2317602.95382973]
+ [-2272949.44501648]
+ [-2228196.21679916]
+ [-2183375.53326176]
+ [-2138507.67985751]
+ [-2108587.5121148 ]
+ [-2078656.44542454]
+ [-2048721.22849319]
+ [-2018787.45984741]
+ [-1988851.6060803 ]
+ [-1958911.86402897]
+ [-1943946.23556958]
+ [-1928979.6541071 ]
+ [-1914012.59262107]]</t>
         </is>
       </c>
       <c r="E1390" t="inlineStr"/>
@@ -36926,24 +36916,24 @@
       </c>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>[[5.62660459e+07]
- [2.47361620e+08]
- [4.76859680e+08]
- [5.40566261e+08]
- [5.25681304e+08]
- [5.10757426e+08]
- [4.95799766e+08]
- [4.80813508e+08]
- [4.65803947e+08]
- [4.55789381e+08]
- [4.45768852e+08]
- [4.35744097e+08]
- [4.25717041e+08]
- [4.15687416e+08]
- [4.05654370e+08]
- [4.00637933e+08]
- [3.95621058e+08]
- [3.90603853e+08]]</t>
+          <t>[[5.98877453e+07]
+ [2.56421582e+08]
+ [4.82967425e+08]
+ [5.40302398e+08]
+ [5.25419832e+08]
+ [5.10508361e+08]
+ [4.95574910e+08]
+ [4.80626960e+08]
+ [4.65669305e+08]
+ [4.55696274e+08]
+ [4.45721335e+08]
+ [4.35746036e+08]
+ [4.25771644e+08]
+ [4.15797414e+08]
+ [4.05822949e+08]
+ [4.00836894e+08]
+ [3.95850799e+08]
+ [3.90864773e+08]]</t>
         </is>
       </c>
       <c r="E1391" t="inlineStr"/>
@@ -36966,24 +36956,24 @@
       </c>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>[[1022012.42736814]
- [2233777.89201055]
- [3860295.85103691]
- [6203564.71588812]
- [6203530.38208776]
- [6203495.79310468]
- [6203460.67701973]
- [6203424.72780275]
- [6203387.58479432]
- [6203349.0667971 ]
- [6203322.56127631]
- [6203294.86671932]
- [6203265.50060612]
- [6203240.30585334]
- [6203220.28681429]
- [6203200.25784116]
- [6203190.24054482]
- [6203180.22170205]]</t>
+          <t>[[1062409.90200543]
+ [2301988.74291709]
+ [3925467.19307841]
+ [6203365.17649596]
+ [6203332.29959043]
+ [6203299.25152418]
+ [6203200.60640037]
+ [6203167.05979664]
+ [6203132.7938297 ]
+ [6203139.93632352]
+ [6203115.35244422]
+ [6203089.99614772]
+ [6203095.77996006]
+ [6203072.1253514 ]
+ [6203052.12756792]
+ [6203072.4257614 ]
+ [6203062.41800208]
+ [6203052.40902895]]</t>
         </is>
       </c>
       <c r="E1392" t="inlineStr"/>
@@ -37006,9 +36996,9 @@
       </c>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>[[ 2.93827140e+06]
- [ 8.74054822e+03]
- [-3.47047307e+07]]</t>
+          <t>[[ 2.93842742e+06]
+ [ 8.74121955e+03]
+ [-3.87732739e+07]]</t>
         </is>
       </c>
       <c r="E1393" t="inlineStr"/>
@@ -37031,9 +37021,9 @@
       </c>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>[[-2.40740517e+06]
- [ 5.55407125e+08]
- [ 6.20356472e+06]]</t>
+          <t>[[-2.40650421e+06]
+ [ 5.55151089e+08]
+ [ 6.20336518e+06]]</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr"/>
@@ -37085,12 +37075,12 @@
       </c>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.27941854 11.27941854
- 11.27941854 11.27941854 11.27941854 11.27941854 11.2713189  11.26321926
- 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963 10.84690757 10.43869552 10.03048346  8.68665564  7.34282782
-  5.999     ]</t>
+          <t>[11.        11.        11.        11.        11.        11.
+ 11.        11.        11.        11.        11.        11.
+ 11.        11.        11.        11.        11.        11.
+ 11.        11.        11.        11.        11.        11.
+ 11.        10.2972302  9.5944604  8.8916906  7.9274604  6.9632302
+  5.999    ]</t>
         </is>
       </c>
       <c r="E1396" t="inlineStr"/>
@@ -37113,11 +37103,11 @@
       </c>
       <c r="D1397" t="inlineStr">
         <is>
-          <t>[0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.05873341 0.05873341 0.05873341 0.03130576 0.03130576 0.03130576
- 0.01179358 0.01179358 0.01179358 0.01140435 0.01140435 0.01140435]</t>
+          <t>[0.08598397 0.08598397 0.08598397 0.11248397 0.11248397 0.11248397
+ 0.12545774 0.12545774 0.12545774 0.1149499  0.1149499  0.1149499
+ 0.10698255 0.10698255 0.10698255 0.09718516 0.09718516 0.09718516
+ 0.04       0.04       0.04       0.03256123 0.03256123 0.03256123
+ 0.02006123 0.02006123 0.02006123 0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr"/>
@@ -37216,11 +37206,11 @@
       </c>
       <c r="D1401" t="inlineStr">
         <is>
-          <t>[2.89958717 2.89958717 2.89958717 2.89958717 2.89958717 2.89958717
- 2.89958717 2.89958717 2.89958717 2.89853894 2.89644246 2.89434598
- 2.89329775 2.89329775 2.89329775 2.89329775 2.89329775 2.89329775
- 2.21053174 2.21053174 2.21053174 1.18113161 1.18113161 1.18113161
- 0.43764062 0.4214574  0.40527417 0.35833065 0.30681399 0.25529734]</t>
+          <t>[3.15453787 3.15453787 3.15453787 4.11673683 4.11673683 4.11673683
+ 4.58608478 4.58608478 4.58608478 4.20603309 4.20603309 4.20603309
+ 3.91737186 3.91737186 3.91737186 3.56182214 3.56182214 3.56182214
+ 1.47368341 1.47368341 1.47368341 1.2004377  1.2004377  1.2004377
+ 0.71674605 0.66935414 0.62196223 0.423276   0.37465705 0.32603809]</t>
         </is>
       </c>
       <c r="E1401" t="inlineStr"/>
@@ -37243,11 +37233,11 @@
       </c>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>[1.65049817 1.65049817 1.65049817 1.65049817 1.65049817 1.65049817
- 1.65049817 1.65049817 1.65049817 1.64990337 1.64871377 1.64752417
- 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937
- 1.25734279 1.25734279 1.25734279 0.67108252 0.67108252 0.67108252
- 0.24846446 0.23928098 0.23009749 0.20345091 0.17421682 0.14498276]</t>
+          <t>[1.7964496  1.7964496  1.7964496  2.34707531 2.34707531 2.34707531
+ 2.61614467 2.61614467 2.61614467 2.39824272 2.39824272 2.39824272
+ 2.23287916 2.23287916 2.23287916 2.02936136 2.02936136 2.02936136
+ 0.83762341 0.83762341 0.83762341 0.68210628 0.68210628 0.68210628
+ 0.40706992 0.38017659 0.35328328 0.24038536 0.21279571 0.1852061 ]</t>
         </is>
       </c>
       <c r="E1402" t="inlineStr"/>
@@ -37270,11 +37260,11 @@
       </c>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>[1.65049817 1.65049817 1.65049817 1.65049817 1.65049817 1.65049817
- 1.65049817 1.65049817 1.65049817 1.64990337 1.64871377 1.64752417
- 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937
- 1.25734279 1.25734279 1.25734279 0.67108252 0.67108252 0.67108252
- 0.24846446 0.23928098 0.23009749 0.20345091 0.17421682 0.14498276]</t>
+          <t>[1.7964496  1.7964496  1.7964496  2.34707531 2.34707531 2.34707531
+ 2.61614467 2.61614467 2.61614467 2.39824272 2.39824272 2.39824272
+ 2.23287916 2.23287916 2.23287916 2.02936136 2.02936136 2.02936136
+ 0.83762341 0.83762341 0.83762341 0.68210628 0.68210628 0.68210628
+ 0.40706992 0.38017659 0.35328328 0.24038536 0.21279571 0.1852061 ]</t>
         </is>
       </c>
       <c r="E1403" t="inlineStr"/>
@@ -37297,11 +37287,12 @@
       </c>
       <c r="D1404" t="inlineStr">
         <is>
-          <t>[90.97462738 90.97462738 90.97462738 90.97462738 90.97462738 90.97462738
- 90.97462738 90.97462738 90.97462738 90.87600065 90.67896109 90.48220656
- 90.38393611 90.38393611 90.38393611 90.38393612 90.38393612 90.38393612
- 69.27945394 69.27945394 69.27945394 37.1982572  37.1982572  37.1982572
- 13.33321581 11.90811748 10.58836479  7.82680381  4.91313053  2.83055801]</t>
+          <t>[ 93.94461338  93.94461338  93.94461338 122.0104649  122.0104649
+ 122.0104649  135.60067744 135.60067744 135.60067744 124.60113212
+ 124.60113212 124.60113212 116.21791913 116.21791913 116.21791913
+ 105.85808102 105.85808102 105.85808102  44.25589189  44.25589189
+  44.25589189  36.09889424  36.09889424  36.09889424  20.24208404
+  16.48645895  13.22671021   7.45697218   5.1712279    3.40798401]</t>
         </is>
       </c>
       <c r="E1404" t="inlineStr"/>
@@ -37324,11 +37315,11 @@
       </c>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>[45.48731369 45.48731369 45.48731369 45.48731369 45.48731369 45.48731369
- 45.48731369 45.48731369 45.48731369 45.43800033 45.33948055 45.24110328
- 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806
- 34.63972697 34.63972697 34.63972697 18.5991286  18.5991286  18.5991286
-  6.66660791  5.95405874  5.29418239  3.9134019   2.45656527  1.415279  ]</t>
+          <t>[46.97230669 46.97230669 46.97230669 61.00523245 61.00523245 61.00523245
+ 67.80033872 67.80033872 67.80033872 62.30056606 62.30056606 62.30056606
+ 58.10895957 58.10895957 58.10895957 52.92904051 52.92904051 52.92904051
+ 22.12794594 22.12794594 22.12794594 18.04944712 18.04944712 18.04944712
+ 10.12104202  8.24322947  6.6133551   3.72848609  2.58561395  1.703992  ]</t>
         </is>
       </c>
       <c r="E1405" t="inlineStr"/>
@@ -37351,11 +37342,11 @@
       </c>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>[45.48731369 45.48731369 45.48731369 45.48731369 45.48731369 45.48731369
- 45.48731369 45.48731369 45.48731369 45.43800033 45.33948055 45.24110328
- 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806
- 34.63972697 34.63972697 34.63972697 18.5991286  18.5991286  18.5991286
-  6.66660791  5.95405874  5.29418239  3.9134019   2.45656527  1.415279  ]</t>
+          <t>[46.97230669 46.97230669 46.97230669 61.00523245 61.00523245 61.00523245
+ 67.80033872 67.80033872 67.80033872 62.30056606 62.30056606 62.30056606
+ 58.10895957 58.10895957 58.10895957 52.92904051 52.92904051 52.92904051
+ 22.12794594 22.12794594 22.12794594 18.04944712 18.04944712 18.04944712
+ 10.12104202  8.24322947  6.6133551   3.72848609  2.58561395  1.703992  ]</t>
         </is>
       </c>
       <c r="E1406" t="inlineStr"/>
@@ -37480,36 +37471,36 @@
       </c>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>[[-3.93016228e+07]
- [-3.70837469e+07]
- [-3.47047307e+07]
- [-3.34323215e+07]
- [-3.21504411e+07]
- [-3.08490115e+07]
- [-2.95166901e+07]
- [-2.81401091e+07]
- [-2.67028943e+07]
- [-2.57022847e+07]
- [-2.46591001e+07]
- [-2.35641292e+07]
- [-2.26323496e+07]
- [-2.18919784e+07]
- [-2.11512350e+07]
- [-2.07807576e+07]
- [-2.04102218e+07]
- [-2.00396331e+07]
- [-1.70830647e+07]
- [-1.51061849e+07]
- [-1.31276799e+07]
- [-1.16057921e+07]
- [-1.00822069e+07]
- [-8.55693652e+06]
- [-8.20700381e+06]
- [-7.86915310e+06]
- [-7.54396954e+06]
- [-7.27418798e+06]
- [-7.04218473e+06]
- [ 8.44011083e-09]]</t>
+          <t>[[-4.37523706e+07]
+ [-4.13394843e+07]
+ [-3.87732739e+07]
+ [-3.70432959e+07]
+ [-3.53042929e+07]
+ [-3.35466614e+07]
+ [-3.15800874e+07]
+ [-2.95713207e+07]
+ [-2.75047418e+07]
+ [-2.61829878e+07]
+ [-2.48196937e+07]
+ [-2.34059391e+07]
+ [-2.22214142e+07]
+ [-2.12200009e+07]
+ [-2.02182253e+07]
+ [-1.97625609e+07]
+ [-1.93068399e+07]
+ [-1.88510674e+07]
+ [-1.65493300e+07]
+ [-1.52273094e+07]
+ [-1.39037132e+07]
+ [-1.23579110e+07]
+ [-1.08104669e+07]
+ [-9.26139388e+06]
+ [-8.69939894e+06]
+ [-8.17352364e+06]
+ [-7.68459427e+06]
+ [-7.37028584e+06]
+ [-7.09158587e+06]
+ [ 2.92493496e-09]]</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr"/>
@@ -37532,36 +37523,36 @@
       </c>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>[[-4.75394583e+06]
- [-1.17120734e+07]
- [-1.18712272e+07]
- [ 2.93827140e+06]
- [ 2.93846527e+06]
- [ 2.93866357e+06]
- [ 2.93887143e+06]
- [ 2.93909512e+06]
- [ 2.93934270e+06]
- [ 2.93895644e+06]
- [ 2.93909532e+06]
- [ 2.93925208e+06]
- [ 2.93920194e+06]
- [ 2.93887669e+06]
- [ 2.93893410e+06]
- [ 2.93834443e+06]
- [ 2.93835822e+06]
- [ 2.93837183e+06]
- [ 2.94158435e+06]
- [ 2.94217483e+06]
- [ 2.94271038e+06]
- [ 2.94222371e+06]
- [ 2.94302910e+06]
- [ 2.94366618e+06]
- [ 2.93923669e+06]
- [ 2.93932624e+06]
- [ 2.93937503e+06]
- [ 2.93915893e+06]
- [ 2.93898885e+06]
- [ 1.04204481e+03]]</t>
+          <t>[[-5.10473583e+06]
+ [-1.21640694e+07]
+ [-1.18778458e+07]
+ [ 2.93842742e+06]
+ [ 2.93862305e+06]
+ [ 2.93882106e+06]
+ [ 2.93914550e+06]
+ [ 2.93935797e+06]
+ [ 2.93958602e+06]
+ [ 2.93901082e+06]
+ [ 2.93913367e+06]
+ [ 2.93926922e+06]
+ [ 2.93916707e+06]
+ [ 2.93894183e+06]
+ [ 2.93900204e+06]
+ [ 2.93832014e+06]
+ [ 2.93833460e+06]
+ [ 2.93834887e+06]
+ [ 2.93992384e+06]
+ [ 2.94054250e+06]
+ [ 2.94110379e+06]
+ [ 2.94246238e+06]
+ [ 2.94330636e+06]
+ [ 2.94397361e+06]
+ [ 2.94017962e+06]
+ [ 2.94017455e+06]
+ [ 2.94012687e+06]
+ [ 2.93934113e+06]
+ [ 2.93919329e+06]
+ [ 1.26718007e+03]]</t>
         </is>
       </c>
       <c r="E1411" t="inlineStr"/>
@@ -37584,36 +37575,36 @@
       </c>
       <c r="D1412" t="inlineStr">
         <is>
-          <t>[[-2.05816450e+04]
- [-5.11030963e+04]
- [-5.33744074e+04]
- [ 8.74054822e+03]
- [ 8.74139538e+03]
- [ 8.74226882e+03]
- [ 8.74319140e+03]
- [ 8.74419135e+03]
- [ 8.74530537e+03]
- [ 8.74363380e+03]
- [ 8.74426462e+03]
- [ 8.74497885e+03]
- [ 8.74477853e+03]
- [ 8.74335028e+03]
- [ 8.74362465e+03]
- [ 8.74099367e+03]
- [ 8.74106050e+03]
- [ 8.74112680e+03]
- [ 8.75573163e+03]
- [ 8.75873163e+03]
- [ 8.76157130e+03]
- [ 8.75989437e+03]
- [ 8.76482728e+03]
- [ 8.76925640e+03]
- [ 8.74653637e+03]
- [ 8.74765748e+03]
- [ 8.74868782e+03]
- [ 8.74814511e+03]
- [ 8.74815297e+03]
- [ 8.93201103e+00]]</t>
+          <t>[[-2.21007621e+04]
+ [-5.30823384e+04]
+ [-5.34527235e+04]
+ [ 8.74121955e+03]
+ [ 8.74207452e+03]
+ [ 8.74294695e+03]
+ [ 8.74437622e+03]
+ [ 8.74532689e+03]
+ [ 8.74635434e+03]
+ [ 8.74385799e+03]
+ [ 8.74441691e+03]
+ [ 8.74503562e+03]
+ [ 8.74460481e+03]
+ [ 8.74362568e+03]
+ [ 8.74391353e+03]
+ [ 8.74087750e+03]
+ [ 8.74094759e+03]
+ [ 8.74101712e+03]
+ [ 8.74822459e+03]
+ [ 8.75136794e+03]
+ [ 8.75434425e+03]
+ [ 8.76149409e+03]
+ [ 8.76666184e+03]
+ [ 8.77129887e+03]
+ [ 8.75175192e+03]
+ [ 8.75239870e+03]
+ [ 8.75298862e+03]
+ [ 8.74907121e+03]
+ [ 8.74949216e+03]
+ [ 1.05985261e+01]]</t>
         </is>
       </c>
       <c r="E1412" t="inlineStr"/>
@@ -37636,36 +37627,36 @@
       </c>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>[[-2.40238204e+05]
- [-1.06306243e+06]
- [-2.06961545e+06]
- [-2.36306336e+06]
- [-2.31852826e+06]
- [-2.27382066e+06]
- [-2.22896143e+06]
- [-2.18397183e+06]
- [-2.13887391e+06]
- [-2.10876884e+06]
- [-2.07863430e+06]
- [-2.04847776e+06]
- [-2.01830761e+06]
- [-1.98812252e+06]
- [-1.95791855e+06]
- [-1.94281558e+06]
- [-1.92770972e+06]
- [-1.91260142e+06]
- [-1.80718908e+06]
- [-1.70158065e+06]
- [-1.59594966e+06]
- [-1.44476389e+06]
- [-1.29305324e+06]
- [-1.14126270e+06]
- [-1.05019877e+06]
- [-9.58626697e+05]
- [-8.66576291e+05]
- [-7.80208926e+05]
- [-6.93215874e+05]
- [-1.94780409e-04]]</t>
+          <t>[[-2.55636579e+05]
+ [-1.10185843e+06]
+ [-2.09614970e+06]
+ [-2.36212795e+06]
+ [-2.31760295e+06]
+ [-2.27294945e+06]
+ [-2.22819622e+06]
+ [-2.18337553e+06]
+ [-2.13850768e+06]
+ [-2.10858751e+06]
+ [-2.07865645e+06]
+ [-2.04872123e+06]
+ [-2.01878746e+06]
+ [-1.98885161e+06]
+ [-1.95891186e+06]
+ [-1.94394624e+06]
+ [-1.92897965e+06]
+ [-1.91401259e+06]
+ [-1.80937496e+06]
+ [-1.70405509e+06]
+ [-1.59825116e+06]
+ [-1.44632245e+06]
+ [-1.29379956e+06]
+ [-1.14115582e+06]
+ [-1.04971014e+06]
+ [-9.58041562e+05]
+ [-8.66127551e+05]
+ [-7.79991699e+05]
+ [-6.93247123e+05]
+ [-2.40440546e-04]]</t>
         </is>
       </c>
       <c r="E1413" t="inlineStr"/>
@@ -37688,36 +37679,36 @@
       </c>
       <c r="D1414" t="inlineStr">
         <is>
-          <t>[[ 5.62660459e+07]
- [ 2.47361620e+08]
- [ 4.76859680e+08]
- [ 5.40566261e+08]
- [ 5.25681304e+08]
- [ 5.10757426e+08]
- [ 4.95799766e+08]
- [ 4.80813508e+08]
- [ 4.65803947e+08]
- [ 4.55789381e+08]
- [ 4.45768852e+08]
- [ 4.35744097e+08]
- [ 4.25717041e+08]
- [ 4.15687416e+08]
- [ 4.05654370e+08]
- [ 4.00637933e+08]
- [ 3.95621058e+08]
- [ 3.90603853e+08]
- [ 3.55620566e+08]
- [ 3.20608273e+08]
- [ 2.85605344e+08]
- [ 2.35577154e+08]
- [ 1.85495340e+08]
- [ 1.35451524e+08]
- [ 1.05466284e+08]
- [ 7.54436711e+07]
- [ 4.54005787e+07]
- [ 1.73564390e+07]
- [-1.06787941e+07]
- [ 2.27234716e-02]]</t>
+          <t>[[ 5.98877453e+07]
+ [ 2.56421582e+08]
+ [ 4.82967425e+08]
+ [ 5.40302398e+08]
+ [ 5.25419832e+08]
+ [ 5.10508361e+08]
+ [ 4.95574910e+08]
+ [ 4.80626960e+08]
+ [ 4.65669305e+08]
+ [ 4.55696274e+08]
+ [ 4.45721335e+08]
+ [ 4.35746036e+08]
+ [ 4.25771644e+08]
+ [ 4.15797414e+08]
+ [ 4.05822949e+08]
+ [ 4.00836894e+08]
+ [ 3.95850799e+08]
+ [ 3.90864773e+08]
+ [ 3.56054209e+08]
+ [ 3.21114714e+08]
+ [ 2.86091921e+08]
+ [ 2.35937395e+08]
+ [ 1.85717101e+08]
+ [ 1.35529305e+08]
+ [ 1.05476584e+08]
+ [ 7.54234776e+07]
+ [ 4.53777152e+07]
+ [ 1.73452963e+07]
+ [-1.06745984e+07]
+ [ 2.87482363e-02]]</t>
         </is>
       </c>
       <c r="E1414" t="inlineStr"/>
@@ -37740,35 +37731,35 @@
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>[[1022012.42736814]
- [2233777.89201055]
- [3860295.85103691]
- [6203564.71588812]
- [6203530.38208776]
- [6203495.79310468]
- [6203460.67701973]
- [6203424.72780275]
- [6203387.58479432]
- [6203349.0667971 ]
- [6203322.56127631]
- [6203294.86671932]
- [6203265.50060612]
- [6203240.30585334]
- [6203220.28681429]
- [6203200.25784116]
- [6203190.24054482]
- [6203180.22170205]
- [6203302.85908097]
- [6203232.92834189]
- [6203162.96575596]
- [6203497.87087318]
- [6203397.06133935]
- [6203296.14264678]
- [6204158.11823225]
- [6204151.89573554]
- [6204147.50943434]
- [6204275.55643747]
- [6204483.39468891]
+          <t>[[1062409.90200543]
+ [2301988.74291709]
+ [3925467.19307841]
+ [6203365.17649596]
+ [6203332.29959043]
+ [6203299.25152418]
+ [6203200.60640037]
+ [6203167.05979664]
+ [6203132.7938297 ]
+ [6203139.93632352]
+ [6203115.35244422]
+ [6203089.99614772]
+ [6203095.77996006]
+ [6203072.1253514 ]
+ [6203052.12756792]
+ [6203072.4257614 ]
+ [6203062.41800208]
+ [6203052.40902895]
+ [6203577.04048519]
+ [6203506.90085647]
+ [6203436.71417614]
+ [6203534.46423873]
+ [6203433.71618199]
+ [6203332.86438787]
+ [6203639.24836956]
+ [6203645.13712644]
+ [6203656.46708206]
+ [6204048.76666109]
+ [6204167.4822478 ]
  [      0.        ]]</t>
         </is>
       </c>
@@ -37792,24 +37783,24 @@
       </c>
       <c r="D1416" t="inlineStr">
         <is>
-          <t>[[-6578047.61984284]
- [17879902.13753649]
- [47154781.64172531]
- [55492300.38481762]
- [54088884.86021936]
- [52687385.67513268]
- [51292352.15732989]
- [49909036.94832672]
- [48543744.022359  ]
- [47684992.01187274]
- [46875806.60109563]
- [46081058.41487552]
- [45190955.94043018]
- [44197898.31718991]
- [43204543.40387647]
- [42707913.2940191 ]
- [42211248.70713118]
- [41714561.38463148]]</t>
+          <t>[[-6857324.84684401]
+ [16919981.88666433]
+ [44260049.00225311]
+ [39713858.99827476]
+ [38794521.42085057]
+ [37877102.91061728]
+ [33315642.9720895 ]
+ [32541066.59465646]
+ [31778309.02260443]
+ [34004970.65540637]
+ [33448491.46727947]
+ [32903977.82189744]
+ [34627112.44619528]
+ [33938685.0473579 ]
+ [33250327.85224807]
+ [36104096.17835253]
+ [35713922.21124737]
+ [35323769.74323044]]</t>
         </is>
       </c>
       <c r="E1416" t="inlineStr"/>
@@ -37832,24 +37823,24 @@
       </c>
       <c r="D1417" t="inlineStr">
         <is>
-          <t>[[2943693.37407711]
- [7234627.9961313 ]
- [7431892.17707106]
- [2164813.01156832]
- [2164928.34688816]
- [2165046.35153221]
- [2165170.11410589]
- [2165303.41188172]
- [2165451.11306536]
- [2166135.76990149]
- [2168062.80157007]
- [2170003.79892791]
- [2170896.50665063]
- [2170697.44220248]
- [2170731.05468806]
- [2170371.76350257]
- [2170379.51304815]
- [2170387.15485376]]</t>
+          <t>[[2903794.74886874]
+ [6906006.81329724]
+ [6841728.66912663]
+ [1531594.22173678]
+ [1531676.08936305]
+ [1531758.96667661]
+ [1375072.89935069]
+ [1375152.75514506]
+ [1375238.53546452]
+ [1499302.44168133]
+ [1499352.58089759]
+ [1499407.98209566]
+ [1609879.27791933]
+ [1609777.28348764]
+ [1609803.30339325]
+ [1770199.29780606]
+ [1770205.902364  ]
+ [1770212.4166215 ]]</t>
         </is>
       </c>
       <c r="E1417" t="inlineStr"/>
@@ -37874,22 +37865,22 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.48721216e+07]
- [-2.79233759e+07]
- [-2.42962175e+07]
- [-2.06995488e+07]
- [-1.71370514e+07]
- [-1.36146052e+07]
- [-1.01407669e+07]
- [-7.28383968e+06]
- [-5.03704599e+06]
- [-2.83189936e+06]
- [-8.73900028e+05]
- [-7.48760364e+03]
- [-8.52335657e+03]
- [-9.10616788e+03]
- [-9.42561626e+03]
- [-9.71392434e+03]]</t>
+ [-1.29753457e+07]
+ [-1.85774035e+07]
+ [-1.61642574e+07]
+ [-1.37713961e+07]
+ [-1.02100665e+07]
+ [-8.11143184e+06]
+ [-6.04175723e+06]
+ [-4.74261827e+06]
+ [-3.28207077e+06]
+ [-1.84656373e+06]
+ [-6.12941427e+05]
+ [-5.25170192e+03]
+ [-5.97816474e+03]
+ [-7.03714208e+03]
+ [-7.28400813e+03]
+ [-7.50680930e+03]]</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr"/>
@@ -37948,24 +37939,24 @@
       <c r="C1420" t="inlineStr"/>
       <c r="D1420" t="inlineStr">
         <is>
-          <t>[[0.04233702]
- [0.11106708]
- [0.29274293]
- [0.37459838]
- [0.35405107]
- [0.3339268 ]
- [0.31430836]
- [0.29529889]
- [0.27702524]
- [0.26375362]
- [0.25296705]
- [0.2426914 ]
- [0.23292579]
- [0.22566378]
- [0.22063187]
- [0.21811636]
- [0.2156005 ]
- [0.21308469]]</t>
+          <t>[[0.04325977]
+ [0.10540741]
+ [0.27118912]
+ [0.26271204]
+ [0.2492308 ]
+ [0.23603619]
+ [0.200919  ]
+ [0.18995162]
+ [0.17942139]
+ [0.18668831]
+ [0.17957015]
+ [0.1727758 ]
+ [0.17829127]
+ [0.17323957]
+ [0.16975179]
+ [0.18433889]
+ [0.18236192]
+ [0.18038515]]</t>
         </is>
       </c>
       <c r="E1420" t="inlineStr"/>
@@ -37984,24 +37975,24 @@
       <c r="C1421" t="inlineStr"/>
       <c r="D1421" t="inlineStr">
         <is>
-          <t>[[0.07293928]
- [0.09572576]
- [0.27698948]
- [0.21662981]
- [0.1914214 ]
- [0.16659621]
- [0.14225745]
- [0.11858233]
- [0.09588817]
- [0.06096102]
- [0.05345285]
- [0.04636988]
- [0.04103473]
- [0.03876337]
- [0.03770164]
- [0.03369498]
- [0.03319182]
- [0.03268981]]</t>
+          <t>[[0.06872609]
+ [0.08689193]
+ [0.21193886]
+ [0.09763389]
+ [0.08623539]
+ [0.07512464]
+ [0.0517194 ]
+ [0.0435047 ]
+ [0.03578098]
+ [0.02922687]
+ [0.02615333]
+ [0.02382495]
+ [0.02491286]
+ [0.02400365]
+ [0.02308766]
+ [0.02383649]
+ [0.023389  ]
+ [0.02294323]]</t>
         </is>
       </c>
       <c r="E1421" t="inlineStr"/>
@@ -38020,24 +38011,24 @@
       <c r="C1422" t="inlineStr"/>
       <c r="D1422" t="inlineStr">
         <is>
-          <t>[[0.11050837]
- [0.22454952]
- [0.36184504]
- [0.39866696]
- [0.38684991]
- [0.37497734]
- [0.3630296 ]
- [0.35098313]
- [0.33880851]
- [0.33083323]
- [0.32298359]
- [0.31500993]
- [0.30713636]
- [0.29943472]
- [0.29173343]
- [0.28788384]
- [0.28403466]
- [0.28018598]]</t>
+          <t>[[0.09869759]
+ [0.19492568]
+ [0.30600085]
+ [0.25511295]
+ [0.2471373 ]
+ [0.23913247]
+ [0.20753644]
+ [0.20006867]
+ [0.19253839]
+ [0.20426619]
+ [0.19881464]
+ [0.19330459]
+ [0.20172984]
+ [0.19635557]
+ [0.19098295]
+ [0.20690428]
+ [0.20401715]
+ [0.20113058]]</t>
         </is>
       </c>
       <c r="E1422" t="inlineStr"/>
@@ -38060,36 +38051,36 @@
       </c>
       <c r="D1423" t="inlineStr">
         <is>
-          <t>[[-6.57804762e+06]
- [ 1.78799021e+07]
- [ 4.71547816e+07]
- [ 5.54923004e+07]
- [ 5.40888849e+07]
- [ 5.26873857e+07]
- [ 5.12923522e+07]
- [ 4.99090369e+07]
- [ 4.85437440e+07]
- [ 4.76849920e+07]
- [ 4.68758066e+07]
- [ 4.60810584e+07]
- [ 4.51909559e+07]
- [ 4.41978983e+07]
- [ 4.32045434e+07]
- [ 4.27079133e+07]
- [ 4.22112487e+07]
- [ 4.17145614e+07]
- [ 5.00467239e+07]
- [ 4.52529254e+07]
- [ 4.04613865e+07]
- [ 6.14541980e+07]
- [ 4.75908456e+07]
- [ 3.37404853e+07]
- [ 6.86654664e+07]
- [ 4.87614375e+07]
- [ 2.52771775e+07]
- [ 4.73973449e+05]
- [-5.49574133e+06]
- [ 5.35555126e-02]]</t>
+          <t>[[-6.85732485e+06]
+ [ 1.69199819e+07]
+ [ 4.42600490e+07]
+ [ 3.97138590e+07]
+ [ 3.87945214e+07]
+ [ 3.78771029e+07]
+ [ 3.33156430e+07]
+ [ 3.25410666e+07]
+ [ 3.17783090e+07]
+ [ 3.40049707e+07]
+ [ 3.34484915e+07]
+ [ 3.29039778e+07]
+ [ 3.46271124e+07]
+ [ 3.39386850e+07]
+ [ 3.32503279e+07]
+ [ 3.61040962e+07]
+ [ 3.57139222e+07]
+ [ 3.53237697e+07]
+ [ 7.72701013e+07]
+ [ 6.94828004e+07]
+ [ 6.16758694e+07]
+ [ 6.16013298e+07]
+ [ 4.75873674e+07]
+ [ 3.35847328e+07]
+ [ 4.33527431e+07]
+ [ 3.32936027e+07]
+ [ 1.93611789e+07]
+ [ 2.16838588e+06]
+ [-3.52693249e+06]
+ [ 5.46737235e-02]]</t>
         </is>
       </c>
       <c r="E1423" t="inlineStr"/>
@@ -38112,36 +38103,36 @@
       </c>
       <c r="D1424" t="inlineStr">
         <is>
-          <t>[[2.94369337e+06]
- [7.23462800e+06]
- [7.43189218e+06]
- [2.16481301e+06]
- [2.16492835e+06]
- [2.16504635e+06]
- [2.16517011e+06]
- [2.16530341e+06]
- [2.16545111e+06]
- [2.16613577e+06]
- [2.16806280e+06]
- [2.17000380e+06]
- [2.17089651e+06]
- [2.17069744e+06]
- [2.17073105e+06]
- [2.17037176e+06]
- [2.17037951e+06]
- [2.17038715e+06]
- [2.84342831e+06]
- [2.84389225e+06]
- [2.84431251e+06]
- [5.32281413e+06]
- [5.32399903e+06]
- [5.32493310e+06]
- [1.44007651e+07]
- [1.50565090e+07]
- [1.57729612e+07]
- [1.81558406e+07]
- [2.19304510e+07]
- [7.18763465e+03]]</t>
+          <t>[[2.90379475e+06]
+ [6.90600681e+06]
+ [6.84172867e+06]
+ [1.53159422e+06]
+ [1.53167609e+06]
+ [1.53175897e+06]
+ [1.37507290e+06]
+ [1.37515276e+06]
+ [1.37523854e+06]
+ [1.49930244e+06]
+ [1.49935258e+06]
+ [1.49940798e+06]
+ [1.60987928e+06]
+ [1.60977728e+06]
+ [1.60980330e+06]
+ [1.77019930e+06]
+ [1.77020590e+06]
+ [1.77021242e+06]
+ [4.28081860e+06]
+ [4.28154848e+06]
+ [4.28220986e+06]
+ [5.25897363e+06]
+ [5.26019562e+06]
+ [5.26115849e+06]
+ [8.85457281e+06]
+ [9.60498951e+06]
+ [1.04899460e+07]
+ [1.57259732e+07]
+ [1.82786055e+07]
+ [6.84223887e+03]]</t>
         </is>
       </c>
       <c r="E1424" t="inlineStr"/>
@@ -38166,34 +38157,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.48721216e+07]
- [-2.79233759e+07]
- [-2.42962175e+07]
- [-2.06995488e+07]
- [-1.71370514e+07]
- [-1.36146052e+07]
- [-1.01407669e+07]
- [-7.28383968e+06]
- [-5.03704599e+06]
- [-2.83189936e+06]
- [-8.73900028e+05]
- [-7.48760364e+03]
- [-8.52335657e+03]
- [-9.10616788e+03]
- [-9.42561626e+03]
- [-9.71392434e+03]
- [-1.38903219e+04]
- [-1.55184389e+04]
- [-1.67245934e+04]
- [-3.36137829e+04]
- [-3.57279267e+04]
- [-3.75032762e+04]
- [-1.01211244e+05]
- [-9.96221391e+04]
- [-9.77346441e+04]
- [-9.40826783e+04]
- [-8.18630569e+04]
- [-6.91523164e+04]]</t>
+ [-1.29753457e+07]
+ [-1.85774035e+07]
+ [-1.61642574e+07]
+ [-1.37713961e+07]
+ [-1.02100665e+07]
+ [-8.11143184e+06]
+ [-6.04175723e+06]
+ [-4.74261827e+06]
+ [-3.28207077e+06]
+ [-1.84656373e+06]
+ [-6.12941427e+05]
+ [-5.25170192e+03]
+ [-5.97816474e+03]
+ [-7.03714208e+03]
+ [-7.28400813e+03]
+ [-7.50680930e+03]
+ [-1.99650424e+04]
+ [-2.23051916e+04]
+ [-2.40388394e+04]
+ [-3.15795244e+04]
+ [-3.35657232e+04]
+ [-3.52336310e+04]
+ [-5.72865484e+04]
+ [-5.46807353e+04]
+ [-5.18369964e+04]
+ [-6.42403088e+04]
+ [-5.77836480e+04]
+ [-5.10489770e+04]]</t>
         </is>
       </c>
       <c r="E1425" t="inlineStr"/>
@@ -38264,36 +38255,36 @@
       <c r="C1427" t="inlineStr"/>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>[[4.23370197e-02]
- [1.11067079e-01]
- [2.92742929e-01]
- [3.74598378e-01]
- [3.54051067e-01]
- [3.33926802e-01]
- [3.14308363e-01]
- [2.95298895e-01]
- [2.77025235e-01]
- [2.63753621e-01]
- [2.52967047e-01]
- [2.42691401e-01]
- [2.32925787e-01]
- [2.25663778e-01]
- [2.20631873e-01]
- [2.18116357e-01]
- [2.15600504e-01]
- [2.13084690e-01]
- [2.55850408e-01]
- [2.31598629e-01]
- [2.07387620e-01]
- [3.16197718e-01]
- [2.46684616e-01]
- [1.78025446e-01]
- [3.71871912e-01]
- [2.81517929e-01]
- [1.89503614e-01]
- [1.59991191e-01]
- [1.95208867e-01]
- [3.57430027e-04]]</t>
+          <t>[[4.32597654e-02]
+ [1.05407407e-01]
+ [2.71189117e-01]
+ [2.62712039e-01]
+ [2.49230805e-01]
+ [2.36036193e-01]
+ [2.00919002e-01]
+ [1.89951624e-01]
+ [1.79421393e-01]
+ [1.86688309e-01]
+ [1.79570146e-01]
+ [1.72775804e-01]
+ [1.78291269e-01]
+ [1.73239570e-01]
+ [1.69751786e-01]
+ [1.84338888e-01]
+ [1.82361915e-01]
+ [1.80385149e-01]
+ [3.94925694e-01]
+ [3.55519849e-01]
+ [3.16063708e-01]
+ [3.16850044e-01]
+ [2.46555549e-01]
+ [1.77107795e-01]
+ [2.34063994e-01]
+ [1.89454472e-01]
+ [1.35161733e-01]
+ [1.39011176e-01]
+ [1.62030629e-01]
+ [2.66589990e-04]]</t>
         </is>
       </c>
       <c r="E1427" t="inlineStr"/>
@@ -38312,36 +38303,36 @@
       <c r="C1428" t="inlineStr"/>
       <c r="D1428" t="inlineStr">
         <is>
-          <t>[[0.07293928]
- [0.09572576]
- [0.27698948]
- [0.21662981]
- [0.1914214 ]
- [0.16659621]
- [0.14225745]
- [0.11858233]
- [0.09588817]
- [0.06096102]
- [0.05345285]
- [0.04636988]
- [0.04103473]
- [0.03876337]
- [0.03770164]
- [0.03369498]
- [0.03319182]
- [0.03268981]
- [0.06021927]
- [0.05589361]
- [0.0516553 ]
- [0.1794507 ]
- [0.16988403]
- [0.16037917]
- [1.1856258 ]
- [1.1714326 ]
- [1.15918499]
- [1.22334505]
- [1.24678384]
- [0.01303052]]</t>
+          <t>[[0.06872609]
+ [0.08689193]
+ [0.21193886]
+ [0.09763389]
+ [0.08623539]
+ [0.07512464]
+ [0.0517194 ]
+ [0.0435047 ]
+ [0.03578098]
+ [0.02922687]
+ [0.02615333]
+ [0.02382495]
+ [0.02491286]
+ [0.02400365]
+ [0.02308766]
+ [0.02383649]
+ [0.023389  ]
+ [0.02294323]
+ [0.11968862]
+ [0.11428227]
+ [0.10889598]
+ [0.17047068]
+ [0.16145207]
+ [0.1525006 ]
+ [0.36723349]
+ [0.36334913]
+ [0.36150932]
+ [0.6770181 ]
+ [0.69054529]
+ [0.00631464]]</t>
         </is>
       </c>
       <c r="E1428" t="inlineStr"/>
@@ -38360,36 +38351,36 @@
       <c r="C1429" t="inlineStr"/>
       <c r="D1429" t="inlineStr">
         <is>
-          <t>[[2.34926326e-01]
- [4.31644937e-01]
- [6.66308477e-01]
- [7.27246030e-01]
- [7.03705786e-01]
- [6.80130893e-01]
- [6.56463179e-01]
- [6.32635074e-01]
- [6.08564569e-01]
- [5.92807886e-01]
- [5.77291309e-01]
- [5.61488521e-01]
- [5.46183168e-01]
- [5.31557271e-01]
- [5.16969375e-01]
- [5.09691231e-01]
- [5.02423134e-01]
- [4.95165200e-01]
- [5.84610815e-01]
- [5.22414211e-01]
- [4.60892509e-01]
- [7.34501425e-01]
- [5.83944403e-01]
- [4.36048662e-01]
- [1.05043483e+00]
- [8.83535760e-01]
- [6.82330047e-01]
- [5.46282716e-01]
- [7.20927145e-01]
- [4.25202810e-10]]</t>
+          <t>[[2.05256017e-01]
+ [3.21000196e-01]
+ [4.53462278e-01]
+ [3.64846358e-01]
+ [3.51849265e-01]
+ [3.38828529e-01]
+ [2.91175283e-01]
+ [2.78916038e-01]
+ [2.66529264e-01]
+ [2.82179583e-01]
+ [2.73222500e-01]
+ [2.64127639e-01]
+ [2.74920507e-01]
+ [2.66598553e-01]
+ [2.58296080e-01]
+ [2.80084784e-01]
+ [2.75681166e-01]
+ [2.71283088e-01]
+ [6.08456975e-01]
+ [5.48116065e-01]
+ [4.88361504e-01]
+ [5.05331193e-01]
+ [4.05484750e-01]
+ [3.07387351e-01]
+ [4.56201861e-01]
+ [4.29848776e-01]
+ [3.88251436e-01]
+ [4.79661462e-01]
+ [6.03248512e-01]
+ [2.68323638e-10]]</t>
         </is>
       </c>
       <c r="E1429" t="inlineStr"/>
@@ -38478,26 +38469,26 @@
       </c>
       <c r="D1433" t="inlineStr">
         <is>
-          <t>[[2.26638786e+10 5.91509018e+12 2.26638786e+10 5.91509018e+12
-  1.53437287e+10 1.33935873e+11]
- [2.05889312e+10 4.26732936e+12 2.05889312e+10 4.26732936e+12
-  1.42237287e+10 1.33935873e+11]
- [1.85139838e+10 2.97354386e+12 1.85139838e+10 2.97354386e+12
-  1.31037287e+10 1.33935873e+11]
- [1.64390365e+10 1.98948675e+12 1.64390365e+10 1.98948675e+12
-  1.19837287e+10 1.33935873e+11]
- [1.43640891e+10 1.27091112e+12 1.43640891e+10 1.27091112e+12
-  1.08637287e+10 1.33935873e+11]
- [1.22891417e+10 7.73570061e+11 1.22891417e+10 7.73570061e+11
-  9.74372865e+09 1.33935873e+11]
- [1.02141943e+10 4.53216655e+11 1.02141943e+10 4.53216655e+11
-  8.62372865e+09 1.33935873e+11]
- [8.13924698e+09 2.65603990e+11 8.13924698e+09 2.65603990e+11
-  7.50372865e+09 1.33935873e+11]
- [6.06429961e+09 1.66485152e+11 6.06429961e+09 1.66485152e+11
-  6.38372865e+09 1.33935873e+11]
- [3.98935224e+09 1.11613227e+11 3.98935224e+09 1.11613227e+11
-  5.26372865e+09 1.33935873e+11]]</t>
+          <t>[[2.25650526e+10 5.88608222e+12 2.25650526e+10 5.88608222e+12
+  1.52133333e+10 1.24226667e+11]
+ [2.04901053e+10 4.24064551e+12 2.04901053e+10 4.24064551e+12
+  1.40933333e+10 1.24226667e+11]
+ [1.84151579e+10 2.94918412e+12 1.84151579e+10 2.94918412e+12
+  1.29733333e+10 1.24226667e+11]
+ [1.63402105e+10 1.96745111e+12 1.63402105e+10 1.96745111e+12
+  1.18533333e+10 1.24226667e+11]
+ [1.42652632e+10 1.25119959e+12 1.42652632e+10 1.25119959e+12
+  1.07333333e+10 1.24226667e+11]
+ [1.21903158e+10 7.56182634e+11 1.21903158e+10 7.56182634e+11
+  9.61333333e+09 1.24226667e+11]
+ [1.01153684e+10 4.38153333e+11 1.01153684e+10 4.38153333e+11
+  8.49333333e+09 1.24226667e+11]
+ [8.04042105e+09 2.52864774e+11 8.04042105e+09 2.52864774e+11
+  7.37333333e+09 1.24226667e+11]
+ [5.96547368e+09 1.56070041e+11 5.96547368e+09 1.56070041e+11
+  6.25333333e+09 1.24226667e+11]
+ [3.89052632e+09 1.03522222e+11 3.89052632e+09 1.03522222e+11
+  5.13333333e+09 1.24226667e+11]]</t>
         </is>
       </c>
       <c r="E1433" t="inlineStr"/>
@@ -43309,7 +43300,7 @@
       <c r="C1593" t="inlineStr"/>
       <c r="D1593" t="inlineStr">
         <is>
-          <t>[-0.02601752]</t>
+          <t>[-0.05041251]</t>
         </is>
       </c>
       <c r="E1593" t="inlineStr">
@@ -43332,7 +43323,7 @@
       <c r="C1594" t="inlineStr"/>
       <c r="D1594" t="inlineStr">
         <is>
-          <t>[-0.15465149]</t>
+          <t>[-0.13469196]</t>
         </is>
       </c>
       <c r="E1594" t="inlineStr">
@@ -43355,7 +43346,7 @@
       <c r="C1595" t="inlineStr"/>
       <c r="D1595" t="inlineStr">
         <is>
-          <t>[1.05873449]</t>
+          <t>[1.05395174]</t>
         </is>
       </c>
       <c r="E1595" t="inlineStr"/>
@@ -43378,7 +43369,7 @@
       </c>
       <c r="D1596" t="inlineStr">
         <is>
-          <t>[28.1097624]</t>
+          <t>[28.23732221]</t>
         </is>
       </c>
       <c r="E1596" t="inlineStr"/>
@@ -43401,9 +43392,9 @@
       </c>
       <c r="D1597" t="inlineStr">
         <is>
-          <t>[1072.58325805 1236.87265147 1355.30471013 1450.32570967 1562.00480257
- 1655.52320666 1736.78099548 1704.1947071  1666.69722919 1625.19033649
- 1412.5622388  1208.62674008 1007.39469272]</t>
+          <t>[1047.13860747 1206.50615946 1321.22697622 1413.18203997 1521.16636429
+ 1611.52120343 1689.9826881  1604.28359226 1515.04957571 1423.35422209
+ 1284.97426625 1147.0849804  1007.39469272]</t>
         </is>
       </c>
       <c r="E1597" t="inlineStr"/>
@@ -43522,9 +43513,9 @@
       </c>
       <c r="D1602" t="inlineStr">
         <is>
-          <t>[1072.58325805 1236.87265147 1355.30471013 1450.32570967 1562.00480257
- 1655.52320666 1736.78099548 1704.1947071  1666.69722919 1625.19033649
- 1412.5622388  1208.62674008 1007.39469272]</t>
+          <t>[1047.13860747 1206.50615946 1321.22697622 1413.18203997 1521.16636429
+ 1611.52120343 1689.9826881  1604.28359226 1515.04957571 1423.35422209
+ 1284.97426625 1147.0849804  1007.39469272]</t>
         </is>
       </c>
       <c r="E1602" t="inlineStr"/>
@@ -43712,9 +43703,9 @@
       </c>
       <c r="D1610" t="inlineStr">
         <is>
-          <t>[-1072.58325805 -1236.87265147 -1355.30471013 -1450.32570967
- -1562.00480257 -1655.52320666 -1736.78099548 -1704.1947071
- -1666.69722919 -1625.19033649 -1412.5622388  -1208.62674008
+          <t>[-1047.13860747 -1206.50615946 -1321.22697622 -1413.18203997
+ -1521.16636429 -1611.52120343 -1689.9826881  -1604.28359226
+ -1515.04957571 -1423.35422209 -1284.97426625 -1147.0849804
  -1007.39469272]</t>
         </is>
       </c>
@@ -43759,7 +43750,7 @@
       <c r="C1612" t="inlineStr"/>
       <c r="D1612" t="inlineStr">
         <is>
-          <t>[191.63060975 359.5223783  902.42346153 702.77959912]</t>
+          <t>[275.         337.82511169 495.77453642 496.35635325]</t>
         </is>
       </c>
       <c r="E1612" t="inlineStr"/>
@@ -43778,7 +43769,7 @@
       <c r="C1613" t="inlineStr"/>
       <c r="D1613" t="inlineStr">
         <is>
-          <t>[1.         1.         0.89119297 0.59807685]</t>
+          <t>[1.         1.         0.80833551 0.67467485]</t>
         </is>
       </c>
       <c r="E1613" t="inlineStr"/>
@@ -43797,7 +43788,7 @@
       <c r="C1614" t="inlineStr"/>
       <c r="D1614" t="inlineStr">
         <is>
-          <t>[1.         1.         0.89119297 0.59807685]</t>
+          <t>[1.         1.         0.80833551 0.67467485]</t>
         </is>
       </c>
       <c r="E1614" t="inlineStr"/>
@@ -43816,7 +43807,7 @@
       <c r="C1615" t="inlineStr"/>
       <c r="D1615" t="inlineStr">
         <is>
-          <t>[0.53301441 0.37672236 0.96699627]</t>
+          <t>[0.81403066 0.61610783 0.74771101]</t>
         </is>
       </c>
       <c r="E1615" t="inlineStr"/>
@@ -43859,9 +43850,8 @@
       </c>
       <c r="D1617" t="inlineStr">
         <is>
-          <t>[5.62755981 5.62755981 5.62755981 5.62755981 5.62755981 5.62755981
- 5.62755981 5.42345379 5.21934776 5.01524173 4.34332782 3.67141391
- 2.9995    ]</t>
+          <t>[5.5       5.5       5.5       5.5       5.5       5.5       5.5
+ 5.1486151 4.7972302 4.4458453 3.9637302 3.4816151 2.9995   ]</t>
         </is>
       </c>
       <c r="E1617" t="inlineStr"/>
@@ -44112,9 +44102,9 @@
       </c>
       <c r="D1628" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963 10.84690757 10.43869552 10.03048346  8.68665564  7.34282782
-  5.999     ]</t>
+          <t>[11.        11.        11.        11.        11.        11.
+ 11.        10.2972302  9.5944604  8.8916906  7.9274604  6.9632302
+  5.999    ]</t>
         </is>
       </c>
       <c r="E1628" t="inlineStr"/>
@@ -44367,7 +44357,7 @@
       </c>
       <c r="D1639" t="inlineStr">
         <is>
-          <t>[17242.14756644  9212.8265823   3287.36769359  2393.14913963]</t>
+          <t>[11494.73063456  9363.41403934  5220.96232074  2922.324968  ]</t>
         </is>
       </c>
       <c r="E1639" t="inlineStr">
@@ -44394,7 +44384,7 @@
       </c>
       <c r="D1640" t="inlineStr">
         <is>
-          <t>[270189.87038027 145073.20306884  46441.65815749  19161.2090751 ]</t>
+          <t>[172597.97837017 140785.68752     64297.18988713  20167.78879459]</t>
         </is>
       </c>
       <c r="E1640" t="inlineStr">
@@ -44421,7 +44411,7 @@
       </c>
       <c r="D1641" t="inlineStr">
         <is>
-          <t>[270189.87038027 145073.20306884  46441.65815749  19161.2090751 ]</t>
+          <t>[172597.97837017 140785.68752     64297.18988713  20167.78879459]</t>
         </is>
       </c>
       <c r="E1641" t="inlineStr">
@@ -44448,7 +44438,7 @@
       </c>
       <c r="D1642" t="inlineStr">
         <is>
-          <t>[6.47471532e+12 3.47647264e+12 1.11290818e+12 4.59171078e+11]</t>
+          <t>[4.13606466e+12 3.37372843e+12 1.54079056e+12 4.83292327e+11]</t>
         </is>
       </c>
       <c r="E1642" t="inlineStr">
@@ -44475,7 +44465,7 @@
       </c>
       <c r="D1643" t="inlineStr">
         <is>
-          <t>[6.47471532e+12 3.47647264e+12 1.11290818e+12 4.59171078e+11]</t>
+          <t>[4.13606466e+12 3.37372843e+12 1.54079056e+12 4.83292327e+11]</t>
         </is>
       </c>
       <c r="E1643" t="inlineStr">
@@ -44502,7 +44492,7 @@
       </c>
       <c r="D1644" t="inlineStr">
         <is>
-          <t>[5.13444925e+12 2.75684280e+12 8.82536183e+11 3.64122665e+11]</t>
+          <t>[3.27989928e+12 2.67536665e+12 1.22184691e+12 3.83250815e+11]</t>
         </is>
       </c>
       <c r="E1644" t="inlineStr">
@@ -44529,7 +44519,7 @@
       </c>
       <c r="D1645" t="inlineStr">
         <is>
-          <t>[4.13183503e+11 2.20772264e+11 7.87770835e+10 5.73484098e+10]</t>
+          <t>[2.75454844e+11 2.24380878e+11 1.25112924e+11 7.00293546e+10]</t>
         </is>
       </c>
       <c r="E1645" t="inlineStr">
@@ -44637,10 +44627,10 @@
       </c>
       <c r="D1649" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.48404643 0.17383188 0.17383188 0.        ]
- [0.         0.         0.9059109  0.32375114 0.32375114 0.        ]
- [0.         0.         2.5388094  0.95630545 0.95630545 0.        ]
- [0.         0.         3.48745503 1.74548052 1.74548052 0.        ]]</t>
+          <t>[[0.         0.         0.72607182 0.26595329 0.26595329 0.        ]
+ [0.         0.         0.89134155 0.32604877 0.32604877 0.        ]
+ [0.         0.         1.59855588 0.64550274 0.64550274 0.        ]
+ [0.         0.         2.85594521 1.54054697 1.54054697 0.        ]]</t>
         </is>
       </c>
       <c r="E1649" t="inlineStr"/>
@@ -44663,10 +44653,10 @@
       </c>
       <c r="D1650" t="inlineStr">
         <is>
-          <t>[[0.79532806 0.79532806 0.         0.         0.         0.08691594]
- [1.4901297  1.4901297  0.         0.         0.         0.16187557]
- [4.17918724 4.17918724 0.         0.         0.         0.47815273]
- [5.73997406 5.73997406 0.         0.         0.         0.87274026]]</t>
+          <t>[[1.19385393 1.19385393 0.         0.         0.         0.13297664]
+ [1.4660472  1.4660472  0.         0.         0.         0.16302438]
+ [2.63035663 2.63035663 0.         0.         0.         0.32275137]
+ [4.69934297 4.69934297 0.         0.         0.         0.77027349]]</t>
         </is>
       </c>
       <c r="E1650" t="inlineStr"/>
@@ -44689,7 +44679,7 @@
       </c>
       <c r="D1651" t="inlineStr">
         <is>
-          <t>[594.78755771]</t>
+          <t>[595.01656515]</t>
         </is>
       </c>
       <c r="E1651" t="inlineStr"/>
@@ -44712,7 +44702,7 @@
       </c>
       <c r="D1652" t="inlineStr">
         <is>
-          <t>[3348241.93360998]</t>
+          <t>[3061039.46302408]</t>
         </is>
       </c>
       <c r="E1652" t="inlineStr"/>
@@ -44735,8 +44725,8 @@
       </c>
       <c r="D1653" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.0510136  10.64280154 10.23458949  9.35856955  8.01474173  6.67091391]</t>
+          <t>[11.        11.        11.        11.        11.        11.
+ 10.6486151  9.9458453  9.2430755  8.4095755  7.4453453  6.4811151]</t>
         </is>
       </c>
       <c r="E1653" t="inlineStr"/>
@@ -44759,8 +44749,8 @@
       </c>
       <c r="D1654" t="inlineStr">
         <is>
-          <t>[0.06284475 0.06284475 0.06284475 0.03349716 0.03349716 0.03349716
- 0.01261913 0.01261913 0.01261913 0.01220265 0.01220265 0.01220265]</t>
+          <t>[0.0428     0.0428     0.0428     0.03484051 0.03484051 0.03484051
+ 0.02146551 0.02146551 0.02146551 0.01605    0.01605    0.01605   ]</t>
         </is>
       </c>
       <c r="E1654" t="inlineStr"/>
@@ -44807,18 +44797,18 @@
       </c>
       <c r="D1656" t="inlineStr">
         <is>
-          <t>[[53900924.90597229]
- [49221052.87218474]
- [44528994.11406697]
- [69255000.1577231 ]
- [55584141.14869843]
- [41895046.33825616]
- [91215545.27615055]
- [73279596.29479946]
- [51983903.44461686]
- [33687070.88597772]
- [ 5176266.92847938]
- [-1560780.76589353]]</t>
+          <t>[[83411619.21557543]
+ [75754746.62343739]
+ [68064738.2813413 ]
+ [69614402.90972264]
+ [55753527.63404994]
+ [41878088.01814727]
+ [57775590.42042396]
+ [49937247.79886533]
+ [38742733.34591479]
+ [33560786.26278737]
+ [ 5927638.01046708]
+ [ -618125.2340259 ]]</t>
         </is>
       </c>
       <c r="E1656" t="inlineStr"/>
@@ -44841,18 +44831,18 @@
       </c>
       <c r="D1657" t="inlineStr">
         <is>
-          <t>[[ 2840637.273138  ]
- [ 2841132.21426226]
- [ 2841582.42849599]
- [ 5318968.60513742]
- [ 5320281.49405007]
- [ 5321345.479972  ]
- [14398655.71481003]
- [15054535.43367106]
- [15771156.29732038]
- [18154328.60797033]
- [21929183.97809885]
- [27580494.80087505]]</t>
+          <t>[[ 4278631.76460014]
+ [ 4279413.18633901]
+ [ 4280124.47102449]
+ [ 5256089.7004914 ]
+ [ 5257447.45829143]
+ [ 5258547.24678303]
+ [ 8853072.47080105]
+ [ 9603579.19126539]
+ [10488662.59662325]
+ [15724932.80370764]
+ [18277830.55023002]
+ [21767884.93499261]]</t>
         </is>
       </c>
       <c r="E1657" t="inlineStr"/>
@@ -44875,18 +44865,18 @@
       </c>
       <c r="D1658" t="inlineStr">
         <is>
-          <t>[[ -13890.32189046]
- [ -15518.43894088]
- [ -16724.59344668]
- [ -33613.78289662]
- [ -35727.92669634]
- [ -37503.27617968]
- [-101211.24412637]
- [ -99622.13914396]
- [ -97734.64411642]
- [ -94082.67829988]
- [ -81863.05688052]
- [ -69152.31642072]]</t>
+          <t>[[-19965.04235633]
+ [-22305.19157166]
+ [-24038.83935797]
+ [-31579.52435799]
+ [-33565.72316897]
+ [-35233.63101582]
+ [-57286.54836619]
+ [-54680.73532162]
+ [-51836.99643821]
+ [-64240.30881507]
+ [-57783.64799092]
+ [-51048.97700914]]</t>
         </is>
       </c>
       <c r="E1658" t="inlineStr"/>
@@ -44939,18 +44929,18 @@
       <c r="C1660" t="inlineStr"/>
       <c r="D1660" t="inlineStr">
         <is>
-          <t>[[0.27536679]
- [0.25167289]
- [0.2279388 ]
- [0.3554854 ]
- [0.28670315]
- [0.21830795]
- [0.48128851]
- [0.39590533]
- [0.29894709]
- [0.23459287]
- [0.19502966]
- [0.24313225]]</t>
+          <t>[[0.42603326]
+ [0.38725781]
+ [0.34835082]
+ [0.35722041]
+ [0.28745809]
+ [0.21809984]
+ [0.30421797]
+ [0.26788265]
+ [0.21779343]
+ [0.21999584]
+ [0.1638695 ]
+ [0.19181776]]</t>
         </is>
       </c>
       <c r="E1660" t="inlineStr"/>
@@ -44969,18 +44959,18 @@
       <c r="C1661" t="inlineStr"/>
       <c r="D1661" t="inlineStr">
         <is>
-          <t>[[0.06020267]
- [0.05587292]
- [0.05163146]
- [0.17936229]
- [0.16978697]
- [0.16027539]
- [1.18520168]
- [1.17104139]
- [1.15882979]
- [1.22306153]
- [1.24663292]
- [1.29686805]]</t>
+          <t>[[0.11967167]
+ [0.11425904]
+ [0.10886816]
+ [0.17040489]
+ [0.16137885]
+ [0.15242169]
+ [0.36710834]
+ [0.36324333]
+ [0.36142347]
+ [0.67691281]
+ [0.69048834]
+ [0.71474588]]</t>
         </is>
       </c>
       <c r="E1661" t="inlineStr"/>
@@ -44999,18 +44989,18 @@
       <c r="C1662" t="inlineStr"/>
       <c r="D1662" t="inlineStr">
         <is>
-          <t>[[0.9637575 ]
- [0.8716326 ]
- [0.77972254]
- [1.24196333]
- [1.0123912 ]
- [0.78407043]
- [1.84845279]
- [1.59848939]
- [1.31260715]
- [1.14825439]
- [0.87592691]
- [1.03759377]]</t>
+          <t>[[1.27614264]
+ [1.15957979]
+ [1.04316543]
+ [1.08539967]
+ [0.88542963]
+ [0.68666305]
+ [1.00745983]
+ [0.93956226]
+ [0.83067926]
+ [0.96283103]
+ [0.68303973]
+ [0.73330543]]</t>
         </is>
       </c>
       <c r="E1662" t="inlineStr"/>
@@ -45126,7 +45116,7 @@
       </c>
       <c r="D1667" t="inlineStr">
         <is>
-          <t>[0.3062325]</t>
+          <t>[0.28405524]</t>
         </is>
       </c>
       <c r="E1667" t="inlineStr"/>
@@ -45149,7 +45139,7 @@
       </c>
       <c r="D1668" t="inlineStr">
         <is>
-          <t>[0.3107213]</t>
+          <t>[0.28715909]</t>
         </is>
       </c>
       <c r="E1668" t="inlineStr"/>
@@ -45172,7 +45162,7 @@
       </c>
       <c r="D1669" t="inlineStr">
         <is>
-          <t>[0.3062325  0.3107213  0.8372461  1.03901095 1.21834295 3.05719066]</t>
+          <t>[0.28405524 0.28715909 0.87603844 1.05098948 1.2270013  2.89396168]</t>
         </is>
       </c>
       <c r="E1669" t="inlineStr"/>
@@ -45191,9 +45181,12 @@
       <c r="C1670" t="inlineStr"/>
       <c r="D1670" t="inlineStr">
         <is>
-          <t>[[   0.73728983    0.89534425   -2.4840766     3.09083656   -1.23939404]
- [  12.09282424   22.81720258  -92.5990729   119.14420215  -60.45515607]
- [ -68.21782901  187.6526733  -370.82613286  460.41851035 -208.02722178]]</t>
+          <t>[[ 1.18814871e+00  1.62920053e-01 -1.46655651e+00  1.68631065e+00
+  -5.70822903e-01]
+ [ 4.39658570e+01 -1.08342267e-01 -1.52175095e+02  2.33643002e+02
+  -1.24325421e+02]
+ [-6.86667125e+01  2.03780258e+02 -3.49145332e+02  3.71466941e+02
+  -1.56435153e+02]]</t>
         </is>
       </c>
       <c r="E1670" t="inlineStr"/>
@@ -45212,9 +45205,12 @@
       <c r="C1671" t="inlineStr"/>
       <c r="D1671" t="inlineStr">
         <is>
-          <t>[[   0.72932624    0.85121179   -2.33535893    2.90039598   -1.14557509]
- [   6.49329685   16.52202243  -61.5456032    78.97917664  -39.44889272]
- [ -67.04373484  181.78669742 -357.98494933  444.53503031 -200.29304356]]</t>
+          <t>[[ 1.17754761e+00  1.41354829e-01 -1.36288939e+00  1.54422265e+00
+  -5.00235701e-01]
+ [ 1.75974250e+01  7.44380111e+00 -8.18133214e+01  1.19385965e+02
+  -6.16138697e+01]
+ [-6.64255502e+01  1.93992299e+02 -3.29809118e+02  3.49774498e+02
+  -1.46532128e+02]]</t>
         </is>
       </c>
       <c r="E1671" t="inlineStr"/>
@@ -45233,7 +45229,7 @@
       <c r="C1672" t="inlineStr"/>
       <c r="D1672" t="inlineStr">
         <is>
-          <t>[[  3.90260683 -15.43870201  28.36556919 -22.41859807   6.58912404]
+          <t>[[  6.40458764 -23.41123312  39.21043446 -30.28829006   9.08450107]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -45258,7 +45254,7 @@
       </c>
       <c r="D1673" t="inlineStr">
         <is>
-          <t>[0.3107213  1.21834295 3.09749014]</t>
+          <t>[0.28715909 1.2270013  2.95301163]</t>
         </is>
       </c>
       <c r="E1673" t="inlineStr"/>
@@ -45281,7 +45277,7 @@
       </c>
       <c r="D1674" t="inlineStr">
         <is>
-          <t>[0.3062325  1.03901095 3.05719066]</t>
+          <t>[0.28405524 1.05098948 2.89396168]</t>
         </is>
       </c>
       <c r="E1674" t="inlineStr"/>
@@ -45304,7 +45300,7 @@
       </c>
       <c r="D1675" t="inlineStr">
         <is>
-          <t>[4.72751885 0.         0.        ]</t>
+          <t>[5.0535922 0.        0.       ]</t>
         </is>
       </c>
       <c r="E1675" t="inlineStr"/>
@@ -45328,18 +45324,18 @@
       <c r="D1676" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00425754]
- [0.01590114]
- [0.03426245]
- [0.07629133]
- [0.13766131]
- [0.21471237]
- [0.27153117]
- [0.33881581]
- [0.41520713]
- [0.49384569]
- [0.578926  ]
- [0.66795295]]</t>
+ [0.00666545]
+ [0.02493722]
+ [0.05376582]
+ [0.11341875]
+ [0.19306851]
+ [0.28892287]
+ [0.35464993]
+ [0.42763352]
+ [0.50757333]
+ [0.58924998]
+ [0.67726652]
+ [0.76875173]]</t>
         </is>
       </c>
       <c r="E1676" t="inlineStr"/>
@@ -45362,7 +45358,7 @@
       </c>
       <c r="D1677" t="inlineStr">
         <is>
-          <t>[0.66795295]</t>
+          <t>[0.76875173]</t>
         </is>
       </c>
       <c r="E1677" t="inlineStr"/>
@@ -45385,18 +45381,18 @@
       </c>
       <c r="D1678" t="inlineStr">
         <is>
-          <t>[[-17085292.39455575]
- [-15106787.33230787]
- [-13127055.2158671 ]
- [-11603469.98980056]
- [-10078199.62862565]
- [ -8551493.95693837]
- [ -8201321.42828345]
- [ -7863816.04683115]
- [ -7539021.76907288]
- [ -7270408.94491523]
- [ -7040321.41646089]
- [ -6848706.78611817]]</t>
+          <t>[[-16551356.5193535 ]
+ [-15227760.3437843 ]
+ [-13902976.07277951]
+ [-12355531.9096035 ]
+ [-10806458.9323259 ]
+ [ -9255999.58933735]
+ [ -8694040.31308275]
+ [ -8169026.9684803 ]
+ [ -7680989.10045143]
+ [ -7367738.76107827]
+ [ -7090309.31507802]
+ [ -6848706.78611806]]</t>
         </is>
       </c>
       <c r="E1678" t="inlineStr"/>
@@ -45419,18 +45415,18 @@
       </c>
       <c r="D1679" t="inlineStr">
         <is>
-          <t>[[2938075.08386145]
- [2938704.53375173]
- [2939277.75256776]
- [2939643.07625272]
- [2940534.36767056]
- [2941258.63638136]
- [2938712.69692815]
- [2938854.10871117]
- [2938959.83997551]
- [2938851.44787888]
- [2938768.25302213]
- [2938632.92786664]]</t>
+          <t>[[2938092.09435215]
+ [2938753.93111957]
+ [2939357.02824746]
+ [2940495.25183675]
+ [2941431.85627985]
+ [2942192.50971769]
+ [2939568.94631321]
+ [2939638.45394228]
+ [2939673.54139642]
+ [2939091.13390703]
+ [2939028.46071783]
+ [2938904.00079071]]</t>
         </is>
       </c>
       <c r="E1679" t="inlineStr"/>
@@ -45453,18 +45449,18 @@
       </c>
       <c r="D1680" t="inlineStr">
         <is>
-          <t>[[8739.85634178]
- [8742.96692052]
- [8745.91105282]
- [8748.02673807]
- [8753.21436704]
- [8757.90358529]
- [8744.01948481]
- [8745.32379041]
- [8746.56087023]
- [8746.48319686]
- [8746.82819596]
- [8747.31396616]]</t>
+          <t>[[8739.93771824]
+ [8743.20691112]
+ [8746.30258971]
+ [8752.32076314]
+ [8757.76588145]
+ [8762.68341997]
+ [8748.73296967]
+ [8749.67066251]
+ [8750.58811155]
+ [8747.64698476]
+ [8748.39198795]
+ [8749.20084829]]</t>
         </is>
       </c>
       <c r="E1680" t="inlineStr"/>
@@ -45487,18 +45483,18 @@
       </c>
       <c r="D1681" t="inlineStr">
         <is>
-          <t>[[-1874702.61585907]
- [-1772259.34942906]
- [-1669406.4733067 ]
- [-1521620.92837957]
- [-1372850.71549001]
- [-1223556.08861981]
- [-1133722.31383265]
- [-1043277.01178898]
- [ -952248.53018922]
- [ -866732.05049261]
- [ -780469.3497274 ]
- [ -693050.81504679]]</t>
+          <t>[[-1880905.21151123]
+ [-1777960.20179612]
+ [-1674307.18960381]
+ [-1525121.14197413]
+ [-1374962.28360269]
+ [-1224320.86752423]
+ [-1133868.71648534]
+ [-1043094.18892659]
+ [ -951973.32142001]
+ [ -866472.24826492]
+ [ -780246.19467786]
+ [ -693050.89762387]]</t>
         </is>
       </c>
       <c r="E1681" t="inlineStr"/>
@@ -45521,18 +45517,18 @@
       </c>
       <c r="D1682" t="inlineStr">
         <is>
-          <t>[[ 3.79350771e+08]
- [ 3.45035217e+08]
- [ 3.10641218e+08]
- [ 2.61352369e+08]
- [ 2.11902090e+08]
- [ 1.62387381e+08]
- [ 1.32658016e+08]
- [ 1.02863409e+08]
- [ 7.30198965e+07]
- [ 4.51337617e+07]
- [ 1.72219380e+07]
- [-1.06981121e+07]]</t>
+          <t>[[ 3.80768634e+08]
+ [ 3.46349591e+08]
+ [ 3.11793977e+08]
+ [ 2.62227533e+08]
+ [ 2.12505235e+08]
+ [ 1.62731207e+08]
+ [ 1.32879326e+08]
+ [ 1.03002029e+08]
+ [ 7.31062178e+07]
+ [ 4.51855761e+07]
+ [ 1.72438283e+07]
+ [-1.06981119e+07]]</t>
         </is>
       </c>
       <c r="E1682" t="inlineStr"/>
@@ -45555,18 +45551,18 @@
       </c>
       <c r="D1683" t="inlineStr">
         <is>
-          <t>[[6203302.97134669]
- [6203233.00718083]
- [6203162.9870756 ]
- [6203497.82949682]
- [6203396.9075256 ]
- [6203295.87722049]
- [6204157.14503212]
- [6204150.84063862]
- [6204146.47888742]
- [6204274.47585323]
- [6204482.43070916]
- [6204786.14736651]]</t>
+          <t>[[6203577.19671978]
+ [6203507.0084488 ]
+ [6203436.73811652]
+ [6203534.4161937 ]
+ [6203433.56112533]
+ [6203332.60318305]
+ [6203638.65950809]
+ [6203644.51073971]
+ [6203655.90139872]
+ [6204048.10015678]
+ [6204166.95022944]
+ [6204329.85111204]]</t>
         </is>
       </c>
       <c r="E1683" t="inlineStr"/>
@@ -45591,7 +45587,7 @@
         <is>
           <t>[[ 2.93771262e+06]
  [ 8.73815973e+03]
- [-1.90621722e+07]]</t>
+ [-1.78733771e+07]]</t>
         </is>
       </c>
       <c r="E1684" t="inlineStr"/>
@@ -45614,8 +45610,8 @@
       </c>
       <c r="D1685" t="inlineStr">
         <is>
-          <t>[[-1.97655841e+06]
- [ 4.13547861e+08]
+          <t>[[-1.98293919e+06]
+ [ 4.15003668e+08]
  [ 6.20262840e+06]]</t>
         </is>
       </c>
@@ -45639,7 +45635,7 @@
       </c>
       <c r="D1686" t="inlineStr">
         <is>
-          <t>[2172516.75124535]</t>
+          <t>[2052263.78838131]</t>
         </is>
       </c>
       <c r="E1686" t="inlineStr"/>
@@ -45662,7 +45658,7 @@
       </c>
       <c r="D1687" t="inlineStr">
         <is>
-          <t>[-2.95028792e+00 -4.18477927e-02  9.65095170e+01]</t>
+          <t>[-3.12316086e+00 -4.42998757e-02  1.04382254e+02]</t>
         </is>
       </c>
       <c r="E1687" t="inlineStr"/>
@@ -45685,7 +45681,7 @@
       </c>
       <c r="D1688" t="inlineStr">
         <is>
-          <t>[2.79468096e+10 2.78158767e+10 3.03492704e+08 5.41253437e+02
+          <t>[2.87019519e+10 2.85710190e+10 2.97397220e+08 5.41253437e+02
  1.42357768e+07 1.69892134e+05]</t>
         </is>
       </c>
@@ -51112,7 +51108,7 @@
       </c>
       <c r="D1860" t="inlineStr">
         <is>
-          <t>[2.73425453]</t>
+          <t>[2.77192347]</t>
         </is>
       </c>
       <c r="E1860" t="inlineStr"/>
@@ -53951,8 +53947,7 @@
       </c>
       <c r="D1981" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.25511963 11.25511963
- 11.25511963]</t>
+          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
         </is>
       </c>
       <c r="E1981" t="inlineStr">
@@ -53979,7 +53974,8 @@
       </c>
       <c r="D1982" t="inlineStr">
         <is>
-          <t>[[0.077 0.077 0.077 0.077 0.077 0.077 0.077]]</t>
+          <t>[[0.077      0.09496795 0.13       0.12091547 0.10898433 0.10498077
+  0.08938954]]</t>
         </is>
       </c>
       <c r="E1982" t="inlineStr">
@@ -54937,7 +54933,7 @@
       </c>
       <c r="D2018" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 10.03048346  5.999     ]</t>
+          <t>[11.        11.        11.         8.8916906  5.999    ]</t>
         </is>
       </c>
       <c r="E2018" t="inlineStr">
@@ -54987,7 +54983,7 @@
       </c>
       <c r="D2020" t="inlineStr">
         <is>
-          <t>[[0.06752031 0.04994652 0.012665   0.01092216 0.01188653]]</t>
+          <t>[[0.04       0.04       0.02512245 0.015      0.015     ]]</t>
         </is>
       </c>
       <c r="E2020" t="inlineStr">

--- a/examples/99_tower_gbf/15mw/40m/outputs_mono/mono_turb_output.xlsx
+++ b/examples/99_tower_gbf/15mw/40m/outputs_mono/mono_turb_output.xlsx
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[11.]</t>
+          <t>[8.9902061]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[2.54733869]</t>
+          <t>[2.76572213]</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[11.         11.          9.56803396  5.999       5.999     ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -4140,8 +4140,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[[0.09235827 0.09171307 0.10432033 0.11124116 0.10590908 0.11588641
-  0.11725302]]</t>
+          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -4164,7 +4163,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
+          <t>[8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061]</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -4576,7 +4575,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[11.]</t>
+          <t>[8.]</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -4599,7 +4598,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[11.]</t>
+          <t>[8.9902061]</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -6453,7 +6452,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[[0.055      0.055      0.04784017 0.035      0.035     ]]</t>
+          <t>[[0.06191185 0.025      0.025      0.025      0.025     ]]</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -6476,7 +6475,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[11.         11.          9.56803396  5.999       5.999     ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -9843,7 +9842,7 @@
  [  0.   0.  50.]
  [  0.   0. 100.]
  [  0.   0. 130.]
- [  0.   0. 158.]]</t>
+ [  0.   0. 150.]]</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -10160,7 +10159,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>[[  0.   0. -70.]
+          <t>[[  0.   0. -85.]
  [  0.   0. -40.]
  [  0.   0. -25.]
  [  0.   0. -10.]
@@ -10392,7 +10391,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>[5.999]</t>
+          <t>[6.]</t>
         </is>
       </c>
       <c r="E373" t="inlineStr"/>
@@ -13980,7 +13979,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[1164.03742642]</t>
+          <t>[1039.89282904]</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -14003,7 +14002,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[3469.80860308]</t>
+          <t>[3299.86085731]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -14103,7 +14102,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[1164.03742642]</t>
+          <t>[1039.89282904]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -14184,7 +14183,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[1640.17115492]</t>
+          <t>[837.38585435]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -14238,7 +14237,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>[654.74691929]</t>
+          <t>[654.77302046]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -14292,7 +14291,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[85.]</t>
+          <t>[100.]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -14319,7 +14318,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>[2564.66564632]</t>
+          <t>[1737.197911]</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -14346,7 +14345,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>[6362278.31558027]</t>
+          <t>[4525651.55909389]</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -14419,7 +14418,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>[89.06196222]</t>
+          <t>[85.36260837]</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
@@ -14465,10 +14464,10 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[   0.            0.            0.            0.            0.
-    0.            0.            0.            0.            0.
-    0.            0.            0.          729.034078    860.2225698
-  948.63159706  984.81958944 1017.40298746 1047.13901865]</t>
+          <t>[  0.           0.           0.           0.           0.
+   0.           0.           0.           0.           0.
+   0.           0.           0.         599.90550361 706.26986106
+ 777.10854538 805.91904803 831.77086345 855.29172331]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14563,7 +14562,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>[-70.         -60.         -50.         -40.         -35.
+          <t>[-85.         -70.         -55.         -40.         -35.
  -30.         -25.         -20.         -15.         -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -14612,11 +14611,11 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          30974.55430283
-  31871.91514184  34620.99320849  39398.548849    46516.76572879
-  56446.05467055  69875.24006445  81254.77857179  95051.02579361
- 111836.96771038      0.              0.              0.
-      0.              0.              0.        ]</t>
+          <t>[    0.             0.             0.         20768.78630014
+ 21373.19994564 23230.01032265 26477.60742298 31328.2414679
+ 38112.97318345 47307.98900671 55106.41653762 64559.6469447
+ 76048.53143189     0.             0.             0.
+     0.             0.             0.        ]</t>
         </is>
       </c>
       <c r="E557" t="inlineStr"/>
@@ -14712,7 +14711,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>[-70.         -60.         -50.         -40.         -35.
+          <t>[-85.         -70.         -55.         -40.         -35.
  -30.         -25.         -20.         -15.         -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -14761,7 +14760,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>[-70.         -60.         -50.         -40.         -35.
+          <t>[-85.         -70.         -55.         -40.         -35.
  -30.         -25.         -20.         -15.         -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -14866,8 +14865,9 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11.
- 11.]</t>
+          <t>[8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061
+ 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061
+ 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061]</t>
         </is>
       </c>
       <c r="E567" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[  0.   0. -70.]</t>
+          <t>[  0.   0. -85.]</t>
         </is>
       </c>
       <c r="E571" t="inlineStr"/>
@@ -15008,9 +15008,9 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>[0.         0.11764706 0.23529412 0.35294118 0.41176471 0.47058824
- 0.52941176 0.58823529 0.64705882 0.70588235 0.74509804 0.78431373
- 0.82352941 0.8627451  0.90196078 0.94117647 0.96078431 0.98039216
+          <t>[0.         0.15       0.3        0.45       0.5        0.55
+ 0.6        0.65       0.7        0.75       0.78333333 0.81666667
+ 0.85       0.88333333 0.91666667 0.95       0.96666667 0.98333333
  1.        ]</t>
         </is>
       </c>
@@ -15034,11 +15034,11 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          30974.55430283
-  31871.91514184  34620.99320849  39398.548849    46516.76572879
-  56446.05467055  69875.24006445  81254.77857179  95051.02579361
- 111836.96771038    729.034078      860.2225698     948.63159706
-    984.81958944   1017.40298746   1047.13901865]</t>
+          <t>[    0.             0.             0.         20768.78630014
+ 21373.19994564 23230.01032265 26477.60742298 31328.2414679
+ 38112.97318345 47307.98900671 55106.41653762 64559.6469447
+ 76048.53143189   599.90550361   706.26986106   777.10854538
+   805.91904803   831.77086345   855.29172331]</t>
         </is>
       </c>
       <c r="E574" t="inlineStr"/>
@@ -15180,11 +15180,11 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -30974.55430283
-  -31871.91514184  -34620.99320849  -39398.548849    -46516.76572879
-  -56446.05467055  -69875.24006445  -81254.77857179  -95051.02579361
- -111836.96771038    -729.034078      -860.2225698     -948.63159706
-    -984.81958944   -1017.40298746   -1047.13901865]</t>
+          <t>[     0.              0.              0.         -20768.78630014
+ -21373.19994564 -23230.01032265 -26477.60742298 -31328.2414679
+ -38112.97318345 -47307.98900671 -55106.41653762 -64559.6469447
+ -76048.53143189   -599.90550361   -706.26986106   -777.10854538
+   -805.91904803   -831.77086345   -855.29172331]</t>
         </is>
       </c>
       <c r="E580" t="inlineStr"/>
@@ -15234,8 +15234,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[-30.         -26.66666667 -23.33333333 -20.         -16.66666667
- -13.33333333 -10.          -6.66666667  -3.33333333  -0.        ]</t>
+          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -15258,26 +15257,26 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>[[2.25650526e+10 5.88608222e+12 2.25650526e+10 5.88608222e+12
-  1.52133333e+10 1.24226667e+11]
- [2.04901053e+10 4.24064551e+12 2.04901053e+10 4.24064551e+12
-  1.40933333e+10 1.24226667e+11]
- [1.84151579e+10 2.94918412e+12 1.84151579e+10 2.94918412e+12
-  1.29733333e+10 1.24226667e+11]
- [1.63402105e+10 1.96745111e+12 1.63402105e+10 1.96745111e+12
-  1.18533333e+10 1.24226667e+11]
- [1.42652632e+10 1.25119959e+12 1.42652632e+10 1.25119959e+12
-  1.07333333e+10 1.24226667e+11]
- [1.21903158e+10 7.56182634e+11 1.21903158e+10 7.56182634e+11
-  9.61333333e+09 1.24226667e+11]
- [1.01153684e+10 4.38153333e+11 1.01153684e+10 4.38153333e+11
-  8.49333333e+09 1.24226667e+11]
- [8.04042105e+09 2.52864774e+11 8.04042105e+09 2.52864774e+11
-  7.37333333e+09 1.24226667e+11]
- [5.96547368e+09 1.56070041e+11 5.96547368e+09 1.56070041e+11
-  6.25333333e+09 1.24226667e+11]
- [3.89052632e+09 1.03522222e+11 3.89052632e+09 1.03522222e+11
-  5.13333333e+09 1.24226667e+11]]</t>
+          <t>[[3.11914834e+10 1.86078671e+13 3.11914834e+10 1.86078671e+13
+  1.93154295e+10 6.78181160e+10]
+ [2.80790624e+10 1.31617169e+13 2.80790624e+10 1.31617169e+13
+  1.76354295e+10 6.78181160e+10]
+ [2.49666413e+10 8.91023330e+12 2.49666413e+10 8.91023330e+12
+  1.59554295e+10 6.78181160e+10]
+ [2.18542203e+10 5.70408308e+12 2.18542203e+10 5.70408308e+12
+  1.42754295e+10 6.78181160e+10]
+ [1.87417992e+10 3.39393286e+12 1.87417992e+10 3.39393286e+12
+  1.25954295e+10 6.78181160e+10]
+ [1.56293782e+10 1.83044931e+12 1.56293782e+10 1.83044931e+12
+  1.09154295e+10 6.78181160e+10]
+ [1.25169571e+10 8.64299090e+11 1.25169571e+10 8.64299090e+11
+  9.23542951e+09 6.78181160e+10]
+ [9.40453605e+09 3.46148870e+11 9.40453605e+09 3.46148870e+11
+  7.55542951e+09 6.78181160e+10]
+ [6.29211500e+09 1.26665317e+11 6.29211500e+09 1.26665317e+11
+  5.87542951e+09 6.78181160e+10]
+ [3.17969395e+09 5.65150966e+10 3.17969395e+09 5.65150966e+10
+  4.19542951e+09 6.78181160e+10]]</t>
         </is>
       </c>
       <c r="E583" t="inlineStr"/>
@@ -15300,9 +15299,9 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>[[  0.           0.         -70.        ]
- [  0.           0.         -60.        ]
- [  0.           0.         -50.        ]
+          <t>[[  0.           0.         -85.        ]
+ [  0.           0.         -70.        ]
+ [  0.           0.         -55.        ]
  [  0.           0.         -40.        ]
  [  0.           0.         -35.        ]
  [  0.           0.         -30.        ]
@@ -15341,9 +15340,9 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>[3.37468731 3.37468731 3.37468731 3.59202411 3.59202411 3.59202411
- 3.94631012 3.94631012 3.94631012 3.97510563 3.97510563 3.97510563
- 4.05927478 4.05927478 4.05927478 4.26466767 4.26466767 4.26466767]</t>
+          <t>[2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168
+ 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168
+ 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168]</t>
         </is>
       </c>
       <c r="E585" t="inlineStr"/>
@@ -15366,9 +15365,9 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>[1.92231659 1.92231659 1.92231659 2.04664209 2.04664209 2.04664209
- 2.24945144 2.24945144 2.24945144 2.26594316 2.26594316 2.26594316
- 2.31415522 2.31415522 2.31415522 2.43184703 2.43184703 2.43184703]</t>
+          <t>[1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
+ 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
+ 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759]</t>
         </is>
       </c>
       <c r="E586" t="inlineStr"/>
@@ -15391,9 +15390,9 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>[1.92231659 1.92231659 1.92231659 2.04664209 2.04664209 2.04664209
- 2.24945144 2.24945144 2.24945144 2.26594316 2.26594316 2.26594316
- 2.31415522 2.31415522 2.31415522 2.43184703 2.43184703 2.43184703]</t>
+          <t>[1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
+ 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
+ 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759]</t>
         </is>
       </c>
       <c r="E587" t="inlineStr"/>
@@ -15416,9 +15415,9 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>[50.19516507 50.19516507 50.19516507 53.36977652 53.36977652 53.36977652
- 58.5297266  58.5297266  58.5297266  58.94829452 58.94829452 58.94829452
- 60.17105941 60.17105941 60.17105941 63.15047553 63.15047553 63.15047553]</t>
+          <t>[20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
+ 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
+ 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286]</t>
         </is>
       </c>
       <c r="E588" t="inlineStr"/>
@@ -15441,9 +15440,9 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>[50.19516507 50.19516507 50.19516507 53.36977652 53.36977652 53.36977652
- 58.5297266  58.5297266  58.5297266  58.94829452 58.94829452 58.94829452
- 60.17105941 60.17105941 60.17105941 63.15047553 63.15047553 63.15047553]</t>
+          <t>[20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
+ 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
+ 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286]</t>
         </is>
       </c>
       <c r="E589" t="inlineStr"/>
@@ -15466,10 +15465,9 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>[100.39033013 100.39033013 100.39033013 106.73955304 106.73955304
- 106.73955304 117.0594532  117.0594532  117.0594532  117.89658903
- 117.89658903 117.89658903 120.34211883 120.34211883 120.34211883
- 126.30095107 126.30095107 126.30095107]</t>
+          <t>[41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572
+ 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572
+ 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572]</t>
         </is>
       </c>
       <c r="E590" t="inlineStr"/>
@@ -15565,9 +15563,8 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[0.09203567 0.09203567 0.09203567 0.0980167  0.0980167  0.0980167
- 0.10778075 0.10778075 0.10778075 0.10857512 0.10857512 0.10857512
- 0.11089775 0.11089775 0.11089775 0.11656972 0.11656972 0.11656972]</t>
+          <t>[0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07
+ 0.07 0.07 0.07 0.07]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr"/>
@@ -15680,17 +15677,17 @@
       <c r="D598" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          26.61331002]
- [  0.           0.          38.22662005]
- [  0.           0.          49.83993007]
- [  0.           0.          66.43037296]
- [  0.           0.          83.02081585]
- [  0.           0.          99.61125874]
- [  0.           0.         109.56552448]
- [  0.           0.         119.51979021]
- [  0.           0.         129.47405594]
- [  0.           0.         138.76470396]
- [  0.           0.         148.05535198]
+ [  0.           0.          27.30150617]
+ [  0.           0.          39.60301235]
+ [  0.           0.          51.90451852]
+ [  0.           0.          69.47809877]
+ [  0.           0.          87.05167901]
+ [  0.           0.         104.62525926]
+ [  0.           0.         115.16940741]
+ [  0.           0.         125.71355556]
+ [  0.           0.         136.2577037 ]
+ [  0.           0.         143.2871358 ]
+ [  0.           0.         150.3165679 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -15714,8 +15711,8 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[2.02354145 2.02354145 2.02354145 1.85119693 1.76869238 1.68618783
- 1.24360484 1.07796147 0.91231809 0.70168037 0.70168037 0.70168037]</t>
+          <t>[1.16227031 1.16227031 1.16227031 0.67019989 0.67019989 0.67019989
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr"/>
@@ -15738,8 +15735,8 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>[1.15086843 1.15086843 1.15086843 1.05274268 1.00592563 0.95910876
- 0.70716361 0.61316971 0.51917716 0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.66116003 0.66116003 0.66116003 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E600" t="inlineStr"/>
@@ -15762,8 +15759,8 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>[1.15086843 1.15086843 1.15086843 1.05274268 1.00592563 0.95910876
- 0.70716361 0.61316971 0.51917716 0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.66116003 0.66116003 0.66116003 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E601" t="inlineStr"/>
@@ -15786,8 +15783,8 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>[30.30153415 30.30153415 30.30153415 26.5426946  23.14968124 20.05889713
- 12.40158777  8.07686611  4.89640086  3.11989206  3.11989206  3.11989206]</t>
+          <t>[9.19769616 9.19769616 9.19769616 5.32819383 5.32819383 5.32819383
+ 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
         </is>
       </c>
       <c r="E602" t="inlineStr"/>
@@ -15810,8 +15807,8 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[30.30153415 30.30153415 30.30153415 26.5426946  23.14968124 20.05889713
- 12.40158777  8.07686611  4.89640086  3.11989206  3.11989206  3.11989206]</t>
+          <t>[9.19769616 9.19769616 9.19769616 5.32819383 5.32819383 5.32819383
+ 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15834,8 +15831,8 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[60.60306831 60.60306831 60.60306831 53.08538919 46.29936248 40.11779427
- 24.80317554 16.15373223  9.79280171  6.23978412  6.23978412  6.23978412]</t>
+          <t>[18.39539232 18.39539232 18.39539232 10.65638765 10.65638765 10.65638765
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -15929,9 +15926,9 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         10.52267799 10.04535597
-  9.56803396  8.37835597  7.18867799  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E608" t="inlineStr"/>
@@ -15954,8 +15951,8 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>[0.055      0.055      0.055      0.05142008 0.05142008 0.05142008
- 0.04142008 0.04142008 0.04142008 0.035      0.035      0.035     ]</t>
+          <t>[0.04345593 0.04345593 0.04345593 0.025      0.025      0.025
+ 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E609" t="inlineStr"/>
@@ -16003,17 +16000,17 @@
       <c r="D611" t="inlineStr">
         <is>
           <t>[[135.7193516 ]
- [155.74123287]
- [169.88212701]
- [181.04996942]
- [193.97594653]
- [204.63727934]
- [213.7833591 ]
- [218.72660661]
- [223.33944433]
- [227.66891335]
- [231.48712289]
- [235.11571637]
+ [156.69843521]
+ [171.33048609]
+ [182.82227714]
+ [196.0755203 ]
+ [206.97905056]
+ [216.31799319]
+ [221.36083569]
+ [226.06408979]
+ [230.47643609]
+ [233.27575427]
+ [235.97256769]
  [238.57517091]]</t>
         </is>
       </c>
@@ -16062,7 +16059,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-8.98577631e+06]]</t>
+ [-8.98603452e+06]]</t>
         </is>
       </c>
       <c r="E613" t="inlineStr"/>
@@ -16085,9 +16082,9 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>[[  -692939.78155346]
- [-38693034.48001503]
- [  6202666.24461834]]</t>
+          <t>[[  -692940.008576  ]
+ [-38693074.08051626]
+ [  6202665.53278366]]</t>
         </is>
       </c>
       <c r="E614" t="inlineStr"/>
@@ -16112,7 +16109,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-2.52469074e+07]]</t>
+ [-1.73447530e+07]]</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -16135,9 +16132,9 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[[-1.98810205e+06]
- [ 3.86514039e+08]
- [ 6.20266624e+06]]</t>
+          <t>[[-2.08376848e+06]
+ [ 4.01157865e+08]
+ [ 6.20266553e+06]]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16160,7 +16157,8 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>[1512500. 1512500. 3025000.       0.       0.       0.]</t>
+          <t>[1010297.57124604 1010297.57124604 2020595.14249208       0.
+       0.               0.        ]</t>
         </is>
       </c>
       <c r="E617" t="inlineStr"/>
@@ -16229,7 +16227,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>[30.]</t>
+          <t>[45.]</t>
         </is>
       </c>
       <c r="E620" t="inlineStr"/>
@@ -16252,7 +16250,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[2588566.37982316]</t>
+          <t>[1785807.18042799]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16275,7 +16273,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[-2.47610033e+00 -3.51217691e-02  9.58336168e+01]</t>
+          <t>[-3.58916308e+00 -5.09149908e-02  1.13800905e+02]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16298,8 +16296,8 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[3.16566960e+10 3.15257631e+10 3.06156367e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[2.82566337e+10 2.81257006e+10 2.78516803e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16322,7 +16320,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[948395.22490771]</t>
+          <t>[948421.32607936]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16345,8 +16343,8 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>[4.16137377e+08 2.85204501e+08 2.66306106e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[4.16138017e+08 2.85204924e+08 2.66307067e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
@@ -16369,7 +16367,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[-6.7583112  -0.09586197  4.59784123]</t>
+          <t>[-6.75812851 -0.09586916  4.59772556]</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
@@ -16474,25 +16472,25 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>[[      0.        ]
- [      0.        ]
- [      0.        ]
- [ -30974.55430283]
- [ -31871.91514184]
- [ -34620.99320849]
- [ -39398.548849  ]
- [ -46516.76572879]
- [ -56446.05467055]
- [ -69875.24006445]
- [ -81254.77857179]
- [ -95051.02579361]
- [-111836.96771038]
- [   -729.034078  ]
- [   -860.2225698 ]
- [   -948.63159706]
- [   -984.81958944]
- [  -1017.40298746]
- [  -1047.13901865]]</t>
+          <t>[[     0.        ]
+ [     0.        ]
+ [     0.        ]
+ [-20768.78630014]
+ [-21373.19994564]
+ [-23230.01032265]
+ [-26477.60742298]
+ [-31328.2414679 ]
+ [-38112.97318345]
+ [-47307.98900671]
+ [-55106.41653762]
+ [-64559.6469447 ]
+ [-76048.53143189]
+ [  -599.90550361]
+ [  -706.26986106]
+ [  -777.10854538]
+ [  -805.91904803]
+ [  -831.77086345]
+ [  -855.29172331]]</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
@@ -16585,19 +16583,19 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[[-1047.13901865]
- [-1206.50664157]
- [-1321.22751075]
- [-1413.18261726]
- [-1446.65041988]
- [-1453.75271996]
- [-1442.81867291]
- [-1283.91575302]
- [-1124.76298288]
- [ -962.19898835]
- [ -978.02680667]
- [ -993.06340443]
- [-1007.39507288]]</t>
+          <t>[[ -764.0675664 ]
+ [ -879.89721404]
+ [ -960.79254611]
+ [-1024.48836201]
+ [-1098.19816289]
+ [-1159.08690457]
+ [-1211.44283474]
+ [-1136.90215108]
+ [-1057.80219044]
+ [ -973.99389388]
+ [ -985.59734665]
+ [ -996.77327326]
+ [-1007.55661265]]</t>
         </is>
       </c>
       <c r="E632" t="inlineStr"/>
@@ -16620,10 +16618,10 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[ 0.         10.         20.         30.         35.         40.
- 45.         50.         55.         60.         63.33333333 66.66666667
- 70.         73.33333333 76.66666667 80.         81.66666667 83.33333333
- 85.        ]</t>
+          <t>[  0.          15.          30.          45.          50.
+  55.          60.          65.          70.          75.
+  78.33333333  81.66666667  85.          88.33333333  91.66666667
+  95.          96.66666667  98.33333333 100.        ]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
@@ -16719,24 +16717,24 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[[-50329643.30270104]
- [-47748366.2228398 ]
- [-45013765.10318334]
- [-43484461.80591929]
- [-41946133.57619065]
- [-40389176.91163276]
- [-38667282.61905506]
- [-36903195.74626727]
- [-35081296.64621539]
- [-33818421.04292618]
- [-32514005.40117486]
- [-31159129.15077772]
- [-29938424.04147975]
- [-28900830.55615889]
- [-27862874.73471122]
- [-27317610.0777407 ]
- [-26772288.68429511]
- [-26226915.87739849]]</t>
+          <t>[[-33720176.96010169]
+ [-31311941.66594557]
+ [-28749498.12354099]
+ [-27842451.61817979]
+ [-26929313.57731113]
+ [-26003542.13146065]
+ [-25057727.55630432]
+ [-24083115.44846851]
+ [-23068953.48024233]
+ [-22364806.31367043]
+ [-21632193.91469692]
+ [-20865027.00997285]
+ [-20203393.69122381]
+ [-19666075.10332028]
+ [-19128464.13026455]
+ [-18859576.43317311]
+ [-18590643.6396399 ]
+ [-18321670.11364589]]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
@@ -16759,24 +16757,24 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>[[ -5089944.38226861]
- [-11716909.03212076]
- [-11030350.76792041]
- [  2938308.21996103]
- [  2938496.46016135]
- [  2938687.11767034]
- [  2938974.50317633]
- [  2939180.45077482]
- [  2939402.8851696 ]
- [  2938984.47112549]
- [  2939104.41875504]
- [  2939237.22432337]
- [  2939235.83287519]
- [  2939001.809666  ]
- [  2939058.24999067]
- [  2938440.71155204]
- [  2938454.25307322]
- [  2938467.60900756]]</t>
+          <t>[[  -970518.86981573]
+ [ -7081831.40683825]
+ [-17861628.64678424]
+ [  2938506.21527255]
+ [  2938808.02131068]
+ [  2939114.75498034]
+ [  2939433.72061068]
+ [  2939773.79143495]
+ [  2940146.44353985]
+ [  2939569.92561599]
+ [  2939776.99294014]
+ [  2940009.03037824]
+ [  2939953.73297005]
+ [  2939514.7751677 ]
+ [  2939605.32984768]
+ [  2938692.35862241]
+ [  2938714.08786309]
+ [  2938735.53155286]]</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
@@ -16799,24 +16797,24 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>[[-23287.63262207]
- [-54122.63251306]
- [-52895.52270061]
- [  8740.85393154]
- [  8741.72464483]
- [  8742.6149574 ]
- [  8743.9591228 ]
- [  8744.93837363]
- [  8746.00462817]
- [  8744.09049686]
- [  8744.67203376]
- [  8745.31833132]
- [  8745.33809018]
- [  8744.25865345]
- [  8744.54895548]
- [  8741.63053445]
- [  8741.70135802]
- [  8741.77161402]]</t>
+          <t>[[ -4455.93291543]
+ [-32651.33310082]
+ [-84072.12032451]
+ [  8741.78806373]
+ [  8743.19452933]
+ [  8744.63712998]
+ [  8746.15068529]
+ [  8747.77805122]
+ [  8749.57520473]
+ [  8746.91136115]
+ [  8747.92092309]
+ [  8749.05642433]
+ [  8748.83315142]
+ [  8746.77602065]
+ [  8747.24256863]
+ [  8742.87865511]
+ [  8742.99237795]
+ [  8743.10521257]]</t>
         </is>
       </c>
       <c r="E639" t="inlineStr"/>
@@ -16839,24 +16837,24 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[[ -275762.11164063]
- [-1143424.12663609]
- [-2125345.38468634]
- [-2379994.39382691]
- [-2335298.21325612]
- [-2290408.12159996]
- [-2245356.33472044]
- [-2200177.12362653]
- [-2154892.393621  ]
- [-2124665.17133141]
- [-2094410.06312103]
- [-2064134.27696163]
- [-2033846.44549708]
- [-2003547.84902301]
- [-1973236.40322505]
- [-1958083.20204026]
- [-1942929.84262595]
- [-1927776.81567034]]</t>
+          <t>[[  -29315.28237601]
+ [ -423141.50748723]
+ [-2222066.15256737]
+ [-2535706.12688494]
+ [-2490482.41307623]
+ [-2444907.34277472]
+ [-2399016.33078865]
+ [-2352845.36919272]
+ [-2306431.56404319]
+ [-2275387.66024745]
+ [-2244267.23089611]
+ [-2213082.89605936]
+ [-2181848.60933004]
+ [-2150563.80483707]
+ [-2119223.87073065]
+ [-2103543.48506359]
+ [-2087852.51433761]
+ [-2072151.79674863]]</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
@@ -16879,24 +16877,24 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[[6.13038874e+07]
- [2.52185501e+08]
- [4.63252372e+08]
- [5.14327445e+08]
- [4.99417317e+08]
- [4.84465951e+08]
- [4.69480838e+08]
- [4.54469593e+08]
- [4.39437248e+08]
- [4.29408653e+08]
- [4.19374923e+08]
- [4.09337651e+08]
- [3.99298719e+08]
- [3.89258406e+08]
- [3.79216302e+08]
- [3.74196141e+08]
- [3.69176171e+08]
- [3.64156498e+08]]</t>
+          <t>[[6.43397751e+06]
+ [9.27831964e+07]
+ [4.80625877e+08]
+ [5.43950598e+08]
+ [5.28927985e+08]
+ [5.13831029e+08]
+ [4.98668101e+08]
+ [4.83447600e+08]
+ [4.68178071e+08]
+ [4.57978551e+08]
+ [4.47764282e+08]
+ [4.37538057e+08]
+ [4.27302919e+08]
+ [4.17058842e+08]
+ [4.06804959e+08]
+ [4.01676507e+08]
+ [3.96546301e+08]
+ [3.91414528e+08]]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16919,24 +16917,24 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[[1086362.901555  ]
- [2342258.19312098]
- [3963692.08073939]
- [6203646.59192384]
- [6203613.28039632]
- [6203579.77264721]
- [6203466.8805668 ]
- [6203432.74318302]
- [6203397.76970066]
- [6203356.6124029 ]
- [6203331.75750126]
- [6203306.08525113]
- [6203266.70468932]
- [6203243.17858719]
- [6203223.18165361]
- [6203177.31620938]
- [6203167.31394686]
- [6203157.31067578]]</t>
+          <t>[[ 809048.28972644]
+ [1866674.30402192]
+ [3497845.66347414]
+ [6203737.0616969 ]
+ [6203703.24930973]
+ [6203669.21021791]
+ [6203634.70057138]
+ [6203599.44418085]
+ [6203563.11474644]
+ [6203525.31151156]
+ [6203499.06445561]
+ [6203471.75659512]
+ [6203443.16098568]
+ [6203418.49927853]
+ [6203398.47142044]
+ [6203378.43279359]
+ [6203368.41046441]
+ [6203358.38648666]]</t>
         </is>
       </c>
       <c r="E642" t="inlineStr"/>
@@ -16959,12 +16957,12 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>[-70.         -60.         -50.         -40.         -35.
+          <t>[-85.         -70.         -55.         -40.         -35.
  -30.         -25.         -20.         -15.         -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
-  10.          11.66666667  13.33333333  15.          26.61331002
-  38.22662005  49.83993007  66.43037296  83.02081585  99.61125874
- 109.56552448 119.51979021 129.47405594 138.76470396 148.05535198
+  10.          11.66666667  13.33333333  15.          27.30150617
+  39.60301235  51.90451852  69.47809877  87.05167901 104.62525926
+ 115.16940741 125.71355556 136.2577037  143.2871358  150.3165679
  157.346     ]</t>
         </is>
       </c>
@@ -16988,12 +16986,12 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         10.52267799 10.04535597
-  9.56803396  8.37835597  7.18867799  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.9902061  8.9902061  8.9902061  8.9902061  8.9902061  8.9902061
+ 8.9902061  8.9902061  8.9902061  8.9902061  8.9902061  8.9902061
+ 8.9902061  8.9902061  8.9902061  8.9902061  8.9902061  8.9902061
+ 8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E644" t="inlineStr"/>
@@ -17016,11 +17014,11 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>[0.09203567 0.09203567 0.09203567 0.0980167  0.0980167  0.0980167
- 0.10778075 0.10778075 0.10778075 0.10857512 0.10857512 0.10857512
- 0.11089775 0.11089775 0.11089775 0.11656972 0.11656972 0.11656972
- 0.055      0.055      0.055      0.05142008 0.05142008 0.05142008
- 0.04142008 0.04142008 0.04142008 0.035      0.035      0.035     ]</t>
+          <t>[0.07       0.07       0.07       0.07       0.07       0.07
+ 0.07       0.07       0.07       0.07       0.07       0.07
+ 0.07       0.07       0.07       0.07       0.07       0.07
+ 0.04345593 0.04345593 0.04345593 0.025      0.025      0.025
+ 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E645" t="inlineStr"/>
@@ -17168,11 +17166,11 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>[3.37468731 3.37468731 3.37468731 3.59202411 3.59202411 3.59202411
- 3.94631012 3.94631012 3.94631012 3.97510563 3.97510563 3.97510563
- 4.05927478 4.05927478 4.05927478 4.26466767 4.26466767 4.26466767
- 2.02354145 2.02354145 2.02354145 1.85119693 1.76869238 1.68618783
- 1.24360484 1.07796147 0.91231809 0.70168037 0.70168037 0.70168037]</t>
+          <t>[2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168
+ 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168
+ 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168
+ 1.16227031 1.16227031 1.16227031 0.67019989 0.67019989 0.67019989
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E651" t="inlineStr"/>
@@ -17195,11 +17193,11 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>[1.92231659 1.92231659 1.92231659 2.04664209 2.04664209 2.04664209
- 2.24945144 2.24945144 2.24945144 2.26594316 2.26594316 2.26594316
- 2.31415522 2.31415522 2.31415522 2.43184703 2.43184703 2.43184703
- 1.15086843 1.15086843 1.15086843 1.05274268 1.00592563 0.95910876
- 0.70716361 0.61316971 0.51917716 0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
+ 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
+ 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
+ 0.66116003 0.66116003 0.66116003 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E652" t="inlineStr"/>
@@ -17222,11 +17220,11 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>[1.92231659 1.92231659 1.92231659 2.04664209 2.04664209 2.04664209
- 2.24945144 2.24945144 2.24945144 2.26594316 2.26594316 2.26594316
- 2.31415522 2.31415522 2.31415522 2.43184703 2.43184703 2.43184703
- 1.15086843 1.15086843 1.15086843 1.05274268 1.00592563 0.95910876
- 0.70716361 0.61316971 0.51917716 0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
+ 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
+ 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
+ 0.66116003 0.66116003 0.66116003 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E653" t="inlineStr"/>
@@ -17249,11 +17247,11 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>[50.19516507 50.19516507 50.19516507 53.36977652 53.36977652 53.36977652
- 58.5297266  58.5297266  58.5297266  58.94829452 58.94829452 58.94829452
- 60.17105941 60.17105941 60.17105941 63.15047553 63.15047553 63.15047553
- 30.30153415 30.30153415 30.30153415 26.5426946  23.14968124 20.05889713
- 12.40158777  8.07686611  4.89640086  3.11989206  3.11989206  3.11989206]</t>
+          <t>[20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
+ 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
+ 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
+  9.19769616  9.19769616  9.19769616  5.32819383  5.32819383  5.32819383
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E654" t="inlineStr"/>
@@ -17276,11 +17274,11 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>[50.19516507 50.19516507 50.19516507 53.36977652 53.36977652 53.36977652
- 58.5297266  58.5297266  58.5297266  58.94829452 58.94829452 58.94829452
- 60.17105941 60.17105941 60.17105941 63.15047553 63.15047553 63.15047553
- 30.30153415 30.30153415 30.30153415 26.5426946  23.14968124 20.05889713
- 12.40158777  8.07686611  4.89640086  3.11989206  3.11989206  3.11989206]</t>
+          <t>[20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
+ 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
+ 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
+  9.19769616  9.19769616  9.19769616  5.32819383  5.32819383  5.32819383
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E655" t="inlineStr"/>
@@ -17303,12 +17301,11 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>[100.39033013 100.39033013 100.39033013 106.73955304 106.73955304
- 106.73955304 117.0594532  117.0594532  117.0594532  117.89658903
- 117.89658903 117.89658903 120.34211883 120.34211883 120.34211883
- 126.30095107 126.30095107 126.30095107  60.60306831  60.60306831
-  60.60306831  53.08538919  46.29936248  40.11779427  24.80317554
-  16.15373223   9.79280171   6.23978412   6.23978412   6.23978412]</t>
+          <t>[41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572
+ 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572
+ 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572
+ 18.39539232 18.39539232 18.39539232 10.65638765 10.65638765 10.65638765
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E656" t="inlineStr"/>
@@ -17331,36 +17328,36 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>[[-5.03296433e+07]
- [-4.77483662e+07]
- [-4.50137651e+07]
- [-4.34844618e+07]
- [-4.19461336e+07]
- [-4.03891769e+07]
- [-3.86672826e+07]
- [-3.69031957e+07]
- [-3.50812966e+07]
- [-3.38184210e+07]
- [-3.25140054e+07]
- [-3.11591292e+07]
- [-2.99384240e+07]
- [-2.89008306e+07]
- [-2.78628747e+07]
- [-2.73176101e+07]
- [-2.67722887e+07]
- [-2.62269159e+07]
- [-2.34367424e+07]
- [-2.16262859e+07]
- [-1.98142537e+07]
- [-1.74426428e+07]
- [-1.51746996e+07]
- [-1.30111208e+07]
- [-1.20499733e+07]
- [-1.12157826e+07]
- [-1.05092793e+07]
- [-1.00010424e+07]
- [-9.49348031e+06]
- [ 1.28347892e-08]]</t>
+          <t>[[-3.37201770e+07]
+ [-3.13119417e+07]
+ [-2.87494981e+07]
+ [-2.78424516e+07]
+ [-2.69293136e+07]
+ [-2.60035421e+07]
+ [-2.50577276e+07]
+ [-2.40831154e+07]
+ [-2.30689535e+07]
+ [-2.23648063e+07]
+ [-2.16321939e+07]
+ [-2.08650270e+07]
+ [-2.02033937e+07]
+ [-1.96660751e+07]
+ [-1.91284641e+07]
+ [-1.88595764e+07]
+ [-1.85906436e+07]
+ [-1.83216701e+07]
+ [-1.62375563e+07]
+ [-1.51339256e+07]
+ [-1.40290970e+07]
+ [-1.31109498e+07]
+ [-1.21916074e+07]
+ [-1.12710940e+07]
+ [-1.07407875e+07]
+ [-1.02557818e+07]
+ [-9.81676307e+06]
+ [-9.53971248e+06]
+ [-9.26291313e+06]
+ [-1.08266249e-08]]</t>
         </is>
       </c>
       <c r="E657" t="inlineStr"/>
@@ -17383,36 +17380,36 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>[[-5.08994438e+06]
- [-1.17169090e+07]
- [-1.10303508e+07]
- [ 2.93830822e+06]
- [ 2.93849646e+06]
- [ 2.93868712e+06]
- [ 2.93897450e+06]
- [ 2.93918045e+06]
- [ 2.93940289e+06]
- [ 2.93898447e+06]
- [ 2.93910442e+06]
- [ 2.93923722e+06]
- [ 2.93923583e+06]
- [ 2.93900181e+06]
- [ 2.93905825e+06]
- [ 2.93844071e+06]
- [ 2.93845425e+06]
- [ 2.93846761e+06]
- [ 2.94056038e+06]
- [ 2.94113231e+06]
- [ 2.94164590e+06]
- [ 2.94362072e+06]
- [ 2.94415339e+06]
- [ 2.94451427e+06]
- [ 2.94095888e+06]
- [ 2.94069475e+06]
- [ 2.94037260e+06]
- [ 2.93968287e+06]
- [ 2.93963887e+06]
- [ 1.84646839e+03]]</t>
+          <t>[[-9.70518870e+05]
+ [-7.08183141e+06]
+ [-1.78616286e+07]
+ [ 2.93850622e+06]
+ [ 2.93880802e+06]
+ [ 2.93911475e+06]
+ [ 2.93943372e+06]
+ [ 2.93977379e+06]
+ [ 2.94014644e+06]
+ [ 2.93956993e+06]
+ [ 2.93977699e+06]
+ [ 2.94000903e+06]
+ [ 2.93995373e+06]
+ [ 2.93951478e+06]
+ [ 2.93960533e+06]
+ [ 2.93869236e+06]
+ [ 2.93871409e+06]
+ [ 2.93873553e+06]
+ [ 2.94266660e+06]
+ [ 2.94396945e+06]
+ [ 2.94514034e+06]
+ [ 2.94532860e+06]
+ [ 2.94701096e+06]
+ [ 2.94827082e+06]
+ [ 2.94421624e+06]
+ [ 2.94389470e+06]
+ [ 2.94345839e+06]
+ [ 2.94136235e+06]
+ [ 2.94132225e+06]
+ [ 3.55694245e+03]]</t>
         </is>
       </c>
       <c r="E658" t="inlineStr"/>
@@ -17435,36 +17432,36 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>[[-2.32876326e+04]
- [-5.41226325e+04]
- [-5.28955227e+04]
- [ 8.74085393e+03]
- [ 8.74172464e+03]
- [ 8.74261496e+03]
- [ 8.74395912e+03]
- [ 8.74493837e+03]
- [ 8.74600463e+03]
- [ 8.74409050e+03]
- [ 8.74467203e+03]
- [ 8.74531833e+03]
- [ 8.74533809e+03]
- [ 8.74425865e+03]
- [ 8.74454896e+03]
- [ 8.74163053e+03]
- [ 8.74170136e+03]
- [ 8.74177161e+03]
- [ 8.75192620e+03]
- [ 8.75509144e+03]
- [ 8.75808540e+03]
- [ 8.76900342e+03]
- [ 8.77318517e+03]
- [ 8.77699870e+03]
- [ 8.75770726e+03]
- [ 8.75736809e+03]
- [ 8.75719796e+03]
- [ 8.75463201e+03]
- [ 8.75755551e+03]
- [ 2.06808689e+01]]</t>
+          <t>[[-4.45593292e+03]
+ [-3.26513331e+04]
+ [-8.40721203e+04]
+ [ 8.74178806e+03]
+ [ 8.74319453e+03]
+ [ 8.74463713e+03]
+ [ 8.74615069e+03]
+ [ 8.74777805e+03]
+ [ 8.74957520e+03]
+ [ 8.74691136e+03]
+ [ 8.74792092e+03]
+ [ 8.74905642e+03]
+ [ 8.74883315e+03]
+ [ 8.74677602e+03]
+ [ 8.74724257e+03]
+ [ 8.74287866e+03]
+ [ 8.74299238e+03]
+ [ 8.74310521e+03]
+ [ 8.76245124e+03]
+ [ 8.76966114e+03]
+ [ 8.77648234e+03]
+ [ 8.77905554e+03]
+ [ 8.79078746e+03]
+ [ 8.80118628e+03]
+ [ 8.77888535e+03]
+ [ 8.77878896e+03]
+ [ 8.77858134e+03]
+ [ 8.76578767e+03]
+ [ 8.76742142e+03]
+ [ 2.99752068e+01]]</t>
         </is>
       </c>
       <c r="E659" t="inlineStr"/>
@@ -17487,36 +17484,36 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>[[-2.75762112e+05]
- [-1.14342413e+06]
- [-2.12534538e+06]
- [-2.37999439e+06]
- [-2.33529821e+06]
- [-2.29040812e+06]
- [-2.24535633e+06]
- [-2.20017712e+06]
- [-2.15489239e+06]
- [-2.12466517e+06]
- [-2.09441006e+06]
- [-2.06413428e+06]
- [-2.03384645e+06]
- [-2.00354785e+06]
- [-1.97323640e+06]
- [-1.95808320e+06]
- [-1.94292984e+06]
- [-1.92777682e+06]
- [-1.82184344e+06]
- [-1.71527586e+06]
- [-1.60827572e+06]
- [-1.45476354e+06]
- [-1.30085892e+06]
- [-1.14685400e+06]
- [-1.05460168e+06]
- [-9.62101695e+05]
- [-8.69109953e+05]
- [-7.81605959e+05]
- [-6.93326159e+05]
- [-5.32192282e-04]]</t>
+          <t>[[-2.93152824e+04]
+ [-4.23141507e+05]
+ [-2.22206615e+06]
+ [-2.53570613e+06]
+ [-2.49048241e+06]
+ [-2.44490734e+06]
+ [-2.39901633e+06]
+ [-2.35284537e+06]
+ [-2.30643156e+06]
+ [-2.27538766e+06]
+ [-2.24426723e+06]
+ [-2.21308290e+06]
+ [-2.18184861e+06]
+ [-2.15056380e+06]
+ [-2.11922387e+06]
+ [-2.10354349e+06]
+ [-2.08785251e+06]
+ [-2.07215180e+06]
+ [-1.95528177e+06]
+ [-1.83638865e+06]
+ [-1.71598376e+06]
+ [-1.54048140e+06]
+ [-1.36054826e+06]
+ [-1.17765617e+06]
+ [-1.06726102e+06]
+ [-9.56165438e+05]
+ [-8.44133356e+05]
+ [-7.68957113e+05]
+ [-6.93362269e+05]
+ [-2.58768489e-04]]</t>
         </is>
       </c>
       <c r="E660" t="inlineStr"/>
@@ -17539,36 +17536,36 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>[[ 6.13038874e+07]
- [ 2.52185501e+08]
- [ 4.63252372e+08]
- [ 5.14327445e+08]
- [ 4.99417317e+08]
- [ 4.84465951e+08]
- [ 4.69480838e+08]
- [ 4.54469593e+08]
- [ 4.39437248e+08]
- [ 4.29408653e+08]
- [ 4.19374923e+08]
- [ 4.09337651e+08]
- [ 3.99298719e+08]
- [ 3.89258406e+08]
- [ 3.79216302e+08]
- [ 3.74196141e+08]
- [ 3.69176171e+08]
- [ 3.64156498e+08]
- [ 3.29117899e+08]
- [ 2.93973106e+08]
- [ 2.58766239e+08]
- [ 2.08391477e+08]
- [ 1.58010148e+08]
- [ 1.07689596e+08]
- [ 7.75715569e+07]
- [ 4.74717369e+07]
- [ 1.73889414e+07]
- [-1.06605958e+07]
- [-3.86588036e+07]
- [ 4.75160079e-02]]</t>
+          <t>[[ 6.43397751e+06]
+ [ 9.27831964e+07]
+ [ 4.80625877e+08]
+ [ 5.43950598e+08]
+ [ 5.28927985e+08]
+ [ 5.13831029e+08]
+ [ 4.98668101e+08]
+ [ 4.83447600e+08]
+ [ 4.68178071e+08]
+ [ 4.57978551e+08]
+ [ 4.47764282e+08]
+ [ 4.37538057e+08]
+ [ 4.27302919e+08]
+ [ 4.17058842e+08]
+ [ 4.06804959e+08]
+ [ 4.01676507e+08]
+ [ 3.96546301e+08]
+ [ 3.91414528e+08]
+ [ 3.53363124e+08]
+ [ 3.14959910e+08]
+ [ 2.76318452e+08]
+ [ 2.20605560e+08]
+ [ 1.64319625e+08]
+ [ 1.07779685e+08]
+ [ 7.38882763e+07]
+ [ 4.00273053e+07]
+ [ 6.22309205e+06]
+ [-1.62442312e+07]
+ [-3.86431131e+07]
+ [ 3.07097152e-02]]</t>
         </is>
       </c>
       <c r="E661" t="inlineStr"/>
@@ -17591,36 +17588,36 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>[[ 1.08636290e+06]
- [ 2.34225819e+06]
- [ 3.96369208e+06]
- [ 6.20364659e+06]
- [ 6.20361328e+06]
- [ 6.20357977e+06]
- [ 6.20346688e+06]
- [ 6.20343274e+06]
- [ 6.20339777e+06]
- [ 6.20335661e+06]
- [ 6.20333176e+06]
- [ 6.20330609e+06]
- [ 6.20326670e+06]
- [ 6.20324318e+06]
- [ 6.20322318e+06]
- [ 6.20317732e+06]
- [ 6.20316731e+06]
- [ 6.20315731e+06]
- [ 6.20364226e+06]
- [ 6.20357230e+06]
- [ 6.20350230e+06]
- [ 6.20350356e+06]
- [ 6.20343771e+06]
- [ 6.20337024e+06]
- [ 6.20348470e+06]
- [ 6.20354072e+06]
- [ 6.20362798e+06]
- [ 6.20383796e+06]
- [ 6.20378128e+06]
- [-5.77440212e-09]]</t>
+          <t>[[ 8.09048290e+05]
+ [ 1.86667430e+06]
+ [ 3.49784566e+06]
+ [ 6.20373706e+06]
+ [ 6.20370325e+06]
+ [ 6.20366921e+06]
+ [ 6.20363470e+06]
+ [ 6.20359944e+06]
+ [ 6.20356311e+06]
+ [ 6.20352531e+06]
+ [ 6.20349906e+06]
+ [ 6.20347176e+06]
+ [ 6.20344316e+06]
+ [ 6.20341850e+06]
+ [ 6.20339847e+06]
+ [ 6.20337843e+06]
+ [ 6.20336841e+06]
+ [ 6.20335839e+06]
+ [ 6.20383276e+06]
+ [ 6.20375847e+06]
+ [ 6.20368417e+06]
+ [ 6.20430327e+06]
+ [ 6.20419606e+06]
+ [ 6.20408872e+06]
+ [ 6.20403864e+06]
+ [ 6.20409912e+06]
+ [ 6.20417906e+06]
+ [ 6.20419510e+06]
+ [ 6.20415192e+06]
+ [-1.09629702e-08]]</t>
         </is>
       </c>
       <c r="E662" t="inlineStr"/>
@@ -17662,17 +17659,17 @@
  [1.27775357e+02]
  [1.31936564e+02]
  [1.35719352e+02]
- [1.55741233e+02]
- [1.69882127e+02]
- [1.81049969e+02]
- [1.93975947e+02]
- [2.04637279e+02]
- [2.13783359e+02]
- [2.18726607e+02]
- [2.23339444e+02]
- [2.27668913e+02]
- [2.31487123e+02]
- [2.35115716e+02]
+ [1.56698435e+02]
+ [1.71330486e+02]
+ [1.82822277e+02]
+ [1.96075520e+02]
+ [2.06979051e+02]
+ [2.16317993e+02]
+ [2.21360836e+02]
+ [2.26064090e+02]
+ [2.30476436e+02]
+ [2.33275754e+02]
+ [2.35972568e+02]
  [2.38575171e+02]]</t>
         </is>
       </c>
@@ -17719,7 +17716,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>[40682.04562332]</t>
+          <t>[40686.9261128]</t>
         </is>
       </c>
       <c r="E665" t="inlineStr"/>
@@ -18271,7 +18268,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>[117977.93230762]</t>
+          <t>[117992.08572713]</t>
         </is>
       </c>
       <c r="E689" t="inlineStr"/>
@@ -18294,7 +18291,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>[209392.02038664]</t>
+          <t>[209453.42241018]</t>
         </is>
       </c>
       <c r="E690" t="inlineStr"/>
@@ -18317,7 +18314,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>[25227.95426345]</t>
+          <t>[25235.35209761]</t>
         </is>
       </c>
       <c r="E691" t="inlineStr"/>
@@ -18455,7 +18452,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>[41458.177152]</t>
+          <t>[41472.]</t>
         </is>
       </c>
       <c r="E697" t="inlineStr"/>
@@ -18478,7 +18475,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>[708934.8292992]</t>
+          <t>[709171.2]</t>
         </is>
       </c>
       <c r="E698" t="inlineStr"/>
@@ -18616,7 +18613,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>[9681293.55277508]</t>
+          <t>[9681605.47891894]</t>
         </is>
       </c>
       <c r="E704" t="inlineStr"/>
@@ -18639,7 +18636,7 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>[654746.91928556]</t>
+          <t>[654773.0204572]</t>
         </is>
       </c>
       <c r="E705" t="inlineStr"/>
@@ -18662,7 +18659,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>[4179526.80596831]</t>
+          <t>[2317045.9191011]</t>
         </is>
       </c>
       <c r="E706" t="inlineStr"/>
@@ -18685,7 +18682,7 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>[1640171.15491545]</t>
+          <t>[837385.85434863]</t>
         </is>
       </c>
       <c r="E707" t="inlineStr"/>
@@ -18708,7 +18705,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>[17460561.39635288]</t>
+          <t>[15598392.43562952]</t>
         </is>
       </c>
       <c r="E708" t="inlineStr"/>
@@ -18731,7 +18728,7 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>[1164.03742642]</t>
+          <t>[1039.89282904]</t>
         </is>
       </c>
       <c r="E709" t="inlineStr"/>
@@ -18754,7 +18751,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>[2588566.37982316]</t>
+          <t>[1785807.18042799]</t>
         </is>
       </c>
       <c r="E710" t="inlineStr"/>
@@ -18823,7 +18820,7 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>[4179526.80596831]</t>
+          <t>[2317045.9191011]</t>
         </is>
       </c>
       <c r="E713" t="inlineStr"/>
@@ -18846,7 +18843,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>[4179526.80596831]</t>
+          <t>[2317045.9191011]</t>
         </is>
       </c>
       <c r="E714" t="inlineStr"/>
@@ -18896,7 +18893,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>[0.30939074]</t>
+          <t>[0.17159785]</t>
         </is>
       </c>
       <c r="E716" t="inlineStr"/>
@@ -19018,9 +19015,9 @@
       <c r="D720" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          49.83993007]
- [  0.           0.          99.61125874]
- [  0.           0.         129.47405594]
+ [  0.           0.          51.90451852]
+ [  0.           0.         104.62525926]
+ [  0.           0.         136.2577037 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -19044,9 +19041,9 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>[1047.13901865 1206.50664157 1321.22751075 1413.18261726 1446.65041988
- 1453.75271996 1442.81867291 1283.91575302 1124.76298288  962.19898835
-  978.02680667  993.06340443 1007.39507288]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E721" t="inlineStr"/>
@@ -19115,9 +19112,9 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E724" t="inlineStr"/>
@@ -19140,9 +19137,9 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E725" t="inlineStr"/>
@@ -19188,9 +19185,9 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E727" t="inlineStr"/>
@@ -19259,8 +19256,8 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>[14.88565131 15.94588977 16.65408583 17.19278299 17.79593838 18.27844853
- 18.68245315 18.89721312 19.09543997 19.27963559 19.44063167 19.59240654
+          <t>[14.88565131 15.99481728 16.72492878 17.27672858 17.89198978 18.38273594
+ 18.79287721 19.01066664 19.21156496 19.39814576 19.51559311 19.62807517
  19.73601994]</t>
         </is>
       </c>
@@ -19284,9 +19281,9 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         10.52267799 10.04535597
-  9.56803396  8.37835597  7.18867799  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E731" t="inlineStr"/>
@@ -19355,8 +19352,8 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>[0.         0.08158508 0.16317016 0.24475524 0.36130536 0.47785548
- 0.59440559 0.66433566 0.73426573 0.8041958  0.86946387 0.93473193
+          <t>[0.         0.08641975 0.17283951 0.25925926 0.38271605 0.50617284
+ 0.62962963 0.7037037  0.77777778 0.85185185 0.90123457 0.95061728
  1.        ]</t>
         </is>
       </c>
@@ -19380,9 +19377,9 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>[1047.13901865 1206.50664157 1321.22751075 1413.18261726 1446.65041988
- 1453.75271996 1442.81867291 1283.91575302 1124.76298288  962.19898835
-  978.02680667  993.06340443 1007.39507288]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E735" t="inlineStr"/>
@@ -19451,9 +19448,9 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr"/>
@@ -19522,10 +19519,10 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>[-1047.13901865 -1206.50664157 -1321.22751075 -1413.18261726
- -1446.65041988 -1453.75271996 -1442.81867291 -1283.91575302
- -1124.76298288  -962.19898835  -978.02680667  -993.06340443
- -1007.39507288]</t>
+          <t>[ -764.0675664   -879.89721404  -960.79254611 -1024.48836201
+ -1098.19816289 -1159.08690457 -1211.44283474 -1136.90215108
+ -1057.80219044  -973.99389388  -985.59734665  -996.77327326
+ -1007.55661265]</t>
         </is>
       </c>
       <c r="E741" t="inlineStr"/>
@@ -19548,9 +19545,9 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E742" t="inlineStr"/>
@@ -19573,9 +19570,9 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>[  0.          11.61331002  23.22662005  34.83993007  51.43037296
-  68.02081585  84.61125874  94.56552448 104.51979021 114.47405594
- 123.76470396 133.05535198 142.346     ]</t>
+          <t>[  0.          12.30150617  24.60301235  36.90451852  54.47809877
+  72.05167901  89.62525926 100.16940741 110.71355556 121.2577037
+ 128.2871358  135.3165679  142.346     ]</t>
         </is>
       </c>
       <c r="E743" t="inlineStr"/>
@@ -19598,8 +19595,8 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>[0.055      0.055      0.055      0.05142008 0.05142008 0.05142008
- 0.04142008 0.04142008 0.04142008 0.035      0.035      0.035     ]</t>
+          <t>[0.04345593 0.04345593 0.04345593 0.025      0.025      0.025
+ 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E744" t="inlineStr"/>
@@ -19740,8 +19737,8 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>[2.02354145 2.02354145 2.02354145 1.85119693 1.76869238 1.68618783
- 1.24360484 1.07796147 0.91231809 0.70168037 0.70168037 0.70168037]</t>
+          <t>[1.16227031 1.16227031 1.16227031 0.67019989 0.67019989 0.67019989
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E750" t="inlineStr"/>
@@ -19764,8 +19761,8 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>[1.15086843 1.15086843 1.15086843 1.05274268 1.00592563 0.95910876
- 0.70716361 0.61316971 0.51917716 0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.66116003 0.66116003 0.66116003 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E751" t="inlineStr"/>
@@ -19788,8 +19785,8 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>[1.15086843 1.15086843 1.15086843 1.05274268 1.00592563 0.95910876
- 0.70716361 0.61316971 0.51917716 0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.66116003 0.66116003 0.66116003 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E752" t="inlineStr"/>
@@ -19812,8 +19809,8 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>[30.30153415 30.30153415 30.30153415 26.5426946  23.14968124 20.05889713
- 12.40158777  8.07686611  4.89640086  3.11989206  3.11989206  3.11989206]</t>
+          <t>[9.19769616 9.19769616 9.19769616 5.32819383 5.32819383 5.32819383
+ 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
         </is>
       </c>
       <c r="E753" t="inlineStr"/>
@@ -19836,8 +19833,8 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>[30.30153415 30.30153415 30.30153415 26.5426946  23.14968124 20.05889713
- 12.40158777  8.07686611  4.89640086  3.11989206  3.11989206  3.11989206]</t>
+          <t>[9.19769616 9.19769616 9.19769616 5.32819383 5.32819383 5.32819383
+ 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
         </is>
       </c>
       <c r="E754" t="inlineStr"/>
@@ -19860,8 +19857,8 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>[60.60306831 60.60306831 60.60306831 53.08538919 46.29936248 40.11779427
- 24.80317554 16.15373223  9.79280171  6.23978412  6.23978412  6.23978412]</t>
+          <t>[18.39539232 18.39539232 18.39539232 10.65638765 10.65638765 10.65638765
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E755" t="inlineStr"/>
@@ -19955,8 +19952,8 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>[11.61331002 11.61331002 11.61331002 16.59044289 16.59044289 16.59044289
-  9.95426573  9.95426573  9.95426573  9.29064802  9.29064802  9.29064802]</t>
+          <t>[12.30150617 12.30150617 12.30150617 17.57358025 17.57358025 17.57358025
+ 10.54414815 10.54414815 10.54414815  7.0294321   7.0294321   7.0294321 ]</t>
         </is>
       </c>
       <c r="E759" t="inlineStr"/>
@@ -19979,18 +19976,18 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>[[-23436450.81181614]
- [-21624418.61283365]
- [-19811198.31841554]
- [-17438557.49647241]
- [-15170281.1076902 ]
- [-13006733.79204253]
- [-12046423.07063194]
- [-11213799.57741796]
- [-10508881.44745222]
- [-10001319.38229697]
- [ -9493615.37584772]
- [ -8985776.30844627]]</t>
+          <t>[[-16241122.34214507]
+ [-15136293.77046606]
+ [-14030584.74683799]
+ [-13111242.26497848]
+ [-12190728.92008968]
+ [-11269230.46898928]
+ [-10739039.70396256]
+ [-10254835.92416172]
+ [ -9816667.50035031]
+ [ -9539868.1526982 ]
+ [ -9262989.54291176]
+ [ -8986034.52447545]]</t>
         </is>
       </c>
       <c r="E760" t="inlineStr"/>
@@ -20013,18 +20010,18 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>[[2938067.65759839]
- [2938679.71890037]
- [2939232.72894927]
- [2940536.03024847]
- [2941299.40375377]
- [2941900.21093532]
- [2939848.46445638]
- [2939785.4345262 ]
- [2939680.19035011]
- [2939272.728098  ]
- [2939337.5853792 ]
- [2939296.98419273]]</t>
+          <t>[[2938462.46782879]
+ [2939810.91765137]
+ [2941024.9152091 ]
+ [2941988.43129242]
+ [2943790.77317719]
+ [2945180.70636543]
+ [2942501.86412935]
+ [2942380.38623277]
+ [2942164.69694505]
+ [2940599.92966929]
+ [2940612.39012039]
+ [2940576.89768221]]</t>
         </is>
       </c>
       <c r="E761" t="inlineStr"/>
@@ -20047,18 +20044,18 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>[[8739.95187988]
- [8743.22861858]
- [8746.33035048]
- [8753.8320947 ]
- [8758.95865421]
- [8763.75261428]
- [8751.97351787]
- [8752.54784211]
- [8753.34918224]
- [8752.13570951]
- [8755.42394776]
- [8758.38280584]]</t>
+          <t>[[8742.04219395]
+ [8749.34297084]
+ [8756.24212618]
+ [8762.43708073]
+ [8774.48762966]
+ [8785.25437048]
+ [8769.89400267]
+ [8770.69966914]
+ [8771.49551553]
+ [8761.49724105]
+ [8763.33012122]
+ [8765.0037807 ]]</t>
         </is>
       </c>
       <c r="E762" t="inlineStr"/>
@@ -20081,18 +20078,18 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>[[-1886049.00940785]
- [-1783050.04317784]
- [-1679310.34906141]
- [-1530007.0847319 ]
- [-1379734.96458436]
- [-1228814.20722492]
- [-1138105.434574  ]
- [-1046984.41372236]
- [ -955198.49369868]
- [ -868643.12560939]
- [ -781145.2727949 ]
- [ -692941.9325765 ]]</t>
+          <t>[[-1974786.59044885]
+ [-1863252.93500534]
+ [-1749673.67097221]
+ [-1583111.60332594]
+ [-1411372.43943957]
+ [-1235922.22545725]
+ [-1129561.41762938]
+ [-1022219.04185209]
+ [ -913645.40876661]
+ [ -840589.85077611]
+ [ -766980.31427268]
+ [ -692940.93598255]]</t>
         </is>
       </c>
       <c r="E763" t="inlineStr"/>
@@ -20115,18 +20112,18 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>[[ 3.52283235e+08]
- [ 3.17876214e+08]
- [ 2.83338644e+08]
- [ 2.33819622e+08]
- [ 1.84166956e+08]
- [ 1.34454996e+08]
- [ 1.04635876e+08]
- [ 7.47964923e+07]
- [ 4.49311415e+07]
- [ 1.70379806e+07]
- [-1.08497787e+07]
- [-3.86931092e+07]]</t>
+          <t>[[ 3.64731401e+08]
+ [ 3.27834387e+08]
+ [ 2.90580696e+08]
+ [ 2.36664404e+08]
+ [ 1.81996552e+08]
+ [ 1.26899104e+08]
+ [ 9.37766509e+07]
+ [ 6.06192747e+07]
+ [ 2.74479803e+07]
+ [ 5.35829889e+06]
+ [-1.66963154e+07]
+ [-3.86931098e+07]]</t>
         </is>
       </c>
       <c r="E764" t="inlineStr"/>
@@ -20149,18 +20146,18 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>[[6203642.28913846]
- [6203572.2867292 ]
- [6203502.22497938]
- [6203503.4306265 ]
- [6203437.53419354]
- [6203370.0331283 ]
- [6203484.4236767 ]
- [6203540.46573815]
- [6203627.81044246]
- [6203837.91223762]
- [6203781.31240357]
- [6203724.69777438]]</t>
+          <t>[[6203833.00858089]
+ [6203758.71007843]
+ [6203684.3327132 ]
+ [6204303.44743803]
+ [6204196.09794962]
+ [6204088.61546411]
+ [6204038.41657644]
+ [6204098.88563249]
+ [6204178.9250367 ]
+ [6204195.086665  ]
+ [6204151.94768981]
+ [6204108.79696183]]</t>
         </is>
       </c>
       <c r="E765" t="inlineStr"/>
@@ -20184,17 +20181,17 @@
       <c r="D766" t="inlineStr">
         <is>
           <t>[[135.7193516 ]
- [155.74123287]
- [169.88212701]
- [181.04996942]
- [193.97594653]
- [204.63727934]
- [213.7833591 ]
- [218.72660661]
- [223.33944433]
- [227.66891335]
- [231.48712289]
- [235.11571637]
+ [156.69843521]
+ [171.33048609]
+ [182.82227714]
+ [196.0755203 ]
+ [206.97905056]
+ [216.31799319]
+ [221.36083569]
+ [226.06408979]
+ [230.47643609]
+ [233.27575427]
+ [235.97256769]
  [238.57517091]]</t>
         </is>
       </c>
@@ -20219,17 +20216,17 @@
       <c r="D767" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          26.61331002]
- [  0.           0.          38.22662005]
- [  0.           0.          49.83993007]
- [  0.           0.          66.43037296]
- [  0.           0.          83.02081585]
- [  0.           0.          99.61125874]
- [  0.           0.         109.56552448]
- [  0.           0.         119.51979021]
- [  0.           0.         129.47405594]
- [  0.           0.         138.76470396]
- [  0.           0.         148.05535198]
+ [  0.           0.          27.30150617]
+ [  0.           0.          39.60301235]
+ [  0.           0.          51.90451852]
+ [  0.           0.          69.47809877]
+ [  0.           0.          87.05167901]
+ [  0.           0.         104.62525926]
+ [  0.           0.         115.16940741]
+ [  0.           0.         125.71355556]
+ [  0.           0.         136.2577037 ]
+ [  0.           0.         143.2871358 ]
+ [  0.           0.         150.3165679 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -20253,7 +20250,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>[948395.22490771]</t>
+          <t>[948421.32607936]</t>
         </is>
       </c>
       <c r="E768" t="inlineStr"/>
@@ -20276,8 +20273,8 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>[4.16137377e+08 2.85204501e+08 2.66306106e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[4.16138017e+08 2.85204924e+08 2.66307067e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E769" t="inlineStr"/>
@@ -20300,7 +20297,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>[-6.7583112  -0.09586197  4.59784123]</t>
+          <t>[-6.75812851 -0.09586916  4.59772556]</t>
         </is>
       </c>
       <c r="E770" t="inlineStr"/>
@@ -20325,7 +20322,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-8.98577631e+06]]</t>
+ [-8.98603452e+06]]</t>
         </is>
       </c>
       <c r="E771" t="inlineStr"/>
@@ -20348,9 +20345,9 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>[[  -692939.78155346]
- [-38693034.48001503]
- [  6202666.24461834]]</t>
+          <t>[[  -692940.008576  ]
+ [-38693074.08051626]
+ [  6202665.53278366]]</t>
         </is>
       </c>
       <c r="E772" t="inlineStr"/>
@@ -20443,19 +20440,19 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>[[-1047.13901865]
- [-1206.50664157]
- [-1321.22751075]
- [-1413.18261726]
- [-1446.65041988]
- [-1453.75271996]
- [-1442.81867291]
- [-1283.91575302]
- [-1124.76298288]
- [ -962.19898835]
- [ -978.02680667]
- [ -993.06340443]
- [-1007.39507288]]</t>
+          <t>[[ -764.0675664 ]
+ [ -879.89721404]
+ [ -960.79254611]
+ [-1024.48836201]
+ [-1098.19816289]
+ [-1159.08690457]
+ [-1211.44283474]
+ [-1136.90215108]
+ [-1057.80219044]
+ [ -973.99389388]
+ [ -985.59734665]
+ [ -996.77327326]
+ [-1007.55661265]]</t>
         </is>
       </c>
       <c r="E775" t="inlineStr"/>
@@ -20478,7 +20475,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>[1640171.15491545]</t>
+          <t>[837385.85434863]</t>
         </is>
       </c>
       <c r="E776" t="inlineStr"/>
@@ -20501,7 +20498,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>[57.60673973]</t>
+          <t>[59.27445435]</t>
         </is>
       </c>
       <c r="E777" t="inlineStr"/>
@@ -20524,7 +20521,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>[7.76041372e+09 7.76041372e+09 3.98502607e+07 0.00000000e+00
+          <t>[4.35970457e+09 4.35970457e+09 1.22097354e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -20548,7 +20545,7 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
+          <t>[8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061]</t>
         </is>
       </c>
       <c r="E779" t="inlineStr"/>
@@ -20571,7 +20568,7 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>[0.09203567 0.0980167  0.10778075 0.10857512 0.11089775 0.11656972]</t>
+          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
         </is>
       </c>
       <c r="E780" t="inlineStr"/>
@@ -20590,8 +20587,7 @@
       <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr">
         <is>
-          <t>[0.         0.35294118 0.52941176 0.70588235 0.82352941 0.94117647
- 1.        ]</t>
+          <t>[0.   0.45 0.6  0.75 0.85 0.95 1.  ]</t>
         </is>
       </c>
       <c r="E781" t="inlineStr"/>
@@ -20614,7 +20610,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>[85.]</t>
+          <t>[100.]</t>
         </is>
       </c>
       <c r="E782" t="inlineStr"/>
@@ -20637,7 +20633,7 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
+          <t>[8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061]</t>
         </is>
       </c>
       <c r="E783" t="inlineStr"/>
@@ -20660,7 +20656,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>[0.09203567 0.0980167  0.10778075 0.10857512 0.11089775 0.11656972]</t>
+          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
         </is>
       </c>
       <c r="E784" t="inlineStr"/>
@@ -20813,8 +20809,7 @@
       <c r="C791" t="inlineStr"/>
       <c r="D791" t="inlineStr">
         <is>
-          <t>[0.         0.35294118 0.52941176 0.70588235 0.82352941 0.94117647
- 1.        ]</t>
+          <t>[0.   0.45 0.6  0.75 0.85 0.95 1.  ]</t>
         </is>
       </c>
       <c r="E791" t="inlineStr"/>
@@ -20833,7 +20828,7 @@
       <c r="C792" t="inlineStr"/>
       <c r="D792" t="inlineStr">
         <is>
-          <t>[0.35294118]</t>
+          <t>[0.45]</t>
         </is>
       </c>
       <c r="E792" t="inlineStr"/>
@@ -20899,7 +20894,7 @@
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>[2464665.646317]</t>
+          <t>[1637197.91099903]</t>
         </is>
       </c>
       <c r="E795" t="inlineStr"/>
@@ -20922,7 +20917,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>[5862278.31558027]</t>
+          <t>[4025651.55909389]</t>
         </is>
       </c>
       <c r="E796" t="inlineStr"/>
@@ -20945,7 +20940,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>[44.41473817]</t>
+          <t>[50.]</t>
         </is>
       </c>
       <c r="E797" t="inlineStr"/>
@@ -20968,7 +20963,7 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>[6.38224469e+09 6.38224469e+09 7.31841773e+07 0.00000000e+00
+          <t>[5.47361137e+09 5.47361137e+09 3.25699965e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -20992,7 +20987,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>[1640171.15491545]</t>
+          <t>[837385.85434863]</t>
         </is>
       </c>
       <c r="E799" t="inlineStr"/>
@@ -21015,7 +21010,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>[4179526.80596831]</t>
+          <t>[2317045.9191011]</t>
         </is>
       </c>
       <c r="E800" t="inlineStr"/>
@@ -21038,7 +21033,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>[85.]</t>
+          <t>[100.]</t>
         </is>
       </c>
       <c r="E801" t="inlineStr"/>
@@ -21084,7 +21079,7 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>[-70.]</t>
+          <t>[-85.]</t>
         </is>
       </c>
       <c r="E803" t="inlineStr"/>
@@ -21107,7 +21102,7 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>[11.]</t>
+          <t>[8.9902061]</t>
         </is>
       </c>
       <c r="E804" t="inlineStr"/>
@@ -22822,7 +22817,7 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>[11.         11.          9.56803396  5.999       5.999     ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E840" t="inlineStr"/>
@@ -22845,7 +22840,7 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>[0.055      0.05142008 0.04142008 0.035     ]</t>
+          <t>[0.04345593 0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E841" t="inlineStr"/>
@@ -22864,7 +22859,7 @@
       <c r="C842" t="inlineStr"/>
       <c r="D842" t="inlineStr">
         <is>
-          <t>[0.         0.24475524 0.59440559 0.8041958  1.        ]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E842" t="inlineStr"/>
@@ -22910,7 +22905,7 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>[11.         11.          9.56803396  5.999       5.999     ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E844" t="inlineStr"/>
@@ -22933,7 +22928,7 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>[0.055      0.05142008 0.04142008 0.035     ]</t>
+          <t>[0.04345593 0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E845" t="inlineStr"/>
@@ -23086,7 +23081,7 @@
       <c r="C852" t="inlineStr"/>
       <c r="D852" t="inlineStr">
         <is>
-          <t>[0.         0.24475524 0.59440559 0.8041958  1.        ]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E852" t="inlineStr"/>
@@ -24264,9 +24259,9 @@
       <c r="D886" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          49.83993007]
- [  0.           0.          99.61125874]
- [  0.           0.         129.47405594]
+ [  0.           0.          51.90451852]
+ [  0.           0.         104.62525926]
+ [  0.           0.         136.2577037 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -24526,7 +24521,7 @@
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>[0.00718846]</t>
+          <t>[0.00718672]</t>
         </is>
       </c>
       <c r="E897" t="inlineStr"/>
@@ -24618,7 +24613,7 @@
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>[0.02944534]</t>
+          <t>[0.02944651]</t>
         </is>
       </c>
       <c r="E901" t="inlineStr"/>
@@ -25252,7 +25247,7 @@
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>[0.00311439]</t>
+          <t>[0.00311352]</t>
         </is>
       </c>
       <c r="E929" t="inlineStr"/>
@@ -25275,7 +25270,7 @@
       </c>
       <c r="D930" t="inlineStr">
         <is>
-          <t>[0.00090783]</t>
+          <t>[0.0009076]</t>
         </is>
       </c>
       <c r="E930" t="inlineStr"/>
@@ -27122,7 +27117,7 @@
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>[0.     4.8745 1.875 ]</t>
+          <t>[0.    4.875 1.875]</t>
         </is>
       </c>
       <c r="E1010" t="inlineStr"/>
@@ -27191,7 +27186,7 @@
       </c>
       <c r="D1013" t="inlineStr">
         <is>
-          <t>[ 0.     -4.8745  1.875 ]</t>
+          <t>[ 0.    -4.875  1.875]</t>
         </is>
       </c>
       <c r="E1013" t="inlineStr"/>
@@ -27237,7 +27232,7 @@
       </c>
       <c r="D1015" t="inlineStr">
         <is>
-          <t>[25227.95426345]</t>
+          <t>[25235.35209761]</t>
         </is>
       </c>
       <c r="E1015" t="inlineStr"/>
@@ -27306,7 +27301,7 @@
       </c>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>[33949.45548704]</t>
+          <t>[33954.33597653]</t>
         </is>
       </c>
       <c r="E1018" t="inlineStr"/>
@@ -27329,7 +27324,7 @@
       </c>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>[-0.88537221  0.          2.40318707]</t>
+          <t>[-0.88533715  0.          2.40314516]</t>
         </is>
       </c>
       <c r="E1019" t="inlineStr"/>
@@ -27352,8 +27347,8 @@
       </c>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>[388014.25589214 426867.9023198  247893.0889835       0.
-  87517.08492439      0.        ]</t>
+          <t>[388100.94902959 426951.50388173 247988.45095814      0.
+  87515.58729723      0.        ]</t>
         </is>
       </c>
       <c r="E1020" t="inlineStr"/>
@@ -27445,7 +27440,7 @@
       </c>
       <c r="D1024" t="inlineStr">
         <is>
-          <t>[41458.177152]</t>
+          <t>[41472.]</t>
         </is>
       </c>
       <c r="E1024" t="inlineStr"/>
@@ -27491,7 +27486,7 @@
       </c>
       <c r="D1026" t="inlineStr">
         <is>
-          <t>[497337.83469174 497337.83469174 994664.61386957]</t>
+          <t>[497669.5296 497669.5296 995328.    ]</t>
         </is>
       </c>
       <c r="E1026" t="inlineStr"/>
@@ -27677,8 +27672,8 @@
       </c>
       <c r="D1034" t="inlineStr">
         <is>
-          <t>[-2.9995     -3.00741147 -3.03098483 -3.06974018 -3.12288859 -3.18934811
- -3.2677658  -3.35654532 -3.45387936 -3.55778649 -3.66615146 -3.77676827]</t>
+          <t>[-3.         -3.00790638 -3.03146457 -3.070195   -3.12330922 -3.18972598
+ -3.26809323 -3.35681564 -3.45408707 -3.55792736 -3.66622262 -3.77676827]</t>
         </is>
       </c>
       <c r="E1034" t="inlineStr"/>
@@ -27725,8 +27720,8 @@
       </c>
       <c r="D1036" t="inlineStr">
         <is>
-          <t>[ 2.9995      2.93052736  2.72501352  2.38714216  1.92379135  1.34439359
-  0.66074374 -0.11324105 -0.9618047  -1.86767288 -2.81240475 -3.77676827]</t>
+          <t>[ 3.          2.93102227  2.72549327  2.38759697  1.92421198  1.34477147
+  0.66107117 -0.11297073 -0.96159699 -1.86753202 -2.81233359 -3.77676827]</t>
         </is>
       </c>
       <c r="E1036" t="inlineStr"/>
@@ -27773,8 +27768,8 @@
       </c>
       <c r="D1038" t="inlineStr">
         <is>
-          <t>[5.999      5.9461874  5.78927314 5.53288369 5.18494688 4.75714325
- 4.26586323 3.73421034 3.19612251 2.70412972 2.3389862  2.2       ]</t>
+          <t>[6.         5.94717584 5.79022711 5.53378083 5.1857657  4.75786351
+ 4.26646632 3.73467992 3.19644643 2.70430582 2.33903815 2.2       ]</t>
         </is>
       </c>
       <c r="E1038" t="inlineStr"/>
@@ -27989,7 +27984,7 @@
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t>[136801.54355707]</t>
+          <t>[136822.76423923]</t>
         </is>
       </c>
       <c r="E1047" t="inlineStr"/>
@@ -28127,7 +28122,7 @@
       </c>
       <c r="D1053" t="inlineStr">
         <is>
-          <t>[654746.91928556]</t>
+          <t>[654773.0204572]</t>
         </is>
       </c>
       <c r="E1053" t="inlineStr"/>
@@ -28150,7 +28145,7 @@
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>[-3.85552185 -0.13885522  4.08556732]</t>
+          <t>[-3.85537294 -0.13886393  4.08542019]</t>
         </is>
       </c>
       <c r="E1054" t="inlineStr"/>
@@ -28173,8 +28168,8 @@
       </c>
       <c r="D1055" t="inlineStr">
         <is>
-          <t>[2.01661599e+07 2.92791485e+07 1.79410345e+07 5.41253411e+02
- 1.20568495e+07 1.69892134e+05]</t>
+          <t>[2.01667992e+07 2.92795715e+07 1.79419955e+07 5.41567843e+02
+ 1.20568466e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E1055" t="inlineStr"/>
@@ -30723,7 +30718,7 @@
       </c>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>[0.08906196]</t>
+          <t>[0.08536261]</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
@@ -30800,7 +30795,7 @@
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>[-218.41918541]</t>
+          <t>[-201.9500142]</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
@@ -30827,7 +30822,7 @@
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>[-0.04906196]</t>
+          <t>[-0.04536261]</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr">
@@ -30854,7 +30849,7 @@
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>[0.12006196]</t>
+          <t>[0.11636261]</t>
         </is>
       </c>
       <c r="E1135" t="inlineStr">
@@ -30877,7 +30872,7 @@
       <c r="C1136" t="inlineStr"/>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>[0.44912552]</t>
+          <t>[0.46858924]</t>
         </is>
       </c>
       <c r="E1136" t="inlineStr">
@@ -30900,7 +30895,7 @@
       <c r="C1137" t="inlineStr"/>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>[2.22654906]</t>
+          <t>[2.13406521]</t>
         </is>
       </c>
       <c r="E1137" t="inlineStr">
@@ -30923,7 +30918,7 @@
       <c r="C1138" t="inlineStr"/>
       <c r="D1138" t="inlineStr">
         <is>
-          <t>[-0.55087448]</t>
+          <t>[-0.53141076]</t>
         </is>
       </c>
       <c r="E1138" t="inlineStr">
@@ -30946,7 +30941,7 @@
       <c r="C1139" t="inlineStr"/>
       <c r="D1139" t="inlineStr">
         <is>
-          <t>[-1.22654906]</t>
+          <t>[-1.13406521]</t>
         </is>
       </c>
       <c r="E1139" t="inlineStr">
@@ -30973,7 +30968,7 @@
       </c>
       <c r="D1140" t="inlineStr">
         <is>
-          <t>[0.15808498]</t>
+          <t>[0.15151863]</t>
         </is>
       </c>
       <c r="E1140" t="inlineStr">
@@ -31000,7 +30995,7 @@
       </c>
       <c r="D1141" t="inlineStr">
         <is>
-          <t>[7.63635162e+08]</t>
+          <t>[6.61666514e+08]</t>
         </is>
       </c>
       <c r="E1141" t="inlineStr">
@@ -31027,7 +31022,7 @@
       </c>
       <c r="D1142" t="inlineStr">
         <is>
-          <t>[2.08188516e+09]</t>
+          <t>[1.97991651e+09]</t>
         </is>
       </c>
       <c r="E1142" t="inlineStr">
@@ -31054,7 +31049,7 @@
       </c>
       <c r="D1143" t="inlineStr">
         <is>
-          <t>[3469.80860308]</t>
+          <t>[3299.86085731]</t>
         </is>
       </c>
       <c r="E1143" t="inlineStr">
@@ -31081,7 +31076,7 @@
       </c>
       <c r="D1144" t="inlineStr">
         <is>
-          <t>[11038.52798688]</t>
+          <t>[8776.95332022]</t>
         </is>
       </c>
       <c r="E1144" t="inlineStr">
@@ -31108,7 +31103,7 @@
       </c>
       <c r="D1145" t="inlineStr">
         <is>
-          <t>[2.47741103e+08]</t>
+          <t>[2.20765526e+08]</t>
         </is>
       </c>
       <c r="E1145" t="inlineStr">
@@ -31135,11 +31130,11 @@
       </c>
       <c r="D1146" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          30974.55430283
-  31871.91514184  34620.99320849  39398.548849    46516.76572879
-  56446.05467055  69875.24006445  81254.77857179  95051.02579361
- 111836.96771038    729.034078      860.2225698     948.63159706
-    984.81958944   1017.40298746   1047.13901865]</t>
+          <t>[    0.             0.             0.         20768.78630014
+ 21373.19994564 23230.01032265 26477.60742298 31328.2414679
+ 38112.97318345 47307.98900671 55106.41653762 64559.6469447
+ 76048.53143189   599.90550361   706.26986106   777.10854538
+   805.91904803   831.77086345   855.29172331]</t>
         </is>
       </c>
       <c r="E1146" t="inlineStr"/>
@@ -31389,11 +31384,11 @@
       </c>
       <c r="D1156" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          30974.55430283
-  31871.91514184  34620.99320849  39398.548849    46516.76572879
-  56446.05467055  69875.24006445  81254.77857179  95051.02579361
- 111836.96771038      0.              0.              0.
-      0.              0.              0.        ]</t>
+          <t>[    0.             0.             0.         20768.78630014
+ 21373.19994564 23230.01032265 26477.60742298 31328.2414679
+ 38112.97318345 47307.98900671 55106.41653762 64559.6469447
+ 76048.53143189     0.             0.             0.
+     0.             0.             0.        ]</t>
         </is>
       </c>
       <c r="E1156" t="inlineStr"/>
@@ -31515,7 +31510,7 @@
       </c>
       <c r="D1161" t="inlineStr">
         <is>
-          <t>[-70.         -60.         -50.         -40.         -35.
+          <t>[-85.         -70.         -55.         -40.         -35.
  -30.         -25.         -20.         -15.         -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -31590,10 +31585,10 @@
       </c>
       <c r="D1164" t="inlineStr">
         <is>
-          <t>[   0.            0.            0.            0.            0.
-    0.            0.            0.            0.            0.
-    0.            0.            0.          729.034078    860.2225698
-  948.63159706  984.81958944 1017.40298746 1047.13901865]</t>
+          <t>[  0.           0.           0.           0.           0.
+   0.           0.           0.           0.           0.
+   0.           0.           0.         599.90550361 706.26986106
+ 777.10854538 805.91904803 831.77086345 855.29172331]</t>
         </is>
       </c>
       <c r="E1164" t="inlineStr"/>
@@ -31688,7 +31683,7 @@
       </c>
       <c r="D1168" t="inlineStr">
         <is>
-          <t>[-70.         -60.         -50.         -40.         -35.
+          <t>[-85.         -70.         -55.         -40.         -35.
  -30.         -25.         -20.         -15.         -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -31783,11 +31778,11 @@
       </c>
       <c r="D1172" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -30974.55430283
-  -31871.91514184  -34620.99320849  -39398.548849    -46516.76572879
-  -56446.05467055  -69875.24006445  -81254.77857179  -95051.02579361
- -111836.96771038    -729.034078      -860.2225698     -948.63159706
-    -984.81958944   -1017.40298746   -1047.13901865]</t>
+          <t>[     0.              0.              0.         -20768.78630014
+ -21373.19994564 -23230.01032265 -26477.60742298 -31328.2414679
+ -38112.97318345 -47307.98900671 -55106.41653762 -64559.6469447
+ -76048.53143189   -599.90550361   -706.26986106   -777.10854538
+   -805.91904803   -831.77086345   -855.29172331]</t>
         </is>
       </c>
       <c r="E1172" t="inlineStr"/>
@@ -31837,11 +31832,11 @@
       </c>
       <c r="D1174" t="inlineStr">
         <is>
-          <t>[10.         10.         10.          5.          5.          5.
+          <t>[15.         15.         15.          5.          5.          5.
   5.          5.          5.          3.33333333  3.33333333  3.33333333
   3.33333333  3.33333333  3.33333333  1.66666667  1.66666667  1.66666667
- 11.61331002 11.61331002 11.61331002 16.59044289 16.59044289 16.59044289
-  9.95426573  9.95426573  9.95426573  9.29064802  9.29064802  9.29064802]</t>
+ 12.30150617 12.30150617 12.30150617 17.57358025 17.57358025 17.57358025
+ 10.54414815 10.54414815 10.54414815  7.0294321   7.0294321   7.0294321 ]</t>
         </is>
       </c>
       <c r="E1174" t="inlineStr"/>
@@ -31864,7 +31859,7 @@
       </c>
       <c r="D1175" t="inlineStr">
         <is>
-          <t>[0.23055864]</t>
+          <t>[0.13673881]</t>
         </is>
       </c>
       <c r="E1175" t="inlineStr"/>
@@ -31887,7 +31882,7 @@
       </c>
       <c r="D1176" t="inlineStr">
         <is>
-          <t>[0.23159752]</t>
+          <t>[0.1374459]</t>
         </is>
       </c>
       <c r="E1176" t="inlineStr"/>
@@ -31910,7 +31905,7 @@
       </c>
       <c r="D1177" t="inlineStr">
         <is>
-          <t>[0.23055864 0.23159752 0.95835348 1.00467196 1.04306542 1.83562127]</t>
+          <t>[0.13673881 0.1374459  0.67265563 0.76470546 0.83728538 1.4961114 ]</t>
         </is>
       </c>
       <c r="E1177" t="inlineStr"/>
@@ -31933,7 +31928,7 @@
       </c>
       <c r="D1178" t="inlineStr">
         <is>
-          <t>[0.23159752 1.04306542 1.98266949]</t>
+          <t>[0.1374459  0.83728538 1.60970893]</t>
         </is>
       </c>
       <c r="E1178" t="inlineStr"/>
@@ -31956,7 +31951,7 @@
       </c>
       <c r="D1179" t="inlineStr">
         <is>
-          <t>[0.23055864 0.95835348 1.83562127]</t>
+          <t>[0.13673881 0.76470546 1.4961114 ]</t>
         </is>
       </c>
       <c r="E1179" t="inlineStr"/>
@@ -31979,7 +31974,7 @@
       </c>
       <c r="D1180" t="inlineStr">
         <is>
-          <t>[4.69125699 0.         0.        ]</t>
+          <t>[3.95439035 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1180" t="inlineStr"/>
@@ -31998,9 +31993,9 @@
       <c r="C1181" t="inlineStr"/>
       <c r="D1181" t="inlineStr">
         <is>
-          <t>[[  0.99329652   0.33219264  -1.07770079   1.2265672   -0.47435557]
- [ -2.76107202   1.11362206   8.06039596 -10.95374648   5.54080048]
- [ -5.88750246   7.58960772  14.714815   -10.61280728  -4.80411298]]</t>
+          <t>[[  0.65632324   0.74231376  -1.05840823   1.5038438   -0.84407257]
+ [ -3.94047789  -2.21770066  16.87489215 -14.11023058   4.39351698]
+ [ -6.9234378    0.85213848  45.016608   -50.01599593  12.07068726]]</t>
         </is>
       </c>
       <c r="E1181" t="inlineStr"/>
@@ -32019,9 +32014,12 @@
       <c r="C1182" t="inlineStr"/>
       <c r="D1182" t="inlineStr">
         <is>
-          <t>[[  0.98590621   0.33060663  -1.05018489   1.17734568  -0.44367362]
- [ -2.75345328   0.86394081   8.65227994 -12.63152114   6.86875368]
- [ -5.01087228   5.91357103  10.91773989  -6.07722208  -4.74321656]]</t>
+          <t>[[ 6.52270946e-01  7.38874176e-01 -1.04528041e+00  1.48967460e+00
+  -8.35539313e-01]
+ [-3.98334005e+00 -2.42101488e+00  1.64629141e+01 -1.39990420e+01
+   4.94048283e+00]
+ [-6.19414607e+00  1.55733113e-02  3.79033138e+01 -3.92127531e+01
+   8.48801210e+00]]</t>
         </is>
       </c>
       <c r="E1182" t="inlineStr"/>
@@ -32040,77 +32038,74 @@
       <c r="C1183" t="inlineStr"/>
       <c r="D1183" t="inlineStr">
         <is>
-          <t>[[-5.24813518 12.21280172 -2.94961759 -6.41743146  3.40238252]
+          <t>[[ -0.77588423   0.57480478  10.6507855  -14.82893717   5.37923112]
+ [  0.           0.           0.           0.           0.        ]
+ [  0.           0.           0.           0.           0.        ]]</t>
+        </is>
+      </c>
+      <c r="E1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>fixedse.tower_fore_aft_modes</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr"/>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>[[ 0.80940124  0.13810553  0.08847083 -0.01737727 -0.01860033]
+ [ 5.07806538  0.49967634 -9.03326811  5.9566871  -1.50116072]
+ [-1.56251517  0.22018274  6.94196458 -5.96995267  1.37032052]]</t>
+        </is>
+      </c>
+      <c r="E1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>fixedse.tower_side_side_modes</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr"/>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>[[ 0.80735463  0.13789117  0.09224346 -0.0199392  -0.01755005]
+ [ 3.8696323   0.41295342 -6.30139808  4.12919755 -1.11038518]
+ [-2.04016058  0.16484548  7.93548717 -6.49708151  1.43690944]]</t>
+        </is>
+      </c>
+      <c r="E1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>fixedse.tower_torsion_modes</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr"/>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>[[-0.09062893  0.19085142  3.28621364 -3.29566114  0.90922501]
  [ 0.          0.          0.          0.          0.        ]
  [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
       </c>
-      <c r="E1183" t="inlineStr"/>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>fixedse.tower_fore_aft_modes</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr">
-        <is>
-          <t>[[ 1.03295168e+00  5.83672350e-02 -2.69792257e-01  2.49725504e-01
-  -7.12521592e-02]
- [-3.90680479e+02  9.71442086e+01  7.86406062e+02 -7.67843429e+02
-   2.75973637e+02]
- [-8.42763729e-01  6.79902686e-01  3.65148254e+00 -2.90959953e+00
-   4.20978038e-01]]</t>
-        </is>
-      </c>
-      <c r="E1184" t="inlineStr"/>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>fixedse.tower_side_side_modes</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr">
-        <is>
-          <t>[[  1.03036769   0.05903765  -0.26225202   0.23875544  -0.06590876]
- [ 13.39651526  -2.99287954 -26.02506518  27.0091966  -10.38776713]
- [ -1.05963848   0.70394456   3.86341232  -2.88993402   0.38221562]]</t>
-        </is>
-      </c>
-      <c r="E1185" t="inlineStr"/>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>fixedse.tower_torsion_modes</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr">
-        <is>
-          <t>[[-1.27540187  2.08101997  3.20067416 -4.52538155  1.5190893 ]
- [ 0.          0.          0.          0.          0.        ]
- [ 0.          0.          0.          0.          0.        ]]</t>
-        </is>
-      </c>
       <c r="E1186" t="inlineStr"/>
     </row>
     <row r="1187">
@@ -32131,37 +32126,37 @@
       </c>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>[[2.25568911e-04]
- [4.05571304e-04]
- [6.78321793e-05]
- [3.59043268e-03]
- [7.48076156e-03]
- [1.25760134e-02]
- [1.88412357e-02]
- [2.61835390e-02]
- [3.45286526e-02]
- [4.38444904e-02]
- [5.05765829e-02]
- [5.77134037e-02]
- [6.52454877e-02]
- [7.31583131e-02]
- [8.14398213e-02]
- [9.00807444e-02]
- [9.45297009e-02]
- [9.90609557e-02]
- [1.03673404e-01]
- [1.40218091e-01]
- [1.84088319e-01]
- [2.34501586e-01]
- [3.17146730e-01]
- [4.11354088e-01]
- [5.15633520e-01]
- [5.82854060e-01]
- [6.53978402e-01]
- [7.28873105e-01]
- [8.00830208e-01]
- [8.71312731e-01]
- [9.38885433e-01]]</t>
+          <t>[[3.11145447e-05]
+ [2.79641588e-04]
+ [8.61278250e-04]
+ [6.54156153e-03]
+ [1.52818327e-02]
+ [2.72796649e-02]
+ [4.24450324e-02]
+ [6.06874655e-02]
+ [8.19160990e-02]
+ [1.06039722e-01]
+ [1.23685252e-01]
+ [1.42549605e-01]
+ [1.62605572e-01]
+ [1.83825910e-01]
+ [2.06183383e-01]
+ [2.29650742e-01]
+ [2.41792079e-01]
+ [2.54200648e-01]
+ [2.66873034e-01]
+ [3.77277918e-01]
+ [5.16757266e-01]
+ [6.82150736e-01]
+ [9.73575762e-01]
+ [1.32894710e+00]
+ [1.73195120e+00]
+ [1.99053603e+00]
+ [2.25916550e+00]
+ [2.53496199e+00]
+ [2.72003589e+00]
+ [2.90331741e+00]
+ [3.08389499e+00]]</t>
         </is>
       </c>
       <c r="E1187" t="inlineStr"/>
@@ -32184,7 +32179,7 @@
       </c>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>[0.93888543]</t>
+          <t>[3.08389499]</t>
         </is>
       </c>
       <c r="E1188" t="inlineStr"/>
@@ -32207,24 +32202,24 @@
       </c>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>[[-50329643.30270104]
- [-47748366.2228398 ]
- [-45013765.10318334]
- [-43484461.80591929]
- [-41946133.57619065]
- [-40389176.91163276]
- [-38667282.61905506]
- [-36903195.74626727]
- [-35081296.64621539]
- [-33818421.04292618]
- [-32514005.40117486]
- [-31159129.15077772]
- [-29938424.04147975]
- [-28900830.55615889]
- [-27862874.73471122]
- [-27317610.0777407 ]
- [-26772288.68429511]
- [-26226915.87739849]]</t>
+          <t>[[-33720176.96010169]
+ [-31311941.66594557]
+ [-28749498.12354099]
+ [-27842451.61817979]
+ [-26929313.57731113]
+ [-26003542.13146065]
+ [-25057727.55630432]
+ [-24083115.44846851]
+ [-23068953.48024233]
+ [-22364806.31367043]
+ [-21632193.91469692]
+ [-20865027.00997285]
+ [-20203393.69122381]
+ [-19666075.10332028]
+ [-19128464.13026455]
+ [-18859576.43317311]
+ [-18590643.6396399 ]
+ [-18321670.11364589]]</t>
         </is>
       </c>
       <c r="E1189" t="inlineStr"/>
@@ -32247,24 +32242,24 @@
       </c>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>[[ -5089944.38226861]
- [-11716909.03212076]
- [-11030350.76792041]
- [  2938308.21996103]
- [  2938496.46016135]
- [  2938687.11767034]
- [  2938974.50317633]
- [  2939180.45077482]
- [  2939402.8851696 ]
- [  2938984.47112549]
- [  2939104.41875504]
- [  2939237.22432337]
- [  2939235.83287519]
- [  2939001.809666  ]
- [  2939058.24999067]
- [  2938440.71155204]
- [  2938454.25307322]
- [  2938467.60900756]]</t>
+          <t>[[  -970518.86981573]
+ [ -7081831.40683825]
+ [-17861628.64678424]
+ [  2938506.21527255]
+ [  2938808.02131068]
+ [  2939114.75498034]
+ [  2939433.72061068]
+ [  2939773.79143495]
+ [  2940146.44353985]
+ [  2939569.92561599]
+ [  2939776.99294014]
+ [  2940009.03037824]
+ [  2939953.73297005]
+ [  2939514.7751677 ]
+ [  2939605.32984768]
+ [  2938692.35862241]
+ [  2938714.08786309]
+ [  2938735.53155286]]</t>
         </is>
       </c>
       <c r="E1190" t="inlineStr"/>
@@ -32287,24 +32282,24 @@
       </c>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>[[-23287.63262207]
- [-54122.63251306]
- [-52895.52270061]
- [  8740.85393154]
- [  8741.72464483]
- [  8742.6149574 ]
- [  8743.9591228 ]
- [  8744.93837363]
- [  8746.00462817]
- [  8744.09049686]
- [  8744.67203376]
- [  8745.31833132]
- [  8745.33809018]
- [  8744.25865345]
- [  8744.54895548]
- [  8741.63053445]
- [  8741.70135802]
- [  8741.77161402]]</t>
+          <t>[[ -4455.93291543]
+ [-32651.33310082]
+ [-84072.12032451]
+ [  8741.78806373]
+ [  8743.19452933]
+ [  8744.63712998]
+ [  8746.15068529]
+ [  8747.77805122]
+ [  8749.57520473]
+ [  8746.91136115]
+ [  8747.92092309]
+ [  8749.05642433]
+ [  8748.83315142]
+ [  8746.77602065]
+ [  8747.24256863]
+ [  8742.87865511]
+ [  8742.99237795]
+ [  8743.10521257]]</t>
         </is>
       </c>
       <c r="E1191" t="inlineStr"/>
@@ -32327,24 +32322,24 @@
       </c>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>[[ -275762.11164063]
- [-1143424.12663609]
- [-2125345.38468634]
- [-2379994.39382691]
- [-2335298.21325612]
- [-2290408.12159996]
- [-2245356.33472044]
- [-2200177.12362653]
- [-2154892.393621  ]
- [-2124665.17133141]
- [-2094410.06312103]
- [-2064134.27696163]
- [-2033846.44549708]
- [-2003547.84902301]
- [-1973236.40322505]
- [-1958083.20204026]
- [-1942929.84262595]
- [-1927776.81567034]]</t>
+          <t>[[  -29315.28237601]
+ [ -423141.50748723]
+ [-2222066.15256737]
+ [-2535706.12688494]
+ [-2490482.41307623]
+ [-2444907.34277472]
+ [-2399016.33078865]
+ [-2352845.36919272]
+ [-2306431.56404319]
+ [-2275387.66024745]
+ [-2244267.23089611]
+ [-2213082.89605936]
+ [-2181848.60933004]
+ [-2150563.80483707]
+ [-2119223.87073065]
+ [-2103543.48506359]
+ [-2087852.51433761]
+ [-2072151.79674863]]</t>
         </is>
       </c>
       <c r="E1192" t="inlineStr"/>
@@ -32367,24 +32362,24 @@
       </c>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>[[6.13038874e+07]
- [2.52185501e+08]
- [4.63252372e+08]
- [5.14327445e+08]
- [4.99417317e+08]
- [4.84465951e+08]
- [4.69480838e+08]
- [4.54469593e+08]
- [4.39437248e+08]
- [4.29408653e+08]
- [4.19374923e+08]
- [4.09337651e+08]
- [3.99298719e+08]
- [3.89258406e+08]
- [3.79216302e+08]
- [3.74196141e+08]
- [3.69176171e+08]
- [3.64156498e+08]]</t>
+          <t>[[6.43397751e+06]
+ [9.27831964e+07]
+ [4.80625877e+08]
+ [5.43950598e+08]
+ [5.28927985e+08]
+ [5.13831029e+08]
+ [4.98668101e+08]
+ [4.83447600e+08]
+ [4.68178071e+08]
+ [4.57978551e+08]
+ [4.47764282e+08]
+ [4.37538057e+08]
+ [4.27302919e+08]
+ [4.17058842e+08]
+ [4.06804959e+08]
+ [4.01676507e+08]
+ [3.96546301e+08]
+ [3.91414528e+08]]</t>
         </is>
       </c>
       <c r="E1193" t="inlineStr"/>
@@ -32407,24 +32402,24 @@
       </c>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>[[1086362.901555  ]
- [2342258.19312098]
- [3963692.08073939]
- [6203646.59192384]
- [6203613.28039632]
- [6203579.77264721]
- [6203466.8805668 ]
- [6203432.74318302]
- [6203397.76970066]
- [6203356.6124029 ]
- [6203331.75750126]
- [6203306.08525113]
- [6203266.70468932]
- [6203243.17858719]
- [6203223.18165361]
- [6203177.31620938]
- [6203167.31394686]
- [6203157.31067578]]</t>
+          <t>[[ 809048.28972644]
+ [1866674.30402192]
+ [3497845.66347414]
+ [6203737.0616969 ]
+ [6203703.24930973]
+ [6203669.21021791]
+ [6203634.70057138]
+ [6203599.44418085]
+ [6203563.11474644]
+ [6203525.31151156]
+ [6203499.06445561]
+ [6203471.75659512]
+ [6203443.16098568]
+ [6203418.49927853]
+ [6203398.47142044]
+ [6203378.43279359]
+ [6203368.41046441]
+ [6203358.38648666]]</t>
         </is>
       </c>
       <c r="E1194" t="inlineStr"/>
@@ -32447,9 +32442,9 @@
       </c>
       <c r="D1195" t="inlineStr">
         <is>
-          <t>[[ 2.93830822e+06]
- [ 8.74085393e+03]
- [-4.50137651e+07]]</t>
+          <t>[[ 2.93850622e+06]
+ [ 8.74178806e+03]
+ [-2.87494981e+07]]</t>
         </is>
       </c>
       <c r="E1195" t="inlineStr"/>
@@ -32472,9 +32467,9 @@
       </c>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>[[-2.42447495e+06]
- [ 5.29191127e+08]
- [ 6.20364659e+06]]</t>
+          <t>[[-2.58054320e+06]
+ [ 5.58890438e+08]
+ [ 6.20373706e+06]]</t>
         </is>
       </c>
       <c r="E1196" t="inlineStr"/>
@@ -32497,12 +32492,12 @@
       </c>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>[-70.         -60.         -50.         -40.         -35.
+          <t>[-85.         -70.         -55.         -40.         -35.
  -30.         -25.         -20.         -15.         -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
-  10.          11.66666667  13.33333333  15.          26.61331002
-  38.22662005  49.83993007  66.43037296  83.02081585  99.61125874
- 109.56552448 119.51979021 129.47405594 138.76470396 148.05535198
+  10.          11.66666667  13.33333333  15.          27.30150617
+  39.60301235  51.90451852  69.47809877  87.05167901 104.62525926
+ 115.16940741 125.71355556 136.2577037  143.2871358  150.3165679
  157.346     ]</t>
         </is>
       </c>
@@ -32526,12 +32521,12 @@
       </c>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         10.52267799 10.04535597
-  9.56803396  8.37835597  7.18867799  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.9902061  8.9902061  8.9902061  8.9902061  8.9902061  8.9902061
+ 8.9902061  8.9902061  8.9902061  8.9902061  8.9902061  8.9902061
+ 8.9902061  8.9902061  8.9902061  8.9902061  8.9902061  8.9902061
+ 8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E1198" t="inlineStr"/>
@@ -32554,11 +32549,11 @@
       </c>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>[0.09203567 0.09203567 0.09203567 0.0980167  0.0980167  0.0980167
- 0.10778075 0.10778075 0.10778075 0.10857512 0.10857512 0.10857512
- 0.11089775 0.11089775 0.11089775 0.11656972 0.11656972 0.11656972
- 0.055      0.055      0.055      0.05142008 0.05142008 0.05142008
- 0.04142008 0.04142008 0.04142008 0.035      0.035      0.035     ]</t>
+          <t>[0.07       0.07       0.07       0.07       0.07       0.07
+ 0.07       0.07       0.07       0.07       0.07       0.07
+ 0.07       0.07       0.07       0.07       0.07       0.07
+ 0.04345593 0.04345593 0.04345593 0.025      0.025      0.025
+ 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E1199" t="inlineStr"/>
@@ -32657,11 +32652,11 @@
       </c>
       <c r="D1203" t="inlineStr">
         <is>
-          <t>[3.37468731 3.37468731 3.37468731 3.59202411 3.59202411 3.59202411
- 3.94631012 3.94631012 3.94631012 3.97510563 3.97510563 3.97510563
- 4.05927478 4.05927478 4.05927478 4.26466767 4.26466767 4.26466767
- 2.02354145 2.02354145 2.02354145 1.85119693 1.76869238 1.68618783
- 1.24360484 1.07796147 0.91231809 0.70168037 0.70168037 0.70168037]</t>
+          <t>[2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168
+ 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168
+ 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168
+ 1.16227031 1.16227031 1.16227031 0.67019989 0.67019989 0.67019989
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E1203" t="inlineStr"/>
@@ -32684,11 +32679,11 @@
       </c>
       <c r="D1204" t="inlineStr">
         <is>
-          <t>[1.92231659 1.92231659 1.92231659 2.04664209 2.04664209 2.04664209
- 2.24945144 2.24945144 2.24945144 2.26594316 2.26594316 2.26594316
- 2.31415522 2.31415522 2.31415522 2.43184703 2.43184703 2.43184703
- 1.15086843 1.15086843 1.15086843 1.05274268 1.00592563 0.95910876
- 0.70716361 0.61316971 0.51917716 0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
+ 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
+ 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
+ 0.66116003 0.66116003 0.66116003 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E1204" t="inlineStr"/>
@@ -32711,11 +32706,11 @@
       </c>
       <c r="D1205" t="inlineStr">
         <is>
-          <t>[1.92231659 1.92231659 1.92231659 2.04664209 2.04664209 2.04664209
- 2.24945144 2.24945144 2.24945144 2.26594316 2.26594316 2.26594316
- 2.31415522 2.31415522 2.31415522 2.43184703 2.43184703 2.43184703
- 1.15086843 1.15086843 1.15086843 1.05274268 1.00592563 0.95910876
- 0.70716361 0.61316971 0.51917716 0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
+ 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
+ 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
+ 0.66116003 0.66116003 0.66116003 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E1205" t="inlineStr"/>
@@ -32738,12 +32733,11 @@
       </c>
       <c r="D1206" t="inlineStr">
         <is>
-          <t>[100.39033013 100.39033013 100.39033013 106.73955304 106.73955304
- 106.73955304 117.0594532  117.0594532  117.0594532  117.89658903
- 117.89658903 117.89658903 120.34211883 120.34211883 120.34211883
- 126.30095107 126.30095107 126.30095107  60.60306831  60.60306831
-  60.60306831  53.08538919  46.29936248  40.11779427  24.80317554
-  16.15373223   9.79280171   6.23978412   6.23978412   6.23978412]</t>
+          <t>[41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572
+ 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572
+ 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572
+ 18.39539232 18.39539232 18.39539232 10.65638765 10.65638765 10.65638765
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E1206" t="inlineStr"/>
@@ -32766,11 +32760,11 @@
       </c>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>[50.19516507 50.19516507 50.19516507 53.36977652 53.36977652 53.36977652
- 58.5297266  58.5297266  58.5297266  58.94829452 58.94829452 58.94829452
- 60.17105941 60.17105941 60.17105941 63.15047553 63.15047553 63.15047553
- 30.30153415 30.30153415 30.30153415 26.5426946  23.14968124 20.05889713
- 12.40158777  8.07686611  4.89640086  3.11989206  3.11989206  3.11989206]</t>
+          <t>[20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
+ 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
+ 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
+  9.19769616  9.19769616  9.19769616  5.32819383  5.32819383  5.32819383
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E1207" t="inlineStr"/>
@@ -32793,11 +32787,11 @@
       </c>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>[50.19516507 50.19516507 50.19516507 53.36977652 53.36977652 53.36977652
- 58.5297266  58.5297266  58.5297266  58.94829452 58.94829452 58.94829452
- 60.17105941 60.17105941 60.17105941 63.15047553 63.15047553 63.15047553
- 30.30153415 30.30153415 30.30153415 26.5426946  23.14968124 20.05889713
- 12.40158777  8.07686611  4.89640086  3.11989206  3.11989206  3.11989206]</t>
+          <t>[20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
+ 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
+ 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
+  9.19769616  9.19769616  9.19769616  5.32819383  5.32819383  5.32819383
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E1208" t="inlineStr"/>
@@ -32888,17 +32882,17 @@
  [1.27775357e+02]
  [1.31936564e+02]
  [1.35719352e+02]
- [1.55741233e+02]
- [1.69882127e+02]
- [1.81049969e+02]
- [1.93975947e+02]
- [2.04637279e+02]
- [2.13783359e+02]
- [2.18726607e+02]
- [2.23339444e+02]
- [2.27668913e+02]
- [2.31487123e+02]
- [2.35115716e+02]
+ [1.56698435e+02]
+ [1.71330486e+02]
+ [1.82822277e+02]
+ [1.96075520e+02]
+ [2.06979051e+02]
+ [2.16317993e+02]
+ [2.21360836e+02]
+ [2.26064090e+02]
+ [2.30476436e+02]
+ [2.33275754e+02]
+ [2.35972568e+02]
  [2.38575171e+02]]</t>
         </is>
       </c>
@@ -32922,36 +32916,36 @@
       </c>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>[[-5.03296433e+07]
- [-4.77483662e+07]
- [-4.50137651e+07]
- [-4.34844618e+07]
- [-4.19461336e+07]
- [-4.03891769e+07]
- [-3.86672826e+07]
- [-3.69031957e+07]
- [-3.50812966e+07]
- [-3.38184210e+07]
- [-3.25140054e+07]
- [-3.11591292e+07]
- [-2.99384240e+07]
- [-2.89008306e+07]
- [-2.78628747e+07]
- [-2.73176101e+07]
- [-2.67722887e+07]
- [-2.62269159e+07]
- [-2.34367424e+07]
- [-2.16262859e+07]
- [-1.98142537e+07]
- [-1.74426428e+07]
- [-1.51746996e+07]
- [-1.30111208e+07]
- [-1.20499733e+07]
- [-1.12157826e+07]
- [-1.05092793e+07]
- [-1.00010424e+07]
- [-9.49348031e+06]
- [ 1.28347892e-08]]</t>
+          <t>[[-3.37201770e+07]
+ [-3.13119417e+07]
+ [-2.87494981e+07]
+ [-2.78424516e+07]
+ [-2.69293136e+07]
+ [-2.60035421e+07]
+ [-2.50577276e+07]
+ [-2.40831154e+07]
+ [-2.30689535e+07]
+ [-2.23648063e+07]
+ [-2.16321939e+07]
+ [-2.08650270e+07]
+ [-2.02033937e+07]
+ [-1.96660751e+07]
+ [-1.91284641e+07]
+ [-1.88595764e+07]
+ [-1.85906436e+07]
+ [-1.83216701e+07]
+ [-1.62375563e+07]
+ [-1.51339256e+07]
+ [-1.40290970e+07]
+ [-1.31109498e+07]
+ [-1.21916074e+07]
+ [-1.12710940e+07]
+ [-1.07407875e+07]
+ [-1.02557818e+07]
+ [-9.81676307e+06]
+ [-9.53971248e+06]
+ [-9.26291313e+06]
+ [-1.08266249e-08]]</t>
         </is>
       </c>
       <c r="E1212" t="inlineStr"/>
@@ -32974,36 +32968,36 @@
       </c>
       <c r="D1213" t="inlineStr">
         <is>
-          <t>[[-5.08994438e+06]
- [-1.17169090e+07]
- [-1.10303508e+07]
- [ 2.93830822e+06]
- [ 2.93849646e+06]
- [ 2.93868712e+06]
- [ 2.93897450e+06]
- [ 2.93918045e+06]
- [ 2.93940289e+06]
- [ 2.93898447e+06]
- [ 2.93910442e+06]
- [ 2.93923722e+06]
- [ 2.93923583e+06]
- [ 2.93900181e+06]
- [ 2.93905825e+06]
- [ 2.93844071e+06]
- [ 2.93845425e+06]
- [ 2.93846761e+06]
- [ 2.94056038e+06]
- [ 2.94113231e+06]
- [ 2.94164590e+06]
- [ 2.94362072e+06]
- [ 2.94415339e+06]
- [ 2.94451427e+06]
- [ 2.94095888e+06]
- [ 2.94069475e+06]
- [ 2.94037260e+06]
- [ 2.93968287e+06]
- [ 2.93963887e+06]
- [ 1.84646839e+03]]</t>
+          <t>[[-9.70518870e+05]
+ [-7.08183141e+06]
+ [-1.78616286e+07]
+ [ 2.93850622e+06]
+ [ 2.93880802e+06]
+ [ 2.93911475e+06]
+ [ 2.93943372e+06]
+ [ 2.93977379e+06]
+ [ 2.94014644e+06]
+ [ 2.93956993e+06]
+ [ 2.93977699e+06]
+ [ 2.94000903e+06]
+ [ 2.93995373e+06]
+ [ 2.93951478e+06]
+ [ 2.93960533e+06]
+ [ 2.93869236e+06]
+ [ 2.93871409e+06]
+ [ 2.93873553e+06]
+ [ 2.94266660e+06]
+ [ 2.94396945e+06]
+ [ 2.94514034e+06]
+ [ 2.94532860e+06]
+ [ 2.94701096e+06]
+ [ 2.94827082e+06]
+ [ 2.94421624e+06]
+ [ 2.94389470e+06]
+ [ 2.94345839e+06]
+ [ 2.94136235e+06]
+ [ 2.94132225e+06]
+ [ 3.55694245e+03]]</t>
         </is>
       </c>
       <c r="E1213" t="inlineStr"/>
@@ -33026,36 +33020,36 @@
       </c>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>[[-2.32876326e+04]
- [-5.41226325e+04]
- [-5.28955227e+04]
- [ 8.74085393e+03]
- [ 8.74172464e+03]
- [ 8.74261496e+03]
- [ 8.74395912e+03]
- [ 8.74493837e+03]
- [ 8.74600463e+03]
- [ 8.74409050e+03]
- [ 8.74467203e+03]
- [ 8.74531833e+03]
- [ 8.74533809e+03]
- [ 8.74425865e+03]
- [ 8.74454896e+03]
- [ 8.74163053e+03]
- [ 8.74170136e+03]
- [ 8.74177161e+03]
- [ 8.75192620e+03]
- [ 8.75509144e+03]
- [ 8.75808540e+03]
- [ 8.76900342e+03]
- [ 8.77318517e+03]
- [ 8.77699870e+03]
- [ 8.75770726e+03]
- [ 8.75736809e+03]
- [ 8.75719796e+03]
- [ 8.75463201e+03]
- [ 8.75755551e+03]
- [ 2.06808689e+01]]</t>
+          <t>[[-4.45593292e+03]
+ [-3.26513331e+04]
+ [-8.40721203e+04]
+ [ 8.74178806e+03]
+ [ 8.74319453e+03]
+ [ 8.74463713e+03]
+ [ 8.74615069e+03]
+ [ 8.74777805e+03]
+ [ 8.74957520e+03]
+ [ 8.74691136e+03]
+ [ 8.74792092e+03]
+ [ 8.74905642e+03]
+ [ 8.74883315e+03]
+ [ 8.74677602e+03]
+ [ 8.74724257e+03]
+ [ 8.74287866e+03]
+ [ 8.74299238e+03]
+ [ 8.74310521e+03]
+ [ 8.76245124e+03]
+ [ 8.76966114e+03]
+ [ 8.77648234e+03]
+ [ 8.77905554e+03]
+ [ 8.79078746e+03]
+ [ 8.80118628e+03]
+ [ 8.77888535e+03]
+ [ 8.77878896e+03]
+ [ 8.77858134e+03]
+ [ 8.76578767e+03]
+ [ 8.76742142e+03]
+ [ 2.99752068e+01]]</t>
         </is>
       </c>
       <c r="E1214" t="inlineStr"/>
@@ -33078,36 +33072,36 @@
       </c>
       <c r="D1215" t="inlineStr">
         <is>
-          <t>[[-2.75762112e+05]
- [-1.14342413e+06]
- [-2.12534538e+06]
- [-2.37999439e+06]
- [-2.33529821e+06]
- [-2.29040812e+06]
- [-2.24535633e+06]
- [-2.20017712e+06]
- [-2.15489239e+06]
- [-2.12466517e+06]
- [-2.09441006e+06]
- [-2.06413428e+06]
- [-2.03384645e+06]
- [-2.00354785e+06]
- [-1.97323640e+06]
- [-1.95808320e+06]
- [-1.94292984e+06]
- [-1.92777682e+06]
- [-1.82184344e+06]
- [-1.71527586e+06]
- [-1.60827572e+06]
- [-1.45476354e+06]
- [-1.30085892e+06]
- [-1.14685400e+06]
- [-1.05460168e+06]
- [-9.62101695e+05]
- [-8.69109953e+05]
- [-7.81605959e+05]
- [-6.93326159e+05]
- [-5.32192282e-04]]</t>
+          <t>[[-2.93152824e+04]
+ [-4.23141507e+05]
+ [-2.22206615e+06]
+ [-2.53570613e+06]
+ [-2.49048241e+06]
+ [-2.44490734e+06]
+ [-2.39901633e+06]
+ [-2.35284537e+06]
+ [-2.30643156e+06]
+ [-2.27538766e+06]
+ [-2.24426723e+06]
+ [-2.21308290e+06]
+ [-2.18184861e+06]
+ [-2.15056380e+06]
+ [-2.11922387e+06]
+ [-2.10354349e+06]
+ [-2.08785251e+06]
+ [-2.07215180e+06]
+ [-1.95528177e+06]
+ [-1.83638865e+06]
+ [-1.71598376e+06]
+ [-1.54048140e+06]
+ [-1.36054826e+06]
+ [-1.17765617e+06]
+ [-1.06726102e+06]
+ [-9.56165438e+05]
+ [-8.44133356e+05]
+ [-7.68957113e+05]
+ [-6.93362269e+05]
+ [-2.58768489e-04]]</t>
         </is>
       </c>
       <c r="E1215" t="inlineStr"/>
@@ -33130,36 +33124,36 @@
       </c>
       <c r="D1216" t="inlineStr">
         <is>
-          <t>[[ 6.13038874e+07]
- [ 2.52185501e+08]
- [ 4.63252372e+08]
- [ 5.14327445e+08]
- [ 4.99417317e+08]
- [ 4.84465951e+08]
- [ 4.69480838e+08]
- [ 4.54469593e+08]
- [ 4.39437248e+08]
- [ 4.29408653e+08]
- [ 4.19374923e+08]
- [ 4.09337651e+08]
- [ 3.99298719e+08]
- [ 3.89258406e+08]
- [ 3.79216302e+08]
- [ 3.74196141e+08]
- [ 3.69176171e+08]
- [ 3.64156498e+08]
- [ 3.29117899e+08]
- [ 2.93973106e+08]
- [ 2.58766239e+08]
- [ 2.08391477e+08]
- [ 1.58010148e+08]
- [ 1.07689596e+08]
- [ 7.75715569e+07]
- [ 4.74717369e+07]
- [ 1.73889414e+07]
- [-1.06605958e+07]
- [-3.86588036e+07]
- [ 4.75160079e-02]]</t>
+          <t>[[ 6.43397751e+06]
+ [ 9.27831964e+07]
+ [ 4.80625877e+08]
+ [ 5.43950598e+08]
+ [ 5.28927985e+08]
+ [ 5.13831029e+08]
+ [ 4.98668101e+08]
+ [ 4.83447600e+08]
+ [ 4.68178071e+08]
+ [ 4.57978551e+08]
+ [ 4.47764282e+08]
+ [ 4.37538057e+08]
+ [ 4.27302919e+08]
+ [ 4.17058842e+08]
+ [ 4.06804959e+08]
+ [ 4.01676507e+08]
+ [ 3.96546301e+08]
+ [ 3.91414528e+08]
+ [ 3.53363124e+08]
+ [ 3.14959910e+08]
+ [ 2.76318452e+08]
+ [ 2.20605560e+08]
+ [ 1.64319625e+08]
+ [ 1.07779685e+08]
+ [ 7.38882763e+07]
+ [ 4.00273053e+07]
+ [ 6.22309205e+06]
+ [-1.62442312e+07]
+ [-3.86431131e+07]
+ [ 3.07097152e-02]]</t>
         </is>
       </c>
       <c r="E1216" t="inlineStr"/>
@@ -33182,36 +33176,36 @@
       </c>
       <c r="D1217" t="inlineStr">
         <is>
-          <t>[[ 1.08636290e+06]
- [ 2.34225819e+06]
- [ 3.96369208e+06]
- [ 6.20364659e+06]
- [ 6.20361328e+06]
- [ 6.20357977e+06]
- [ 6.20346688e+06]
- [ 6.20343274e+06]
- [ 6.20339777e+06]
- [ 6.20335661e+06]
- [ 6.20333176e+06]
- [ 6.20330609e+06]
- [ 6.20326670e+06]
- [ 6.20324318e+06]
- [ 6.20322318e+06]
- [ 6.20317732e+06]
- [ 6.20316731e+06]
- [ 6.20315731e+06]
- [ 6.20364226e+06]
- [ 6.20357230e+06]
- [ 6.20350230e+06]
- [ 6.20350356e+06]
- [ 6.20343771e+06]
- [ 6.20337024e+06]
- [ 6.20348470e+06]
- [ 6.20354072e+06]
- [ 6.20362798e+06]
- [ 6.20383796e+06]
- [ 6.20378128e+06]
- [-5.77440212e-09]]</t>
+          <t>[[ 8.09048290e+05]
+ [ 1.86667430e+06]
+ [ 3.49784566e+06]
+ [ 6.20373706e+06]
+ [ 6.20370325e+06]
+ [ 6.20366921e+06]
+ [ 6.20363470e+06]
+ [ 6.20359944e+06]
+ [ 6.20356311e+06]
+ [ 6.20352531e+06]
+ [ 6.20349906e+06]
+ [ 6.20347176e+06]
+ [ 6.20344316e+06]
+ [ 6.20341850e+06]
+ [ 6.20339847e+06]
+ [ 6.20337843e+06]
+ [ 6.20336841e+06]
+ [ 6.20335839e+06]
+ [ 6.20383276e+06]
+ [ 6.20375847e+06]
+ [ 6.20368417e+06]
+ [ 6.20430327e+06]
+ [ 6.20419606e+06]
+ [ 6.20408872e+06]
+ [ 6.20403864e+06]
+ [ 6.20409912e+06]
+ [ 6.20417906e+06]
+ [ 6.20419510e+06]
+ [ 6.20415192e+06]
+ [-1.09629702e-08]]</t>
         </is>
       </c>
       <c r="E1217" t="inlineStr"/>
@@ -33234,24 +33228,24 @@
       </c>
       <c r="D1218" t="inlineStr">
         <is>
-          <t>[[-8196592.35321733]
- [13483856.03818808]
- [37421517.27589899]
- [40898529.27710342]
- [39790229.62817191]
- [38682866.4878937 ]
- [34318972.27690791]
- [33355393.20742014]
- [32404481.15542776]
- [31557669.09999336]
- [30949644.68342203]
- [30353984.02485928]
- [29123486.16409457]
- [28461349.00376231]
- [27799137.52890352]
- [26184955.84618505]
- [25875617.47719403]
- [25566317.08215875]]</t>
+          <t>[[-1.46798361e+07]
+ [ 5.05879207e+06]
+ [ 8.97835109e+07]
+ [ 1.03849707e+08]
+ [ 1.01050350e+08]
+ [ 9.82410066e+07]
+ [ 9.54270078e+07]
+ [ 9.26143338e+07]
+ [ 8.98099464e+07]
+ [ 8.79494434e+07]
+ [ 8.60993265e+07]
+ [ 8.42630981e+07]
+ [ 8.23746723e+07]
+ [ 8.04250956e+07]
+ [ 7.84735473e+07]
+ [ 7.74974870e+07]
+ [ 7.65210708e+07]
+ [ 7.55443365e+07]]</t>
         </is>
       </c>
       <c r="E1218" t="inlineStr"/>
@@ -33274,24 +33268,24 @@
       </c>
       <c r="D1219" t="inlineStr">
         <is>
-          <t>[[2707363.31017836]
- [6223590.91409197]
- [5955272.48480338]
- [1755336.17725606]
- [1755426.43680564]
- [1755517.86737736]
- [1598003.06565597]
- [1598093.01719953]
- [1598190.25879386]
- [1586423.65338007]
- [1586475.4293703 ]
- [1586532.84172156]
- [1553625.52684281]
- [1553523.32384628]
- [1553546.79936087]
- [1478450.18259512]
- [1478455.31550071]
- [1478460.37204684]]</t>
+          <t>[[  899043.7996008 ]
+ [ 6125705.36939901]
+ [15319834.04247309]
+ [ 3126215.27050329]
+ [ 3126464.12532545]
+ [ 3126717.07829441]
+ [ 3126980.21405558]
+ [ 3127260.92633991]
+ [ 3127568.78106642]
+ [ 3127082.38939903]
+ [ 3127252.79913945]
+ [ 3127443.98502047]
+ [ 3127394.64426071]
+ [ 3127024.75173801]
+ [ 3127098.35502785]
+ [ 3126332.39432193]
+ [ 3126349.49440864]
+ [ 3126366.35542347]]</t>
         </is>
       </c>
       <c r="E1219" t="inlineStr"/>
@@ -33316,22 +33310,22 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.21154455e+07]
- [-2.13477587e+07]
- [-1.85747522e+07]
- [-1.58250556e+07]
- [-1.19039260e+07]
- [-9.45712589e+06]
- [-7.04409035e+06]
- [-5.02401258e+06]
- [-3.47680624e+06]
- [-1.95612611e+06]
- [-5.91089273e+05]
- [-5.06447390e+03]
- [-5.76503765e+03]
- [-5.85649596e+03]
- [-6.06194442e+03]
- [-6.24736545e+03]]</t>
+ [-1.30265289e+07]
+ [-2.44581555e+07]
+ [-2.12811183e+07]
+ [-1.81307871e+07]
+ [-1.50103866e+07]
+ [-1.19250671e+07]
+ [-8.88232332e+06]
+ [-6.38224085e+06]
+ [-4.41675145e+06]
+ [-2.48495953e+06]
+ [-7.67115177e+05]
+ [-6.57267010e+03]
+ [-7.48186116e+03]
+ [-7.99345696e+03]
+ [-8.27387095e+03]
+ [-8.52694976e+03]]</t>
         </is>
       </c>
       <c r="E1220" t="inlineStr"/>
@@ -33390,24 +33384,24 @@
       <c r="C1222" t="inlineStr"/>
       <c r="D1222" t="inlineStr">
         <is>
-          <t>[[0.04803703]
- [0.08781649]
- [0.23349785]
- [0.27912293]
- [0.26317919]
- [0.24755247]
- [0.21193061]
- [0.1986603 ]
- [0.18590668]
- [0.17527673]
- [0.16757066]
- [0.16022849]
- [0.15030064]
- [0.14544007]
- [0.14208853]
- [0.133852  ]
- [0.13228649]
- [0.13072131]]</t>
+          <t>[[0.07509465]
+ [0.05979374]
+ [0.51134488]
+ [0.60086959]
+ [0.57650836]
+ [0.5523633 ]
+ [0.52848939]
+ [0.50495298]
+ [0.4818341 ]
+ [0.46529633]
+ [0.4504821 ]
+ [0.43597259]
+ [0.42190187]
+ [0.41006232]
+ [0.40016022]
+ [0.39520781]
+ [0.39025377]
+ [0.38529837]]</t>
         </is>
       </c>
       <c r="E1222" t="inlineStr"/>
@@ -33426,24 +33420,24 @@
       <c r="C1223" t="inlineStr"/>
       <c r="D1223" t="inlineStr">
         <is>
-          <t>[[0.06974849]
- [0.08335426]
- [0.18350403]
- [0.12993453]
- [0.11560223]
- [0.10168552]
- [0.07335763]
- [0.06299823]
- [0.05366324]
- [0.03808044]
- [0.03511406]
- [0.03284412]
- [0.0305618 ]
- [0.02973572]
- [0.02879703]
- [0.02486713]
- [0.02443097]
- [0.02399588]]</t>
+          <t>[[0.0711782 ]
+ [0.09694394]
+ [0.42075654]
+ [0.20820207]
+ [0.18514857]
+ [0.16254494]
+ [0.14052231]
+ [0.11929625]
+ [0.09923073]
+ [0.06827658]
+ [0.06111866]
+ [0.05445756]
+ [0.04972941]
+ [0.04756792]
+ [0.04658432]
+ [0.04243112]
+ [0.04195331]
+ [0.0414766 ]]</t>
         </is>
       </c>
       <c r="E1223" t="inlineStr"/>
@@ -33462,24 +33456,24 @@
       <c r="C1224" t="inlineStr"/>
       <c r="D1224" t="inlineStr">
         <is>
-          <t>[[0.10283185]
- [0.19031046]
- [0.28705067]
- [0.29047515]
- [0.281572  ]
- [0.27262977]
- [0.239958  ]
- [0.23153952]
- [0.22304339]
- [0.21575849]
- [0.21002134]
- [0.2042209 ]
- [0.19452227]
- [0.18924412]
- [0.18396698]
- [0.1726729 ]
- [0.1701313 ]
- [0.16759026]]</t>
+          <t>[[0.11111786]
+ [0.20421295]
+ [0.64628167]
+ [0.71639908]
+ [0.69557726]
+ [0.67465745]
+ [0.65362294]
+ [0.63245268]
+ [0.61111918]
+ [0.59679385]
+ [0.58236664]
+ [0.56781996]
+ [0.55366155]
+ [0.53995441]
+ [0.52624857]
+ [0.51939873]
+ [0.51255013]
+ [0.50570298]]</t>
         </is>
       </c>
       <c r="E1224" t="inlineStr"/>
@@ -33502,36 +33496,36 @@
       </c>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>[[-8.19659235e+06]
- [ 1.34838560e+07]
- [ 3.74215173e+07]
- [ 4.08985293e+07]
- [ 3.97902296e+07]
- [ 3.86828665e+07]
- [ 3.43189723e+07]
- [ 3.33553932e+07]
- [ 3.24044812e+07]
- [ 3.15576691e+07]
- [ 3.09496447e+07]
- [ 3.03539840e+07]
- [ 2.91234862e+07]
- [ 2.84613490e+07]
- [ 2.77991375e+07]
- [ 2.61849558e+07]
- [ 2.58756175e+07]
- [ 2.55663171e+07]
- [ 4.81567212e+07]
- [ 4.26723165e+07]
- [ 3.71774290e+07]
- [ 3.28232754e+07]
- [ 2.65187972e+07]
- [ 1.86096526e+07]
- [ 1.83765734e+07]
- [ 1.24738637e+07]
- [ 2.03888483e+05]
- [-3.97625954e+06]
- [ 2.36433576e+07]
- [ 4.56853184e-02]]</t>
+          <t>[[-1.46798361e+07]
+ [ 5.05879207e+06]
+ [ 8.97835109e+07]
+ [ 1.03849707e+08]
+ [ 1.01050350e+08]
+ [ 9.82410066e+07]
+ [ 9.54270078e+07]
+ [ 9.26143338e+07]
+ [ 8.98099464e+07]
+ [ 8.79494434e+07]
+ [ 8.60993265e+07]
+ [ 8.42630981e+07]
+ [ 8.23746723e+07]
+ [ 8.04250956e+07]
+ [ 7.84735473e+07]
+ [ 7.74974870e+07]
+ [ 7.65210708e+07]
+ [ 7.09032943e+07]
+ [ 1.39706425e+08]
+ [ 1.23954717e+08]
+ [ 1.08100441e+08]
+ [ 1.46055057e+08]
+ [ 1.05171821e+08]
+ [ 6.41000546e+07]
+ [ 4.37036023e+07]
+ [ 2.18156242e+07]
+ [-1.09763246e+07]
+ [ 2.77346430e+06]
+ [ 3.32963557e+07]
+ [ 4.11156565e-02]]</t>
         </is>
       </c>
       <c r="E1225" t="inlineStr"/>
@@ -33554,36 +33548,36 @@
       </c>
       <c r="D1226" t="inlineStr">
         <is>
-          <t>[[2.70736331e+06]
- [6.22359091e+06]
- [5.95527248e+06]
- [1.75533618e+06]
- [1.75542644e+06]
- [1.75551787e+06]
- [1.59800307e+06]
- [1.59809302e+06]
- [1.59819026e+06]
- [1.58642365e+06]
- [1.58647543e+06]
- [1.58653284e+06]
- [1.55362553e+06]
- [1.55352332e+06]
- [1.55354680e+06]
- [1.47845018e+06]
- [1.47845532e+06]
- [1.47846037e+06]
- [3.11809919e+06]
- [3.11858980e+06]
- [3.11902972e+06]
- [3.42493643e+06]
- [3.61577715e+06]
- [3.82826536e+06]
- [5.28096424e+06]
- [6.29046927e+06]
- [7.75211054e+06]
- [1.03457048e+07]
- [1.03455674e+07]
- [4.62540828e+03]]</t>
+          <t>[[8.99043800e+05]
+ [6.12570537e+06]
+ [1.53198340e+07]
+ [3.12621527e+06]
+ [3.12646413e+06]
+ [3.12671708e+06]
+ [3.12698021e+06]
+ [3.12726093e+06]
+ [3.12756878e+06]
+ [3.12708239e+06]
+ [3.12725280e+06]
+ [3.12744399e+06]
+ [3.12739464e+06]
+ [3.12702475e+06]
+ [3.12709836e+06]
+ [3.12633239e+06]
+ [3.12634949e+06]
+ [3.08958994e+06]
+ [5.79977982e+06]
+ [5.80173424e+06]
+ [5.80348908e+06]
+ [1.00625478e+07]
+ [1.00669251e+07]
+ [1.00701929e+07]
+ [1.06041927e+07]
+ [1.18821358e+07]
+ [1.34920711e+07]
+ [1.44567189e+07]
+ [1.44565496e+07]
+ [1.24603967e+04]]</t>
         </is>
       </c>
       <c r="E1226" t="inlineStr"/>
@@ -33608,34 +33602,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.21154455e+07]
- [-2.13477587e+07]
- [-1.85747522e+07]
- [-1.58250556e+07]
- [-1.19039260e+07]
- [-9.45712589e+06]
- [-7.04409035e+06]
- [-5.02401258e+06]
- [-3.47680624e+06]
- [-1.95612611e+06]
- [-5.91089273e+05]
- [-5.06447390e+03]
- [-5.76503765e+03]
- [-5.85649596e+03]
- [-6.06194442e+03]
- [-6.24736545e+03]
- [-1.45001641e+04]
- [-1.61997622e+04]
- [-1.74588718e+04]
- [-1.95278614e+04]
- [-1.98310080e+04]
- [-1.98453987e+04]
- [-2.33164760e+04]
- [-2.06573587e+04]
- [-1.78367313e+04]
- [-1.95600471e+04]
- [-1.98772810e+04]
- [-2.01792318e+04]]</t>
+ [-1.30265289e+07]
+ [-2.44581555e+07]
+ [-2.12811183e+07]
+ [-1.81307871e+07]
+ [-1.50103866e+07]
+ [-1.19250671e+07]
+ [-8.88232332e+06]
+ [-6.38224085e+06]
+ [-4.41675145e+06]
+ [-2.48495953e+06]
+ [-7.67115177e+05]
+ [-6.57267010e+03]
+ [-7.48186116e+03]
+ [-7.99345696e+03]
+ [-8.27387095e+03]
+ [-8.05367383e+03]
+ [-1.33850268e+04]
+ [-1.50150781e+04]
+ [-1.62108614e+04]
+ [-3.02170993e+04]
+ [-3.21436020e+04]
+ [-3.37579392e+04]
+ [-3.34459572e+04]
+ [-3.12078886e+04]
+ [-2.88000982e+04]
+ [-2.77091934e+04]
+ [-2.80375872e+04]
+ [-2.83542274e+04]]</t>
         </is>
       </c>
       <c r="E1227" t="inlineStr"/>
@@ -33706,36 +33700,36 @@
       <c r="C1229" t="inlineStr"/>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>[[4.80370261e-02]
- [8.78164923e-02]
- [2.33497851e-01]
- [2.79122934e-01]
- [2.63179192e-01]
- [2.47552472e-01]
- [2.11930610e-01]
- [1.98660297e-01]
- [1.85906676e-01]
- [1.75276734e-01]
- [1.67570658e-01]
- [1.60228492e-01]
- [1.50300642e-01]
- [1.45440069e-01]
- [1.42088527e-01]
- [1.33852002e-01]
- [1.32286494e-01]
- [1.30721309e-01]
- [2.46543530e-01]
- [2.18845277e-01]
- [1.91150177e-01]
- [1.69724482e-01]
- [1.38659875e-01]
- [1.00543760e-01]
- [1.04473904e-01]
- [8.42909448e-02]
- [6.83114394e-02]
- [9.33611153e-02]
- [1.50952468e-01]
- [1.10445022e-04]]</t>
+          <t>[[7.50946485e-02]
+ [5.97937445e-02]
+ [5.11344876e-01]
+ [6.00869594e-01]
+ [5.76508355e-01]
+ [5.52363296e-01]
+ [5.28489390e-01]
+ [5.04952979e-01]
+ [4.81834099e-01]
+ [4.65296326e-01]
+ [4.50482103e-01]
+ [4.35972588e-01]
+ [4.21901875e-01]
+ [4.10062323e-01]
+ [4.00160223e-01]
+ [3.95207806e-01]
+ [3.90253774e-01]
+ [3.61728214e-01]
+ [7.12549301e-01]
+ [6.32658987e-01]
+ [5.52315577e-01]
+ [7.48323267e-01]
+ [5.42387957e-01]
+ [3.38013175e-01]
+ [2.41231952e-01]
+ [1.52622151e-01]
+ [1.31305804e-01]
+ [1.28163029e-01]
+ [2.11983746e-01]
+ [1.81266173e-04]]</t>
         </is>
       </c>
       <c r="E1229" t="inlineStr"/>
@@ -33754,36 +33748,36 @@
       <c r="C1230" t="inlineStr"/>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>[[0.06974849]
- [0.08335426]
- [0.18350403]
- [0.12993453]
- [0.11560223]
- [0.10168552]
- [0.07335763]
- [0.06299823]
- [0.05366324]
- [0.03808044]
- [0.03511406]
- [0.03284412]
- [0.0305618 ]
- [0.02973572]
- [0.02879703]
- [0.02486713]
- [0.02443097]
- [0.02399588]
- [0.08419153]
- [0.07957547]
- [0.07499116]
- [0.08298291]
- [0.07839065]
- [0.07420896]
- [0.09978153]
- [0.10397428]
- [0.11217962]
- [0.15371037]
- [0.15086028]
- [0.00068868]]</t>
+          <t>[[0.0711782 ]
+ [0.09694394]
+ [0.42075654]
+ [0.20820207]
+ [0.18514857]
+ [0.16254494]
+ [0.14052231]
+ [0.11929625]
+ [0.09923073]
+ [0.06827658]
+ [0.06111866]
+ [0.05445756]
+ [0.04972941]
+ [0.04756792]
+ [0.04658432]
+ [0.04243112]
+ [0.04195331]
+ [0.04263757]
+ [0.1175078 ]
+ [0.11314216]
+ [0.10882088]
+ [0.33692414]
+ [0.32797839]
+ [0.31902468]
+ [0.2741848 ]
+ [0.27860396]
+ [0.28621124]
+ [0.26166699]
+ [0.25891872]
+ [0.00126695]]</t>
         </is>
       </c>
       <c r="E1230" t="inlineStr"/>
@@ -33802,36 +33796,36 @@
       <c r="C1231" t="inlineStr"/>
       <c r="D1231" t="inlineStr">
         <is>
-          <t>[[2.28515666e-01]
- [3.63057362e-01]
- [5.10235468e-01]
- [5.06965249e-01]
- [4.90101537e-01]
- [4.73213078e-01]
- [4.13106790e-01]
- [3.97243605e-01]
- [3.81230995e-01]
- [3.67649405e-01]
- [3.56805503e-01]
- [3.45814860e-01]
- [3.28206708e-01]
- [3.18628102e-01]
- [3.09073227e-01]
- [2.89278080e-01]
- [2.84675811e-01]
- [2.80079646e-01]
- [5.43939096e-01]
- [4.87412363e-01]
- [4.31455303e-01]
- [4.00210470e-01]
- [3.51180768e-01]
- [2.91432595e-01]
- [3.68666155e-01]
- [4.16249995e-01]
- [4.80063567e-01]
- [6.73954810e-01]
- [8.92884580e-01]
- [2.81615443e-10]]</t>
+          <t>[[3.41242529e-01]
+ [4.81708892e-01]
+ [1.17695517e+00]
+ [1.27954783e+00]
+ [1.23633222e+00]
+ [1.19322230e+00]
+ [1.15011783e+00]
+ [1.10690491e+00]
+ [1.06344751e+00]
+ [1.03427176e+00]
+ [1.00485374e+00]
+ [9.75119093e-01]
+ [9.47178552e-01]
+ [9.21252146e-01]
+ [8.95456542e-01]
+ [8.82611536e-01]
+ [8.69800325e-01]
+ [8.34768605e-01]
+ [1.77688592e+00]
+ [1.57420201e+00]
+ [1.37726401e+00]
+ [2.22712553e+00]
+ [1.71238062e+00]
+ [1.22441500e+00]
+ [1.07844760e+00]
+ [1.03131517e+00]
+ [8.62979542e-01]
+ [1.20848919e+00]
+ [1.62296660e+00]
+ [2.94273388e-10]]</t>
         </is>
       </c>
       <c r="E1231" t="inlineStr"/>
@@ -33850,7 +33844,7 @@
       <c r="C1232" t="inlineStr"/>
       <c r="D1232" t="inlineStr">
         <is>
-          <t>[-0.02254346]</t>
+          <t>[-0.17411564]</t>
         </is>
       </c>
       <c r="E1232" t="inlineStr">
@@ -33873,7 +33867,7 @@
       <c r="C1233" t="inlineStr"/>
       <c r="D1233" t="inlineStr">
         <is>
-          <t>[-0.15749391]</t>
+          <t>[-0.03348031]</t>
         </is>
       </c>
       <c r="E1233" t="inlineStr">
@@ -33896,7 +33890,7 @@
       <c r="C1234" t="inlineStr"/>
       <c r="D1234" t="inlineStr">
         <is>
-          <t>[1.05395188]</t>
+          <t>[1.0007888]</t>
         </is>
       </c>
       <c r="E1234" t="inlineStr"/>
@@ -33919,7 +33913,7 @@
       </c>
       <c r="D1235" t="inlineStr">
         <is>
-          <t>[28.23732221]</t>
+          <t>[29.73732221]</t>
         </is>
       </c>
       <c r="E1235" t="inlineStr"/>
@@ -33942,9 +33936,9 @@
       </c>
       <c r="D1236" t="inlineStr">
         <is>
-          <t>[1047.13901865 1206.50664157 1321.22751075 1413.18261726 1446.65041988
- 1453.75271996 1442.81867291 1283.91575302 1124.76298288  962.19898835
-  978.02680667  993.06340443 1007.39507288]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E1236" t="inlineStr"/>
@@ -34013,9 +34007,9 @@
       </c>
       <c r="D1239" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E1239" t="inlineStr"/>
@@ -34038,8 +34032,8 @@
       </c>
       <c r="D1240" t="inlineStr">
         <is>
-          <t>[14.88565131 15.94588977 16.65408583 17.19278299 17.79593838 18.27844853
- 18.68245315 18.89721312 19.09543997 19.27963559 19.44063167 19.59240654
+          <t>[14.88565131 15.99481728 16.72492878 17.27672858 17.89198978 18.38273594
+ 18.79287721 19.01066664 19.21156496 19.39814576 19.51559311 19.62807517
  19.73601994]</t>
         </is>
       </c>
@@ -34063,9 +34057,9 @@
       </c>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>[1047.13901865 1206.50664157 1321.22751075 1413.18261726 1446.65041988
- 1453.75271996 1442.81867291 1283.91575302 1124.76298288  962.19898835
-  978.02680667  993.06340443 1007.39507288]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E1241" t="inlineStr"/>
@@ -34134,9 +34128,9 @@
       </c>
       <c r="D1244" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E1244" t="inlineStr"/>
@@ -34159,9 +34153,9 @@
       </c>
       <c r="D1245" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E1245" t="inlineStr"/>
@@ -34253,10 +34247,10 @@
       </c>
       <c r="D1249" t="inlineStr">
         <is>
-          <t>[-1047.13901865 -1206.50664157 -1321.22751075 -1413.18261726
- -1446.65041988 -1453.75271996 -1442.81867291 -1283.91575302
- -1124.76298288  -962.19898835  -978.02680667  -993.06340443
- -1007.39507288]</t>
+          <t>[ -764.0675664   -879.89721404  -960.79254611 -1024.48836201
+ -1098.19816289 -1159.08690457 -1211.44283474 -1136.90215108
+ -1057.80219044  -973.99389388  -985.59734665  -996.77327326
+ -1007.55661265]</t>
         </is>
       </c>
       <c r="E1249" t="inlineStr"/>
@@ -34279,9 +34273,9 @@
       </c>
       <c r="D1250" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E1250" t="inlineStr"/>
@@ -34304,18 +34298,18 @@
       </c>
       <c r="D1251" t="inlineStr">
         <is>
-          <t>[[52361582.53254253]
- [47011866.89080024]
- [41639046.75299437]
- [37980198.59248208]
- [32331205.65733825]
- [25154869.49024146]
- [28170296.66544264]
- [25640701.3524799 ]
- [18741680.3865152 ]
- [ 2148401.1922188 ]
- [-3071727.41193703]
- [24399881.89675769]]</t>
+          <t>[[ 1.44647297e+08]
+ [ 1.29551655e+08]
+ [ 1.14301664e+08]
+ [ 1.58110308e+08]
+ [ 1.18443495e+08]
+ [ 7.84559199e+07]
+ [ 5.99694312e+07]
+ [ 4.20327604e+07]
+ [ 1.44603622e+07]
+ [-1.17375667e+07]
+ [ 3.92903914e+06]
+ [ 3.39146846e+07]]</t>
         </is>
       </c>
       <c r="E1251" t="inlineStr"/>
@@ -34338,18 +34332,18 @@
       </c>
       <c r="D1252" t="inlineStr">
         <is>
-          <t>[[ 3115933.22453101]
- [ 3116458.70322352]
- [ 3116932.86613733]
- [ 3422006.2428378 ]
- [ 3612939.92246306]
- [ 3825539.79305994]
- [ 5279393.94392847]
- [ 6288986.22286217]
- [ 7750776.80746254]
- [10344677.39708343]
- [10344812.67050227]
- [10344683.77835465]]</t>
+          <t>[[ 5793421.0945713 ]
+ [ 5795444.48358417]
+ [ 5797264.49642153]
+ [10053777.41083357]
+ [10058469.66330755]
+ [10062078.98427277]
+ [10599494.95925022]
+ [11877590.29929035]
+ [13487778.21155464]
+ [14454048.15941527]
+ [14454062.94999413]
+ [14453909.75302658]]</t>
         </is>
       </c>
       <c r="E1252" t="inlineStr"/>
@@ -34372,18 +34366,18 @@
       </c>
       <c r="D1253" t="inlineStr">
         <is>
-          <t>[[-14500.16407755]
- [-16199.76215416]
- [-17458.87179718]
- [-19527.86136992]
- [-19831.00803285]
- [-19845.39874321]
- [-23316.47597855]
- [-20657.35873358]
- [-17836.73130366]
- [-19560.04714398]
- [-19877.28095268]
- [-20179.23179818]]</t>
+          <t>[[-13385.02678769]
+ [-15015.07807242]
+ [-16210.86143378]
+ [-30217.09934593]
+ [-32143.6020261 ]
+ [-33757.93923908]
+ [-33445.9571736 ]
+ [-31207.88855231]
+ [-28800.09817433]
+ [-27709.19337349]
+ [-28037.58723658]
+ [-28354.227381  ]]</t>
         </is>
       </c>
       <c r="E1253" t="inlineStr"/>
@@ -34436,18 +34430,18 @@
       <c r="C1255" t="inlineStr"/>
       <c r="D1255" t="inlineStr">
         <is>
-          <t>[[0.26780891]
- [0.2407595 ]
- [0.21363299]
- [0.19559119]
- [0.16756935]
- [0.13237541]
- [0.15071812]
- [0.1417637 ]
- [0.1173102 ]
- [0.09180443]
- [0.09246798]
- [0.15403355]]</t>
+          <t>[[0.65565947]
+ [0.58758844]
+ [0.51886929]
+ [0.71932447]
+ [0.54140511]
+ [0.36347913]
+ [0.28366075]
+ [0.21166845]
+ [0.12426804]
+ [0.12500008]
+ [0.11459804]
+ [0.19066061]]</t>
         </is>
       </c>
       <c r="E1255" t="inlineStr"/>
@@ -34466,18 +34460,18 @@
       <c r="C1256" t="inlineStr"/>
       <c r="D1256" t="inlineStr">
         <is>
-          <t>[[0.08417449]
- [0.07955433]
- [0.07496696]
- [0.08294242]
- [0.07835027]
- [0.07416989]
- [0.09975217]
- [0.10395258]
- [0.11216642]
- [0.15370235]
- [0.15085394]
- [0.14804467]]</t>
+          <t>[[0.11746562]
+ [0.11309472]
+ [0.10876952]
+ [0.33675164]
+ [0.32779978]
+ [0.31884254]
+ [0.27409431]
+ [0.27852769]
+ [0.28615077]
+ [0.26163797]
+ [0.25889094]
+ [0.25615547]]</t>
         </is>
       </c>
       <c r="E1256" t="inlineStr"/>
@@ -34496,18 +34490,18 @@
       <c r="C1257" t="inlineStr"/>
       <c r="D1257" t="inlineStr">
         <is>
-          <t>[[0.52083527]
- [0.47084083]
- [0.42091368]
- [0.39480495]
- [0.35132441]
- [0.29576184]
- [0.36802781]
- [0.39257079]
- [0.39625243]
- [0.36327825]
- [0.30120911]
- [0.50994632]]</t>
+          <t>[[1.72045514]
+ [1.54425926]
+ [1.36840167]
+ [2.0333083 ]
+ [1.59088437]
+ [1.15233442]
+ [0.9953352 ]
+ [0.88940462]
+ [0.65968548]
+ [0.40008791]
+ [0.56419084]
+ [0.88961045]]</t>
         </is>
       </c>
       <c r="E1257" t="inlineStr"/>
@@ -34530,7 +34524,7 @@
       </c>
       <c r="D1258" t="inlineStr">
         <is>
-          <t>[0.30939074]</t>
+          <t>[0.17159785]</t>
         </is>
       </c>
       <c r="E1258" t="inlineStr"/>
@@ -34553,7 +34547,7 @@
       </c>
       <c r="D1259" t="inlineStr">
         <is>
-          <t>[0.31297844]</t>
+          <t>[0.17310092]</t>
         </is>
       </c>
       <c r="E1259" t="inlineStr"/>
@@ -34576,7 +34570,7 @@
       </c>
       <c r="D1260" t="inlineStr">
         <is>
-          <t>[0.30939074 0.31297844 0.9587778  1.12977945 1.28921985 2.88946268]</t>
+          <t>[0.17159785 0.17310092 0.67911108 0.9281556  1.07175774 2.59311702]</t>
         </is>
       </c>
       <c r="E1260" t="inlineStr"/>
@@ -34595,12 +34589,12 @@
       <c r="C1261" t="inlineStr"/>
       <c r="D1261" t="inlineStr">
         <is>
-          <t>[[ 1.02028997e+00  1.01653866e+00 -4.08062469e+00  4.89466677e+00
-  -1.85087071e+00]
- [-3.30527446e+02  7.90278481e+02 -1.35798010e+03  1.19082691e+03
-  -2.91597845e+02]
- [-5.43633410e+01  1.67747828e+02 -3.04666631e+02  3.44199842e+02
-  -1.51917698e+02]]</t>
+          <t>[[ 1.03765775e+00 -1.69048262e-01  1.05426848e+00 -1.55268489e+00
+   6.29806933e-01]
+ [ 2.34046003e+02 -2.75861160e+02  2.05901719e+02 -1.99603897e+02
+   3.65173350e+01]
+ [-9.09550631e+01  1.40924682e+02 -1.56275225e+01 -6.74312621e+00
+  -2.65989700e+01]]</t>
         </is>
       </c>
       <c r="E1261" t="inlineStr"/>
@@ -34619,9 +34613,9 @@
       <c r="C1262" t="inlineStr"/>
       <c r="D1262" t="inlineStr">
         <is>
-          <t>[[   1.00070073    1.0532768    -4.13051182    4.91771994   -1.84118565]
- [  61.85064462 -137.58617853  225.83729798 -183.46094505   34.35918098]
- [ -50.43310288  156.00293608 -287.48707448  323.81838255 -140.90114127]]</t>
+          <t>[[  1.02908665  -0.16070862   1.04891757  -1.54958573   0.63229013]
+ [ 49.89624911 -55.7261541   41.84866379 -38.66393546   3.64517667]
+ [-84.98416658 131.37349864 -22.85279809   6.82357771 -29.36011169]]</t>
         </is>
       </c>
       <c r="E1262" t="inlineStr"/>
@@ -34640,7 +34634,7 @@
       <c r="C1263" t="inlineStr"/>
       <c r="D1263" t="inlineStr">
         <is>
-          <t>[[  8.14134125 -29.8276566   48.90073644 -36.52387552  10.30945443]
+          <t>[[  5.69965975 -16.86701442  26.44894103 -20.458027     6.17644063]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -34665,7 +34659,7 @@
       </c>
       <c r="D1264" t="inlineStr">
         <is>
-          <t>[0.31297844 1.28921985 3.00137985]</t>
+          <t>[0.17310092 1.07175774 2.67093405]</t>
         </is>
       </c>
       <c r="E1264" t="inlineStr"/>
@@ -34688,7 +34682,7 @@
       </c>
       <c r="D1265" t="inlineStr">
         <is>
-          <t>[0.30939074 1.12977945 2.88946268]</t>
+          <t>[0.17159785 0.9281556  2.59311702]</t>
         </is>
       </c>
       <c r="E1265" t="inlineStr"/>
@@ -34711,7 +34705,7 @@
       </c>
       <c r="D1266" t="inlineStr">
         <is>
-          <t>[6.10321752 0.         0.        ]</t>
+          <t>[4.66960612 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1266" t="inlineStr"/>
@@ -34735,18 +34729,18 @@
       <c r="D1267" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.0045492 ]
- [0.01694   ]
- [0.03640632]
- [0.07587331]
- [0.12831863]
- [0.19251183]
- [0.23676353]
- [0.28629043]
- [0.34180946]
- [0.39888869]
- [0.45832587]
- [0.51626261]]</t>
+ [0.01669778]
+ [0.06340597]
+ [0.13708813]
+ [0.30044044]
+ [0.53239185]
+ [0.81709784]
+ [1.00747583]
+ [1.21063188]
+ [1.42473568]
+ [1.57133607]
+ [1.71852705]
+ [1.86387617]]</t>
         </is>
       </c>
       <c r="E1267" t="inlineStr"/>
@@ -34769,7 +34763,7 @@
       </c>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>[0.51626261]</t>
+          <t>[1.86387617]</t>
         </is>
       </c>
       <c r="E1268" t="inlineStr"/>
@@ -34792,18 +34786,18 @@
       </c>
       <c r="D1269" t="inlineStr">
         <is>
-          <t>[[-23436450.81181614]
- [-21624418.61283365]
- [-19811198.31841554]
- [-17438557.49647241]
- [-15170281.1076902 ]
- [-13006733.79204253]
- [-12046423.07063194]
- [-11213799.57741796]
- [-10508881.44745222]
- [-10001319.38229697]
- [ -9493615.37584772]
- [ -8985776.30844627]]</t>
+          <t>[[-16241122.34214507]
+ [-15136293.77046606]
+ [-14030584.74683799]
+ [-13111242.26497848]
+ [-12190728.92008968]
+ [-11269230.46898928]
+ [-10739039.70396256]
+ [-10254835.92416172]
+ [ -9816667.50035031]
+ [ -9539868.1526982 ]
+ [ -9262989.54291176]
+ [ -8986034.52447545]]</t>
         </is>
       </c>
       <c r="E1269" t="inlineStr"/>
@@ -34826,18 +34820,18 @@
       </c>
       <c r="D1270" t="inlineStr">
         <is>
-          <t>[[2938067.65759839]
- [2938679.71890037]
- [2939232.72894927]
- [2940536.03024847]
- [2941299.40375377]
- [2941900.21093532]
- [2939848.46445638]
- [2939785.4345262 ]
- [2939680.19035011]
- [2939272.728098  ]
- [2939337.5853792 ]
- [2939296.98419273]]</t>
+          <t>[[2938462.46782879]
+ [2939810.91765137]
+ [2941024.9152091 ]
+ [2941988.43129242]
+ [2943790.77317719]
+ [2945180.70636543]
+ [2942501.86412935]
+ [2942380.38623277]
+ [2942164.69694505]
+ [2940599.92966929]
+ [2940612.39012039]
+ [2940576.89768221]]</t>
         </is>
       </c>
       <c r="E1270" t="inlineStr"/>
@@ -34860,18 +34854,18 @@
       </c>
       <c r="D1271" t="inlineStr">
         <is>
-          <t>[[8739.95187988]
- [8743.22861858]
- [8746.33035048]
- [8753.8320947 ]
- [8758.95865421]
- [8763.75261428]
- [8751.97351787]
- [8752.54784211]
- [8753.34918224]
- [8752.13570951]
- [8755.42394776]
- [8758.38280584]]</t>
+          <t>[[8742.04219395]
+ [8749.34297084]
+ [8756.24212618]
+ [8762.43708073]
+ [8774.48762966]
+ [8785.25437048]
+ [8769.89400267]
+ [8770.69966914]
+ [8771.49551553]
+ [8761.49724105]
+ [8763.33012122]
+ [8765.0037807 ]]</t>
         </is>
       </c>
       <c r="E1271" t="inlineStr"/>
@@ -34894,18 +34888,18 @@
       </c>
       <c r="D1272" t="inlineStr">
         <is>
-          <t>[[-1886049.00940785]
- [-1783050.04317784]
- [-1679310.34906141]
- [-1530007.0847319 ]
- [-1379734.96458436]
- [-1228814.20722492]
- [-1138105.434574  ]
- [-1046984.41372236]
- [ -955198.49369868]
- [ -868643.12560939]
- [ -781145.2727949 ]
- [ -692941.9325765 ]]</t>
+          <t>[[-1974786.59044885]
+ [-1863252.93500534]
+ [-1749673.67097221]
+ [-1583111.60332594]
+ [-1411372.43943957]
+ [-1235922.22545725]
+ [-1129561.41762938]
+ [-1022219.04185209]
+ [ -913645.40876661]
+ [ -840589.85077611]
+ [ -766980.31427268]
+ [ -692940.93598255]]</t>
         </is>
       </c>
       <c r="E1272" t="inlineStr"/>
@@ -34928,18 +34922,18 @@
       </c>
       <c r="D1273" t="inlineStr">
         <is>
-          <t>[[ 3.52283235e+08]
- [ 3.17876214e+08]
- [ 2.83338644e+08]
- [ 2.33819622e+08]
- [ 1.84166956e+08]
- [ 1.34454996e+08]
- [ 1.04635876e+08]
- [ 7.47964923e+07]
- [ 4.49311415e+07]
- [ 1.70379806e+07]
- [-1.08497787e+07]
- [-3.86931092e+07]]</t>
+          <t>[[ 3.64731401e+08]
+ [ 3.27834387e+08]
+ [ 2.90580696e+08]
+ [ 2.36664404e+08]
+ [ 1.81996552e+08]
+ [ 1.26899104e+08]
+ [ 9.37766509e+07]
+ [ 6.06192747e+07]
+ [ 2.74479803e+07]
+ [ 5.35829889e+06]
+ [-1.66963154e+07]
+ [-3.86931098e+07]]</t>
         </is>
       </c>
       <c r="E1273" t="inlineStr"/>
@@ -34962,18 +34956,18 @@
       </c>
       <c r="D1274" t="inlineStr">
         <is>
-          <t>[[6203642.28913846]
- [6203572.2867292 ]
- [6203502.22497938]
- [6203503.4306265 ]
- [6203437.53419354]
- [6203370.0331283 ]
- [6203484.4236767 ]
- [6203540.46573815]
- [6203627.81044246]
- [6203837.91223762]
- [6203781.31240357]
- [6203724.69777438]]</t>
+          <t>[[6203833.00858089]
+ [6203758.71007843]
+ [6203684.3327132 ]
+ [6204303.44743803]
+ [6204196.09794962]
+ [6204088.61546411]
+ [6204038.41657644]
+ [6204098.88563249]
+ [6204178.9250367 ]
+ [6204195.086665  ]
+ [6204151.94768981]
+ [6204108.79696183]]</t>
         </is>
       </c>
       <c r="E1274" t="inlineStr"/>
@@ -34998,7 +34992,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-2.52469074e+07]]</t>
+ [-1.73447530e+07]]</t>
         </is>
       </c>
       <c r="E1275" t="inlineStr"/>
@@ -35021,9 +35015,9 @@
       </c>
       <c r="D1276" t="inlineStr">
         <is>
-          <t>[[-1.98810205e+06]
- [ 3.86514039e+08]
- [ 6.20266624e+06]]</t>
+          <t>[[-2.08376848e+06]
+ [ 4.01157865e+08]
+ [ 6.20266553e+06]]</t>
         </is>
       </c>
       <c r="E1276" t="inlineStr"/>
@@ -35046,7 +35040,7 @@
       </c>
       <c r="D1277" t="inlineStr">
         <is>
-          <t>[2588566.37982316]</t>
+          <t>[1785807.18042799]</t>
         </is>
       </c>
       <c r="E1277" t="inlineStr"/>
@@ -35069,7 +35063,7 @@
       </c>
       <c r="D1278" t="inlineStr">
         <is>
-          <t>[-2.47610033e+00 -3.51217691e-02  9.58336168e+01]</t>
+          <t>[-3.58916308e+00 -5.09149908e-02  1.13800905e+02]</t>
         </is>
       </c>
       <c r="E1278" t="inlineStr"/>
@@ -35092,8 +35086,8 @@
       </c>
       <c r="D1279" t="inlineStr">
         <is>
-          <t>[3.16566960e+10 3.15257631e+10 3.06156367e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[2.82566337e+10 2.81257006e+10 2.78516803e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E1279" t="inlineStr"/>
@@ -35112,8 +35106,7 @@
       <c r="C1280" t="inlineStr"/>
       <c r="D1280" t="inlineStr">
         <is>
-          <t>[119.51887753 112.22577299 102.05904485 101.31234372  99.19047297
-  94.3641303 ]</t>
+          <t>[128.4315157 128.4315157 128.4315157 128.4315157 128.4315157 128.4315157]</t>
         </is>
       </c>
       <c r="E1280" t="inlineStr"/>
@@ -35170,7 +35163,7 @@
       <c r="C1283" t="inlineStr"/>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>[1.064986   1.09961614 1.00737029 1.02139188 1.05114595]</t>
+          <t>[1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E1283" t="inlineStr"/>
@@ -35252,8 +35245,10 @@
       </c>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>[5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5
- 5.5]</t>
+          <t>[4.49510305 4.49510305 4.49510305 4.49510305 4.49510305 4.49510305
+ 4.49510305 4.49510305 4.49510305 4.49510305 4.49510305 4.49510305
+ 4.49510305 4.49510305 4.49510305 4.49510305 4.49510305 4.49510305
+ 4.49510305]</t>
         </is>
       </c>
       <c r="E1287" t="inlineStr"/>
@@ -35276,7 +35271,7 @@
       </c>
       <c r="D1288" t="inlineStr">
         <is>
-          <t>[  0.   0. -35.]</t>
+          <t>[  0.    0.  -42.5]</t>
         </is>
       </c>
       <c r="E1288" t="inlineStr"/>
@@ -35299,7 +35294,7 @@
       </c>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>[6652.32244398]</t>
+          <t>[5395.70382728]</t>
         </is>
       </c>
       <c r="E1289" t="inlineStr"/>
@@ -35322,7 +35317,7 @@
       </c>
       <c r="D1290" t="inlineStr">
         <is>
-          <t>[66865740.88083982]</t>
+          <t>[54234853.62042493]</t>
         </is>
       </c>
       <c r="E1290" t="inlineStr"/>
@@ -35341,7 +35336,7 @@
       <c r="C1291" t="inlineStr"/>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>[4.]</t>
+          <t>[3.]</t>
         </is>
       </c>
       <c r="E1291" t="inlineStr"/>
@@ -35364,7 +35359,7 @@
       </c>
       <c r="D1292" t="inlineStr">
         <is>
-          <t>[95.03317777]</t>
+          <t>[63.47886856]</t>
         </is>
       </c>
       <c r="E1292" t="inlineStr"/>
@@ -35387,7 +35382,7 @@
       </c>
       <c r="D1293" t="inlineStr">
         <is>
-          <t>[718.68840689]</t>
+          <t>[320.66273364]</t>
         </is>
       </c>
       <c r="E1293" t="inlineStr"/>
@@ -35410,7 +35405,7 @@
       </c>
       <c r="D1294" t="inlineStr">
         <is>
-          <t>[718.68840689]</t>
+          <t>[320.66273364]</t>
         </is>
       </c>
       <c r="E1294" t="inlineStr"/>
@@ -35433,8 +35428,8 @@
       </c>
       <c r="D1295" t="inlineStr">
         <is>
-          <t>[6.81863051e+06 6.81863051e+06 2.27379167e+05 2.78441474e+09
- 2.78441474e+09 0.00000000e+00]</t>
+          <t>[5.53059642e+06 5.53059642e+06 1.24131373e+05 3.33004810e+09
+ 3.33004810e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E1295" t="inlineStr"/>
@@ -35480,7 +35475,7 @@
       </c>
       <c r="D1297" t="inlineStr">
         <is>
-          <t>[-70.         -60.         -50.         -40.         -35.
+          <t>[-85.         -70.         -55.         -40.         -35.
  -30.         -25.         -20.         -15.         -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -35506,8 +35501,9 @@
       </c>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11.
- 11.]</t>
+          <t>[8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061
+ 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061
+ 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061]</t>
         </is>
       </c>
       <c r="E1298" t="inlineStr"/>
@@ -35530,7 +35526,7 @@
       </c>
       <c r="D1299" t="inlineStr">
         <is>
-          <t>[30. 15. 15. 10. 10.  5.]</t>
+          <t>[45. 15. 15. 10. 10.  5.]</t>
         </is>
       </c>
       <c r="E1299" t="inlineStr"/>
@@ -35661,7 +35657,7 @@
       </c>
       <c r="D1305" t="inlineStr">
         <is>
-          <t>[-70. -40. -25. -10.   0.  10.  15.]</t>
+          <t>[-85. -40. -25. -10.   0.  10.  15.]</t>
         </is>
       </c>
       <c r="E1305" t="inlineStr"/>
@@ -35680,7 +35676,7 @@
       <c r="C1306" t="inlineStr"/>
       <c r="D1306" t="inlineStr">
         <is>
-          <t>[0.         0.33333333 0.55555556 0.74074074 0.88888889 1.        ]</t>
+          <t>[0.         0.4        0.6        0.76666667 0.9        1.        ]</t>
         </is>
       </c>
       <c r="E1306" t="inlineStr">
@@ -35761,8 +35757,8 @@
       </c>
       <c r="D1309" t="inlineStr">
         <is>
-          <t>[26322.56104433 28017.78802382 30781.21891165 31005.8239164
- 31662.3432778  33264.40780259]</t>
+          <t>[16371.97911    16371.97910999 16371.97910999 16371.97910999
+ 16371.97910998 16371.97910992]</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr">
@@ -35789,8 +35785,8 @@
       </c>
       <c r="D1310" t="inlineStr">
         <is>
-          <t>[391522.28752644 416284.25685747 456531.86746665 459796.69721807
- 469334.2634175  492573.70916176]</t>
+          <t>[162849.98232742 162849.98232728 162849.98232714 162849.98232699
+ 162849.98232684 162849.98232517]</t>
         </is>
       </c>
       <c r="E1310" t="inlineStr">
@@ -35817,8 +35813,8 @@
       </c>
       <c r="D1311" t="inlineStr">
         <is>
-          <t>[391522.28752644 416284.25685747 456531.86746665 459796.69721807
- 469334.2634175  492573.70916176]</t>
+          <t>[162849.98232742 162849.98232728 162849.98232714 162849.98232699
+ 162849.98232684 162849.98232517]</t>
         </is>
       </c>
       <c r="E1311" t="inlineStr">
@@ -35845,8 +35841,8 @@
       </c>
       <c r="D1312" t="inlineStr">
         <is>
-          <t>[9.38227384e+12 9.97565916e+12 1.09401358e+13 1.10183728e+13
- 1.12469270e+13 1.18038272e+13]</t>
+          <t>[3.90246782e+12 3.90246782e+12 3.90246782e+12 3.90246782e+12
+ 3.90246782e+12 3.90246782e+12]</t>
         </is>
       </c>
       <c r="E1312" t="inlineStr">
@@ -35873,8 +35869,8 @@
       </c>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>[9.38227384e+12 9.97565916e+12 1.09401358e+13 1.10183728e+13
- 1.12469270e+13 1.18038272e+13]</t>
+          <t>[3.90246782e+12 3.90246782e+12 3.90246782e+12 3.90246782e+12
+ 3.90246782e+12 3.90246782e+12]</t>
         </is>
       </c>
       <c r="E1313" t="inlineStr">
@@ -35901,8 +35897,8 @@
       </c>
       <c r="D1314" t="inlineStr">
         <is>
-          <t>[7.44014316e+12 7.91069772e+12 8.67552770e+12 8.73756964e+12
- 8.91881311e+12 9.36043497e+12]</t>
+          <t>[3.09465699e+12 3.09465699e+12 3.09465699e+12 3.09465699e+12
+ 3.09465699e+12 3.09465698e+12]</t>
         </is>
       </c>
       <c r="E1314" t="inlineStr">
@@ -35929,8 +35925,8 @@
       </c>
       <c r="D1315" t="inlineStr">
         <is>
-          <t>[6.30782675e+11 6.71406375e+11 7.37628059e+11 7.43010398e+11
- 7.58742949e+11 7.97134143e+11]</t>
+          <t>[3.92331155e+11 3.92331155e+11 3.92331155e+11 3.92331155e+11
+ 3.92331155e+11 3.92331155e+11]</t>
         </is>
       </c>
       <c r="E1315" t="inlineStr">
@@ -36038,12 +36034,12 @@
       </c>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.31706641 0.11724237 0.11724237 0.        ]
- [0.         0.         0.29788219 0.1102684  0.1102684  0.        ]
- [0.         0.         0.27113936 0.1005472  0.1005472  0.        ]
- [0.         0.         0.26917524 0.09983325 0.09983325 0.        ]
- [0.         0.         0.26359388 0.09780449 0.09780449 0.        ]
- [0.         0.         0.2508988  0.09319011 0.09319011 0.        ]]</t>
+          <t>[[0.         0.         0.50977343 0.23037233 0.23037233 0.        ]
+ [0.         0.         0.50977343 0.23037233 0.23037233 0.        ]
+ [0.         0.         0.50977343 0.23037233 0.23037233 0.        ]
+ [0.         0.         0.50977343 0.23037233 0.23037233 0.        ]
+ [0.         0.         0.50977343 0.23037233 0.23037233 0.        ]
+ [0.         0.         0.50977343 0.23037233 0.23037233 0.        ]]</t>
         </is>
       </c>
       <c r="E1319" t="inlineStr"/>
@@ -36066,12 +36062,12 @@
       </c>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>[[0.52020568 0.52020568 0.         0.         0.         0.05862118]
- [0.48860522 0.48860522 0.         0.         0.         0.0551342 ]
- [0.44455283 0.44455283 0.         0.         0.         0.0502736 ]
- [0.44131734 0.44131734 0.         0.         0.         0.04991663]
- [0.43212313 0.43212313 0.         0.         0.         0.04890225]
- [0.41121007 0.41121007 0.         0.         0.         0.04659506]]</t>
+          <t>[[0.83660474 0.83660474 0.         0.         0.         0.11518617]
+ [0.83660474 0.83660474 0.         0.         0.         0.11518617]
+ [0.83660474 0.83660474 0.         0.         0.         0.11518617]
+ [0.83660474 0.83660474 0.         0.         0.         0.11518617]
+ [0.83660474 0.83660474 0.         0.         0.         0.11518617]
+ [0.83660474 0.83660474 0.         0.         0.         0.11518617]]</t>
         </is>
       </c>
       <c r="E1320" t="inlineStr"/>
@@ -36094,7 +36090,7 @@
       </c>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>[1295.6242866]</t>
+          <t>[1051.65230214]</t>
         </is>
       </c>
       <c r="E1321" t="inlineStr"/>
@@ -36117,7 +36113,7 @@
       </c>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>[5862278.31558027]</t>
+          <t>[4025651.55909389]</t>
         </is>
       </c>
       <c r="E1322" t="inlineStr"/>
@@ -36140,7 +36136,7 @@
       </c>
       <c r="D1323" t="inlineStr">
         <is>
-          <t>[2464665.646317]</t>
+          <t>[1637197.91099903]</t>
         </is>
       </c>
       <c r="E1323" t="inlineStr"/>
@@ -36163,7 +36159,7 @@
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>[44.41473817]</t>
+          <t>[50.]</t>
         </is>
       </c>
       <c r="E1324" t="inlineStr"/>
@@ -36186,7 +36182,7 @@
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>[6.38224469e+09 6.38224469e+09 7.31841773e+07 0.00000000e+00
+          <t>[5.47361137e+09 5.47361137e+09 3.25699965e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36210,7 +36206,9 @@
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11.]</t>
+          <t>[8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061
+ 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061
+ 8.9902061 8.9902061 8.9902061 8.9902061]</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr"/>
@@ -36233,9 +36231,8 @@
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>[0.09847817 0.09847817 0.09847817 0.10487787 0.10487787 0.10487787
- 0.1153254  0.1153254  0.1153254  0.11617538 0.11617538 0.11617538
- 0.11866059 0.11866059 0.11866059 0.1247296  0.1247296  0.1247296 ]</t>
+          <t>[0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749
+ 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749]</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr"/>
@@ -36283,7 +36280,7 @@
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>[2564665.646317]</t>
+          <t>[1737197.91099903]</t>
         </is>
       </c>
       <c r="E1329" t="inlineStr"/>
@@ -36306,7 +36303,7 @@
       </c>
       <c r="D1330" t="inlineStr">
         <is>
-          <t>[6362278.31558027]</t>
+          <t>[4525651.55909389]</t>
         </is>
       </c>
       <c r="E1330" t="inlineStr"/>
@@ -36329,7 +36326,7 @@
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>[45.99721586]</t>
+          <t>[52.87819826]</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr"/>
@@ -36352,7 +36349,7 @@
       </c>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>[7.10625719e+09 7.10625719e+09 7.62091773e+07 0.00000000e+00
+          <t>[6.47462167e+09 6.47462167e+09 3.45905916e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36376,7 +36373,7 @@
       </c>
       <c r="D1333" t="inlineStr">
         <is>
-          <t>[4204836.80123245]</t>
+          <t>[2574583.76534767]</t>
         </is>
       </c>
       <c r="E1333" t="inlineStr"/>
@@ -36399,7 +36396,7 @@
       </c>
       <c r="D1334" t="inlineStr">
         <is>
-          <t>[10541805.12154858]</t>
+          <t>[6842697.47819499]</t>
         </is>
       </c>
       <c r="E1334" t="inlineStr"/>
@@ -36422,7 +36419,7 @@
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>[-70.]</t>
+          <t>[-85.]</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr"/>
@@ -36441,7 +36438,7 @@
       <c r="C1336" t="inlineStr"/>
       <c r="D1336" t="inlineStr">
         <is>
-          <t>[1.]</t>
+          <t>[0.88985724]</t>
         </is>
       </c>
       <c r="E1336" t="inlineStr"/>
@@ -36464,8 +36461,7 @@
       </c>
       <c r="D1337" t="inlineStr">
         <is>
-          <t>[-30.         -26.66666667 -23.33333333 -20.         -16.66666667
- -13.33333333 -10.          -6.66666667  -3.33333333  -0.        ]</t>
+          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
         </is>
       </c>
       <c r="E1337" t="inlineStr"/>
@@ -36488,26 +36484,26 @@
       </c>
       <c r="D1338" t="inlineStr">
         <is>
-          <t>[[2.25650526e+10 5.88608222e+12 2.25650526e+10 5.88608222e+12
-  1.52133333e+10 1.24226667e+11]
- [2.04901053e+10 4.24064551e+12 2.04901053e+10 4.24064551e+12
-  1.40933333e+10 1.24226667e+11]
- [1.84151579e+10 2.94918412e+12 1.84151579e+10 2.94918412e+12
-  1.29733333e+10 1.24226667e+11]
- [1.63402105e+10 1.96745111e+12 1.63402105e+10 1.96745111e+12
-  1.18533333e+10 1.24226667e+11]
- [1.42652632e+10 1.25119959e+12 1.42652632e+10 1.25119959e+12
-  1.07333333e+10 1.24226667e+11]
- [1.21903158e+10 7.56182634e+11 1.21903158e+10 7.56182634e+11
-  9.61333333e+09 1.24226667e+11]
- [1.01153684e+10 4.38153333e+11 1.01153684e+10 4.38153333e+11
-  8.49333333e+09 1.24226667e+11]
- [8.04042105e+09 2.52864774e+11 8.04042105e+09 2.52864774e+11
-  7.37333333e+09 1.24226667e+11]
- [5.96547368e+09 1.56070041e+11 5.96547368e+09 1.56070041e+11
-  6.25333333e+09 1.24226667e+11]
- [3.89052632e+09 1.03522222e+11 3.89052632e+09 1.03522222e+11
-  5.13333333e+09 1.24226667e+11]]</t>
+          <t>[[3.11914834e+10 1.86078671e+13 3.11914834e+10 1.86078671e+13
+  1.93154295e+10 6.78181160e+10]
+ [2.80790624e+10 1.31617169e+13 2.80790624e+10 1.31617169e+13
+  1.76354295e+10 6.78181160e+10]
+ [2.49666413e+10 8.91023330e+12 2.49666413e+10 8.91023330e+12
+  1.59554295e+10 6.78181160e+10]
+ [2.18542203e+10 5.70408308e+12 2.18542203e+10 5.70408308e+12
+  1.42754295e+10 6.78181160e+10]
+ [1.87417992e+10 3.39393286e+12 1.87417992e+10 3.39393286e+12
+  1.25954295e+10 6.78181160e+10]
+ [1.56293782e+10 1.83044931e+12 1.56293782e+10 1.83044931e+12
+  1.09154295e+10 6.78181160e+10]
+ [1.25169571e+10 8.64299090e+11 1.25169571e+10 8.64299090e+11
+  9.23542951e+09 6.78181160e+10]
+ [9.40453605e+09 3.46148870e+11 9.40453605e+09 3.46148870e+11
+  7.55542951e+09 6.78181160e+10]
+ [6.29211500e+09 1.26665317e+11 6.29211500e+09 1.26665317e+11
+  5.87542951e+09 6.78181160e+10]
+ [3.17969395e+09 5.65150966e+10 3.17969395e+09 5.65150966e+10
+  4.19542951e+09 6.78181160e+10]]</t>
         </is>
       </c>
       <c r="E1338" t="inlineStr"/>
@@ -38613,7 +38609,7 @@
       <c r="C1408" t="inlineStr"/>
       <c r="D1408" t="inlineStr">
         <is>
-          <t>[200.         200.00000046 187.91649078 171.4       ]</t>
+          <t>[184.0945639 320.        280.        240.       ]</t>
         </is>
       </c>
       <c r="E1408" t="inlineStr"/>
@@ -38632,7 +38628,7 @@
       <c r="C1409" t="inlineStr"/>
       <c r="D1409" t="inlineStr">
         <is>
-          <t>[1.         0.86982127 0.62698356 1.        ]</t>
+          <t>[1.   1.   0.75 1.  ]</t>
         </is>
       </c>
       <c r="E1409" t="inlineStr"/>
@@ -38651,7 +38647,7 @@
       <c r="C1410" t="inlineStr"/>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>[1.         0.86982127 0.62698356 1.        ]</t>
+          <t>[1.   1.   0.75 1.  ]</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr"/>
@@ -38670,7 +38666,7 @@
       <c r="C1411" t="inlineStr"/>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>[0.93491063 0.80552346 0.84500068]</t>
+          <t>[0.57529551 1.         1.        ]</t>
         </is>
       </c>
       <c r="E1411" t="inlineStr"/>
@@ -38751,9 +38747,9 @@
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>[5.5        5.5        5.5        5.5        5.26133899 5.02267799
- 4.78401698 4.18917799 3.59433899 2.9995     2.9995     2.9995
- 2.9995    ]</t>
+          <t>[4.         4.         4.         4.         4.         4.
+ 4.         3.66666667 3.33333333 3.         3.         3.
+ 3.        ]</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr"/>
@@ -38979,9 +38975,9 @@
       </c>
       <c r="D1425" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E1425" t="inlineStr"/>
@@ -39004,9 +39000,9 @@
       </c>
       <c r="D1426" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         10.52267799 10.04535597
-  9.56803396  8.37835597  7.18867799  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E1426" t="inlineStr"/>
@@ -39029,7 +39025,7 @@
       </c>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>[34.83993007 49.77132867 29.8627972  27.87194406]</t>
+          <t>[36.90451852 52.72074074 31.63244444 21.0882963 ]</t>
         </is>
       </c>
       <c r="E1427" t="inlineStr"/>
@@ -39159,7 +39155,7 @@
       </c>
       <c r="D1433" t="inlineStr">
         <is>
-          <t>[ 15.          49.83993007  99.61125874 129.47405594 157.346     ]</t>
+          <t>[ 15.          51.90451852 104.62525926 136.2577037  157.346     ]</t>
         </is>
       </c>
       <c r="E1433" t="inlineStr"/>
@@ -39178,7 +39174,7 @@
       <c r="C1434" t="inlineStr"/>
       <c r="D1434" t="inlineStr">
         <is>
-          <t>[0.         0.38116592 0.73991031 1.        ]</t>
+          <t>[0.         0.39534884 0.76744186 1.        ]</t>
         </is>
       </c>
       <c r="E1434" t="inlineStr">
@@ -39259,7 +39255,7 @@
       </c>
       <c r="D1437" t="inlineStr">
         <is>
-          <t>[15783.62334338 13795.80055057  8408.09942792  5473.10691756]</t>
+          <t>[9065.70845322 5227.55912469 4572.06581752 3916.57251035]</t>
         </is>
       </c>
       <c r="E1437" t="inlineStr">
@@ -39286,7 +39282,7 @@
       </c>
       <c r="D1438" t="inlineStr">
         <is>
-          <t>[236351.96640313 180567.51366341  62999.55568427  24335.15806829]</t>
+          <t>[71742.03005029 41559.91184742 27804.58963809 17478.31679189]</t>
         </is>
       </c>
       <c r="E1438" t="inlineStr">
@@ -39313,7 +39309,7 @@
       </c>
       <c r="D1439" t="inlineStr">
         <is>
-          <t>[236351.96640313 180567.51366341  62999.55568427  24335.15806829]</t>
+          <t>[71742.03005029 41559.91184742 27804.58963809 17478.31679189]</t>
         </is>
       </c>
       <c r="E1439" t="inlineStr">
@@ -39340,7 +39336,7 @@
       </c>
       <c r="D1440" t="inlineStr">
         <is>
-          <t>[5.66383816e+12 4.32704322e+12 1.50969460e+12 5.83157394e+11]</t>
+          <t>[1.71919554e+12 9.95924080e+11 6.66297379e+11 4.18842962e+11]</t>
         </is>
       </c>
       <c r="E1440" t="inlineStr">
@@ -39367,7 +39363,7 @@
       </c>
       <c r="D1441" t="inlineStr">
         <is>
-          <t>[5.66383816e+12 4.32704322e+12 1.50969460e+12 5.83157394e+11]</t>
+          <t>[1.71919554e+12 9.95924080e+11 6.66297379e+11 4.18842962e+11]</t>
         </is>
       </c>
       <c r="E1441" t="inlineStr">
@@ -39394,7 +39390,7 @@
       </c>
       <c r="D1442" t="inlineStr">
         <is>
-          <t>[4.49142366e+12 3.43134528e+12 1.19718782e+12 4.62443814e+11]</t>
+          <t>[1.36332207e+12 7.89767795e+11 5.28373822e+11 3.32142469e+11]</t>
         </is>
       </c>
       <c r="E1442" t="inlineStr">
@@ -39421,7 +39417,7 @@
       </c>
       <c r="D1443" t="inlineStr">
         <is>
-          <t>[3.78232048e+11 3.30596706e+11 2.01488124e+11 1.31155210e+11]</t>
+          <t>[2.17246788e+11 1.25271007e+11 1.09563044e+11 9.38550805e+10]</t>
         </is>
       </c>
       <c r="E1443" t="inlineStr">
@@ -39529,10 +39525,10 @@
       </c>
       <c r="D1447" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.52877592 0.19421459 0.19421459 0.        ]
- [0.         0.         0.6049667  0.23766846 0.23766846 0.        ]
- [0.         0.         0.99261433 0.51556897 0.51556897 0.        ]
- [0.         0.         1.52491083 1.02871027 1.02871027 0.        ]]</t>
+          <t>[[0.         0.         0.920612   0.46533392 0.46533392 0.        ]
+ [0.         0.         1.59653861 0.80327408 0.80327408 0.        ]
+ [0.         0.         1.82543304 1.05058195 1.05058195 0.        ]
+ [0.         0.         2.13094484 1.4325178  1.4325178  0.        ]]</t>
         </is>
       </c>
       <c r="E1447" t="inlineStr"/>
@@ -39555,10 +39551,10 @@
       </c>
       <c r="D1448" t="inlineStr">
         <is>
-          <t>[[0.86890906 0.86890906 0.         0.         0.         0.09710729]
- [0.99410927 0.99410927 0.         0.         0.         0.11883423]
- [1.63086987 1.63086987 0.         0.         0.         0.25778449]
- [2.50484558 2.50484558 0.         0.         0.         0.51435513]]</t>
+          <t>[[1.51249312 1.51249312 0.         0.         0.         0.23266696]
+ [2.62573607 2.62573607 0.         0.         0.         0.40163704]
+ [3.00158224 3.00158224 0.         0.         0.         0.52529097]
+ [3.50299574 3.50299574 0.         0.         0.         0.7162589 ]]</t>
         </is>
       </c>
       <c r="E1448" t="inlineStr"/>
@@ -39581,7 +39577,7 @@
       </c>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>[725.44115894]</t>
+          <t>[528.52488767]</t>
         </is>
       </c>
       <c r="E1449" t="inlineStr"/>
@@ -39604,7 +39600,7 @@
       </c>
       <c r="D1450" t="inlineStr">
         <is>
-          <t>[4179526.80596831]</t>
+          <t>[2317045.9191011]</t>
         </is>
       </c>
       <c r="E1450" t="inlineStr"/>
@@ -39627,8 +39623,8 @@
       </c>
       <c r="D1451" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         10.76133899 10.28401698  9.80669496
-  8.97319496  7.78351698  6.59383899  5.999       5.999       5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 7.66666667 7.         6.33333333 6.         6.         6.        ]</t>
         </is>
       </c>
       <c r="E1451" t="inlineStr"/>
@@ -39651,8 +39647,8 @@
       </c>
       <c r="D1452" t="inlineStr">
         <is>
-          <t>[0.05885    0.05885    0.05885    0.05501949 0.05501949 0.05501949
- 0.04431949 0.04431949 0.04431949 0.03745    0.03745    0.03745   ]</t>
+          <t>[0.04649784 0.04649784 0.04649784 0.02675    0.02675    0.02675
+ 0.02675    0.02675    0.02675    0.02675    0.02675    0.02675   ]</t>
         </is>
       </c>
       <c r="E1452" t="inlineStr"/>
@@ -45171,7 +45167,7 @@
       </c>
       <c r="D1628" t="inlineStr">
         <is>
-          <t>[2.54733869]</t>
+          <t>[2.76572213]</t>
         </is>
       </c>
       <c r="E1628" t="inlineStr"/>
@@ -47075,9 +47071,9 @@
       <c r="D1713" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          49.83993007]
- [  0.           0.          99.61125874]
- [  0.           0.         129.47405594]
+ [  0.           0.          51.90451852]
+ [  0.           0.         104.62525926]
+ [  0.           0.         136.2577037 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -47901,8 +47897,7 @@
       <c r="C1745" t="inlineStr"/>
       <c r="D1745" t="inlineStr">
         <is>
-          <t>[0.         0.35294118 0.52941176 0.70588235 0.82352941 0.94117647
- 1.        ]</t>
+          <t>[0.   0.45 0.6  0.75 0.85 0.95 1.  ]</t>
         </is>
       </c>
       <c r="E1745" t="inlineStr">
@@ -47929,7 +47924,7 @@
       </c>
       <c r="D1746" t="inlineStr">
         <is>
-          <t>[85.]</t>
+          <t>[100.]</t>
         </is>
       </c>
       <c r="E1746" t="inlineStr">
@@ -47956,7 +47951,7 @@
       </c>
       <c r="D1747" t="inlineStr">
         <is>
-          <t>[85.]</t>
+          <t>[100.]</t>
         </is>
       </c>
       <c r="E1747" t="inlineStr">
@@ -47983,7 +47978,7 @@
       </c>
       <c r="D1748" t="inlineStr">
         <is>
-          <t>[-70.]</t>
+          <t>[-85.]</t>
         </is>
       </c>
       <c r="E1748" t="inlineStr">
@@ -48010,7 +48005,7 @@
       </c>
       <c r="D1749" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
+          <t>[8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061]</t>
         </is>
       </c>
       <c r="E1749" t="inlineStr">
@@ -48037,8 +48032,7 @@
       </c>
       <c r="D1750" t="inlineStr">
         <is>
-          <t>[[0.09235827 0.09171307 0.10432033 0.11124116 0.10590908 0.11588641
-  0.11725302]]</t>
+          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
         </is>
       </c>
       <c r="E1750" t="inlineStr">
@@ -48969,7 +48963,7 @@
  [  0.   0.  50.]
  [  0.   0. 100.]
  [  0.   0. 130.]
- [  0.   0. 158.]]</t>
+ [  0.   0. 150.]]</t>
         </is>
       </c>
       <c r="E1785" t="inlineStr">
@@ -48996,7 +48990,7 @@
       </c>
       <c r="D1786" t="inlineStr">
         <is>
-          <t>[11.         11.          9.56803396  5.999       5.999     ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E1786" t="inlineStr">
@@ -49046,7 +49040,7 @@
       </c>
       <c r="D1788" t="inlineStr">
         <is>
-          <t>[[0.055      0.055      0.04784017 0.035      0.035     ]]</t>
+          <t>[[0.06191185 0.025      0.025      0.025      0.025     ]]</t>
         </is>
       </c>
       <c r="E1788" t="inlineStr">
@@ -49146,7 +49140,7 @@
       <c r="C1792" t="inlineStr"/>
       <c r="D1792" t="inlineStr">
         <is>
-          <t>[0.         0.24475524 0.59440559 0.8041958  1.        ]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E1792" t="inlineStr">
@@ -49503,7 +49497,7 @@
       </c>
       <c r="D1807" t="inlineStr">
         <is>
-          <t>[-0.006317]</t>
+          <t>[-0.00631526]</t>
         </is>
       </c>
       <c r="E1807" t="inlineStr"/>
@@ -49549,7 +49543,7 @@
       </c>
       <c r="D1809" t="inlineStr">
         <is>
-          <t>[-0.00544265]</t>
+          <t>[-0.00544382]</t>
         </is>
       </c>
       <c r="E1809" t="inlineStr"/>
@@ -51046,7 +51040,7 @@
       </c>
       <c r="D1877" t="inlineStr">
         <is>
-          <t>[0.77726827]</t>
+          <t>[0.77676827]</t>
         </is>
       </c>
       <c r="E1877" t="inlineStr"/>
@@ -52036,7 +52030,7 @@
       </c>
       <c r="D1921" t="inlineStr">
         <is>
-          <t>[40682.04562332]</t>
+          <t>[40686.9261128]</t>
         </is>
       </c>
       <c r="E1921" t="inlineStr"/>
@@ -52059,7 +52053,7 @@
       </c>
       <c r="D1922" t="inlineStr">
         <is>
-          <t>[629518.96502211]</t>
+          <t>[629537.66835959]</t>
         </is>
       </c>
       <c r="E1922" t="inlineStr"/>
@@ -52082,7 +52076,7 @@
       </c>
       <c r="D1923" t="inlineStr">
         <is>
-          <t>[-4.01003178 -0.14441984  4.24929631]</t>
+          <t>[-4.00991761 -0.14443037  4.24918643]</t>
         </is>
       </c>
       <c r="E1923" t="inlineStr"/>
@@ -52105,8 +52099,8 @@
       </c>
       <c r="D1924" t="inlineStr">
         <is>
-          <t>[9224591.7416582  8617359.56999176 8195565.62370818  351066.14056623
- 1743279.93471595 -201547.34360018]</t>
+          <t>[9225580.40494873 8618497.83646925 8196888.37923555  351088.87030514
+ 1743635.62842814 -201554.91603401]</t>
         </is>
       </c>
       <c r="E1924" t="inlineStr"/>
@@ -52129,8 +52123,8 @@
       </c>
       <c r="D1925" t="inlineStr">
         <is>
-          <t>[8803003.83878226 7821243.31218108 7820064.43983148  364572.16184084
- 1345889.34905671 -215859.22180367]</t>
+          <t>[8803899.15124393 7822207.43852207 7821305.99873213  364599.1774316
+ 1346158.17883116 -215871.37321263]</t>
         </is>
       </c>
       <c r="E1925" t="inlineStr"/>
@@ -52153,8 +52147,8 @@
       </c>
       <c r="D1926" t="inlineStr">
         <is>
-          <t>[20183055.00502324 29311052.87824881 17956082.7087389         0.
- 12072774.93314178   170465.68251563]</t>
+          <t>[2.01837025e+07 2.93114912e+07 1.79570509e+07 1.16415322e-10
+ 1.20727797e+07 1.70483168e+05]</t>
         </is>
       </c>
       <c r="E1926" t="inlineStr"/>
@@ -52177,7 +52171,7 @@
       </c>
       <c r="D1927" t="inlineStr">
         <is>
-          <t>[0.00466215]</t>
+          <t>[0.00466098]</t>
         </is>
       </c>
       <c r="E1927" t="inlineStr"/>
@@ -52200,7 +52194,7 @@
       </c>
       <c r="D1928" t="inlineStr">
         <is>
-          <t>[0.00330808]</t>
+          <t>[0.00330717]</t>
         </is>
       </c>
       <c r="E1928" t="inlineStr"/>
@@ -52223,7 +52217,7 @@
       </c>
       <c r="D1929" t="inlineStr">
         <is>
-          <t>[0.00311439]</t>
+          <t>[0.00311352]</t>
         </is>
       </c>
       <c r="E1929" t="inlineStr"/>
@@ -52246,7 +52240,7 @@
       </c>
       <c r="D1930" t="inlineStr">
         <is>
-          <t>[-0.0009661]</t>
+          <t>[-0.00096587]</t>
         </is>
       </c>
       <c r="E1930" t="inlineStr"/>
@@ -52269,7 +52263,7 @@
       </c>
       <c r="D1931" t="inlineStr">
         <is>
-          <t>[-0.00093224]</t>
+          <t>[-0.00093202]</t>
         </is>
       </c>
       <c r="E1931" t="inlineStr"/>
@@ -52292,7 +52286,7 @@
       </c>
       <c r="D1932" t="inlineStr">
         <is>
-          <t>[0.00090783]</t>
+          <t>[0.0009076]</t>
         </is>
       </c>
       <c r="E1932" t="inlineStr"/>
@@ -52317,7 +52311,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-8.98577631e+06]]</t>
+ [-8.98603452e+06]]</t>
         </is>
       </c>
       <c r="E1933" t="inlineStr"/>
@@ -52340,9 +52334,9 @@
       </c>
       <c r="D1934" t="inlineStr">
         <is>
-          <t>[[  -692939.78155346]
- [-38693034.48001503]
- [  6202666.24461834]]</t>
+          <t>[[  -692940.008576  ]
+ [-38693074.08051626]
+ [  6202665.53278366]]</t>
         </is>
       </c>
       <c r="E1934" t="inlineStr"/>
@@ -52365,20 +52359,20 @@
       </c>
       <c r="D1935" t="inlineStr">
         <is>
-          <t>[[3.77212692e+07]
- [3.94409121e+07]
- [4.19929289e+07]
- [4.56090199e+07]
- [5.06449418e+07]
- [5.76402722e+07]
- [6.73768708e+07]
- [8.07951237e+07]
- [9.81304395e+07]
- [1.15412630e+08]
- [1.18612497e+08]
- [6.31659015e+07]
- [6.13025412e+07]
- [1.12867568e+07]
+          <t>[[3.77100750e+07]
+ [3.94292335e+07]
+ [4.19805835e+07]
+ [4.55957996e+07]
+ [5.06306239e+07]
+ [5.76246670e+07]
+ [6.73599764e+07]
+ [8.07775573e+07]
+ [9.81143750e+07]
+ [1.15402369e+08]
+ [1.18609783e+08]
+ [6.31658991e+07]
+ [6.13025391e+07]
+ [1.12867557e+07]
  [3.67595980e+06]]</t>
         </is>
       </c>
@@ -52402,21 +52396,21 @@
       </c>
       <c r="D1936" t="inlineStr">
         <is>
-          <t>[[ 8198781.70594296]
- [ 5095327.15811212]
- [ 3047782.37602238]
- [ 7003274.18581239]
- [11730989.02670426]
- [17602448.15078768]
- [25094691.22252726]
- [34742153.56517175]
- [46807042.36370892]
- [60107631.68236353]
- [70031275.85325283]
- [36800928.55476876]
- [25411892.47588418]
- [24647897.46562164]
- [24524781.53624108]]</t>
+          <t>[[ 8196999.31830916]
+ [ 5094051.80087558]
+ [ 3046911.15812881]
+ [ 7001757.54569469]
+ [11728746.17396683]
+ [17599404.23607993]
+ [25090836.93232333]
+ [34737694.3872863 ]
+ [46802685.79137163]
+ [60104720.92907161]
+ [70030447.54624267]
+ [36800928.55531872]
+ [25411892.47643425]
+ [24647897.46745445]
+ [24524781.53807375]]</t>
         </is>
       </c>
       <c r="E1936" t="inlineStr"/>
@@ -52439,17 +52433,17 @@
       </c>
       <c r="D1937" t="inlineStr">
         <is>
-          <t>[[19541743.0075572 ]
- [20787724.11727618]
- [22799392.78851027]
- [25699411.44681333]
- [29729542.03579101]
- [35347827.62194706]
- [43372175.5189786 ]
- [55104178.2348154 ]
- [71764285.95269753]
- [90596108.96297374]
- [97575448.40726511]
+          <t>[[19533470.81272292]
+ [20779111.50768383]
+ [22790297.47511837]
+ [25689644.04409209]
+ [29718870.44041621]
+ [35335991.44334316]
+ [43358968.86778108]
+ [55089814.72863077]
+ [71750489.6970504 ]
+ [90587113.57082447]
+ [97572896.30561961]
  [       0.        ]
  [       0.        ]
  [       0.        ]
@@ -52472,19 +52466,19 @@
       <c r="C1938" t="inlineStr"/>
       <c r="D1938" t="inlineStr">
         <is>
-          <t>[[0.1289189 ]
- [0.12771584]
- [0.13313496]
- [0.14988231]
- [0.17563809]
- [0.21297135]
- [0.26560644]
- [0.33816037]
- [0.43286972]
- [0.53562679]
- [0.59160208]
+          <t>[[0.1288821 ]
+ [0.12767813]
+ [0.13309542]
+ [0.14983922]
+ [0.17559051]
+ [0.21291838]
+ [0.26554777]
+ [0.33809798]
+ [0.4328115 ]
+ [0.53558914]
+ [0.59159187]
  [0.32472098]
- [0.27308225]
+ [0.27308224]
  [0.15978898]
  [0.15428413]]</t>
         </is>
@@ -52505,7 +52499,7 @@
       <c r="C1939" t="inlineStr"/>
       <c r="D1939" t="inlineStr">
         <is>
-          <t>[0.11070637]</t>
+          <t>[0.11068017]</t>
         </is>
       </c>
       <c r="E1939" t="inlineStr"/>
@@ -52524,7 +52518,7 @@
       <c r="C1940" t="inlineStr"/>
       <c r="D1940" t="inlineStr">
         <is>
-          <t>[0.01195186]</t>
+          <t>[0.01194893]</t>
         </is>
       </c>
       <c r="E1940" t="inlineStr"/>
@@ -52543,7 +52537,7 @@
       <c r="C1941" t="inlineStr"/>
       <c r="D1941" t="inlineStr">
         <is>
-          <t>[54.65752477]</t>
+          <t>[54.64230165]</t>
         </is>
       </c>
       <c r="E1941" t="inlineStr"/>
@@ -52562,7 +52556,7 @@
       <c r="C1942" t="inlineStr"/>
       <c r="D1942" t="inlineStr">
         <is>
-          <t>[1.59324322]</t>
+          <t>[1.59284205]</t>
         </is>
       </c>
       <c r="E1942" t="inlineStr"/>
@@ -52608,7 +52602,7 @@
       </c>
       <c r="D1944" t="inlineStr">
         <is>
-          <t>[948395.22490771]</t>
+          <t>[948421.32607936]</t>
         </is>
       </c>
       <c r="E1944" t="inlineStr"/>
@@ -52631,7 +52625,7 @@
       </c>
       <c r="D1945" t="inlineStr">
         <is>
-          <t>[-6.7583112  -0.09586197  4.59784123]</t>
+          <t>[-6.75812851 -0.09586916  4.59772556]</t>
         </is>
       </c>
       <c r="E1945" t="inlineStr"/>
@@ -52654,8 +52648,8 @@
       </c>
       <c r="D1946" t="inlineStr">
         <is>
-          <t>[4.16137377e+08 2.85204501e+08 2.66306106e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[4.16138017e+08 2.85204924e+08 2.66307067e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E1946" t="inlineStr"/>
